--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA856E9-3FA5-F84B-A1F4-432EE88715BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A26D7FD-8015-B646-9832-D3FA24C7F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3897,211 +3897,6 @@
     <t>INGRESS</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NSGs" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DedicatedVMHost" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>DRG Name</t>
   </si>
   <si>
@@ -6167,12 +5962,255 @@
   <si>
     <t>ADB workload</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently. CD3 Automation toolkit will not export instances launched by OKE.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NSGs" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DedicatedVMHost" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>image::&lt;variable containing the market place image name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6394,6 +6432,11 @@
     <font>
       <sz val="11"/>
       <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -11194,7 +11237,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -16021,7 +16064,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -16041,25 +16084,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>414</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>415</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>269</v>
@@ -16647,7 +16690,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="31" customFormat="1" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>411</v>
+        <v>566</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -16657,7 +16700,7 @@
       <c r="G1" s="90"/>
       <c r="H1" s="91"/>
       <c r="I1" s="81" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
@@ -16703,16 +16746,16 @@
         <v>67</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>531</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>535</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>536</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>72</v>
@@ -16861,10 +16904,10 @@
         <v>83</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>73</v>
@@ -17135,13 +17178,13 @@
         <v>99</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>419</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>420</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>100</v>
@@ -17153,7 +17196,7 @@
         <v>74</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>102</v>
@@ -17326,7 +17369,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="31" customFormat="1" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -17361,16 +17404,16 @@
         <v>99</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>110</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>111</v>
@@ -17492,7 +17535,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="31" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -17534,10 +17577,10 @@
         <v>165</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>166</v>
@@ -17833,7 +17876,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -17855,19 +17898,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>166</v>
@@ -17876,7 +17919,7 @@
         <v>110</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>167</v>
@@ -18214,7 +18257,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -18235,19 +18278,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>551</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>552</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>113</v>
@@ -18259,7 +18302,7 @@
         <v>296</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -18313,7 +18356,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -18339,34 +18382,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>217</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H2" s="79" t="s">
         <v>218</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>563</v>
-      </c>
       <c r="L2" s="50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M2" s="49" t="s">
         <v>223</v>
@@ -18515,31 +18558,31 @@
         <v>29</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="H2" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="64" t="s">
         <v>487</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="L2" s="49" t="s">
         <v>488</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="M2" s="50" t="s">
         <v>489</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>490</v>
       </c>
       <c r="N2" s="49" t="s">
         <v>256</v>
@@ -18557,10 +18600,10 @@
         <v>259</v>
       </c>
       <c r="S2" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="T2" s="49" t="s">
         <v>491</v>
-      </c>
-      <c r="T2" s="49" t="s">
-        <v>492</v>
       </c>
       <c r="U2" s="49" t="s">
         <v>72</v>
@@ -18572,7 +18615,7 @@
         <v>224</v>
       </c>
       <c r="X2" s="49" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y2" s="49" t="s">
         <v>405</v>
@@ -24617,7 +24660,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -24635,7 +24678,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" s="64" t="s">
         <v>66</v>
@@ -24644,10 +24687,10 @@
         <v>67</v>
       </c>
       <c r="F2" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>504</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>505</v>
       </c>
       <c r="H2" s="67" t="s">
         <v>269</v>
@@ -30721,34 +30764,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="64" t="s">
         <v>508</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>509</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>239</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I2" s="64" t="s">
         <v>256</v>
       </c>
       <c r="J2" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K2" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="L2" s="64" t="s">
         <v>511</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>512</v>
       </c>
       <c r="M2" s="64" t="s">
         <v>72</v>
@@ -30760,7 +30803,7 @@
         <v>74</v>
       </c>
       <c r="P2" s="74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Q2" s="71" t="s">
         <v>269</v>
@@ -37657,22 +37700,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>263</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>241</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G1" s="46" t="s">
         <v>224</v>
@@ -37681,16 +37724,16 @@
         <v>223</v>
       </c>
       <c r="I1" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="J1" s="66" t="s">
         <v>488</v>
       </c>
-      <c r="J1" s="66" t="s">
-        <v>489</v>
-      </c>
       <c r="K1" s="46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L1" s="45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -37722,7 +37765,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K2" s="32">
         <v>1</v>
@@ -37733,7 +37776,7 @@
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>265</v>
@@ -37760,7 +37803,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K3" s="32">
         <v>2</v>
@@ -37771,7 +37814,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>237</v>
@@ -37788,7 +37831,7 @@
         <v>298</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -37796,7 +37839,7 @@
         <v>233</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>266</v>
@@ -37810,7 +37853,7 @@
         <v>299</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -37819,7 +37862,7 @@
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32" t="s">
@@ -37832,11 +37875,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="32"/>
       <c r="C7" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
@@ -37849,11 +37892,11 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="32"/>
       <c r="C8" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32" t="s">
@@ -37887,7 +37930,7 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32" t="s">
@@ -37900,11 +37943,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32" t="s">
@@ -37921,11 +37964,11 @@
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F12" s="32"/>
       <c r="H12" s="32" t="s">
@@ -37938,7 +37981,7 @@
       </c>
       <c r="B13" s="32"/>
       <c r="C13" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
@@ -37953,7 +37996,7 @@
       </c>
       <c r="B14" s="32"/>
       <c r="C14" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -38487,91 +38530,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="54" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D1" s="62" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="E1" s="62" t="s">
         <v>424</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="62" t="s">
         <v>425</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>426</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="62" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="K1" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="L1" s="62" t="s">
         <v>430</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="M1" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="N1" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="O1" s="62" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" s="62" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" s="62" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" s="62" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="T1" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="U1" s="62" t="s">
+        <v>437</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y1" s="62" t="s">
         <v>479</v>
-      </c>
-      <c r="N1" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" s="62" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q1" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="R1" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="S1" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>481</v>
-      </c>
-      <c r="U1" s="62" t="s">
-        <v>438</v>
-      </c>
-      <c r="V1" s="53" t="s">
-        <v>439</v>
-      </c>
-      <c r="W1" s="53" t="s">
-        <v>440</v>
-      </c>
-      <c r="X1" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="Y1" s="62" t="s">
-        <v>480</v>
       </c>
       <c r="Z1" s="53" t="s">
         <v>67</v>
       </c>
       <c r="AA1" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB1" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="AB1" s="53" t="s">
+      <c r="AC1" s="53" t="s">
         <v>443</v>
-      </c>
-      <c r="AC1" s="53" t="s">
-        <v>444</v>
       </c>
       <c r="AD1" s="53" t="s">
         <v>169</v>
@@ -38592,7 +38635,7 @@
         <v>174</v>
       </c>
       <c r="AJ1" s="53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AK1" s="53" t="s">
         <v>219</v>
@@ -38624,7 +38667,7 @@
         <v>19</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H2" s="56" t="s">
         <v>28</v>
@@ -38653,7 +38696,7 @@
         <v>63</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q2" s="56" t="s">
         <v>248</v>
@@ -38673,13 +38716,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W2" s="56" t="s">
         <v>98</v>
       </c>
       <c r="X2" s="56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Y2" s="56" t="b">
         <v>1</v>
@@ -38688,7 +38731,7 @@
         <v>108</v>
       </c>
       <c r="AA2" s="56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB2" s="56" t="s">
         <v>122</v>
@@ -38783,7 +38826,7 @@
         <v>69</v>
       </c>
       <c r="S3" s="56" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T3" s="56" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38800,7 +38843,7 @@
         <v>97</v>
       </c>
       <c r="X3" s="56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Y3" s="56" t="b">
         <v>0</v>
@@ -38812,7 +38855,7 @@
         <v>121</v>
       </c>
       <c r="AB3" s="56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC3" s="56" t="s">
         <v>123</v>
@@ -38836,7 +38879,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK3" s="55" t="s">
         <v>222</v>
@@ -38864,7 +38907,7 @@
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="56" t="s">
@@ -38894,7 +38937,7 @@
         <v>76</v>
       </c>
       <c r="S4" s="56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T4" s="56" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -38907,14 +38950,14 @@
       <c r="V4" s="56"/>
       <c r="W4" s="56"/>
       <c r="X4" s="56" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Y4" s="56"/>
       <c r="Z4" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA4" s="56" t="s">
         <v>457</v>
-      </c>
-      <c r="AA4" s="56" t="s">
-        <v>458</v>
       </c>
       <c r="AB4" s="56"/>
       <c r="AC4" s="56" t="s">
@@ -38961,7 +39004,7 @@
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="56" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H5" s="56"/>
       <c r="I5" s="56" t="s">
@@ -38979,7 +39022,7 @@
       </c>
       <c r="N5" s="56"/>
       <c r="O5" s="56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P5" s="57"/>
       <c r="Q5" s="56"/>
@@ -38996,7 +39039,7 @@
       <c r="X5" s="56"/>
       <c r="Y5" s="56"/>
       <c r="Z5" s="56" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AA5" s="56"/>
       <c r="AB5" s="56"/>
@@ -39040,7 +39083,7 @@
       </c>
       <c r="F6" s="56"/>
       <c r="G6" s="56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="56"/>
@@ -39111,7 +39154,7 @@
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
@@ -39180,7 +39223,7 @@
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
@@ -39249,7 +39292,7 @@
       </c>
       <c r="F9" s="56"/>
       <c r="G9" s="56" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
@@ -39318,7 +39361,7 @@
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
@@ -39387,7 +39430,7 @@
       </c>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
@@ -39456,7 +39499,7 @@
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="56"/>
@@ -39523,7 +39566,7 @@
       </c>
       <c r="F13" s="56"/>
       <c r="G13" s="56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="56"/>
@@ -39590,7 +39633,7 @@
       </c>
       <c r="F14" s="56"/>
       <c r="G14" s="56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H14" s="56"/>
       <c r="I14" s="56"/>
@@ -39724,7 +39767,7 @@
       </c>
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -39791,7 +39834,7 @@
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
@@ -39858,7 +39901,7 @@
       </c>
       <c r="F18" s="56"/>
       <c r="G18" s="56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="56"/>
@@ -39925,7 +39968,7 @@
       </c>
       <c r="F19" s="56"/>
       <c r="G19" s="56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="56"/>
@@ -39992,7 +40035,7 @@
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
@@ -40059,7 +40102,7 @@
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H21" s="56"/>
       <c r="I21" s="56"/>
@@ -40126,7 +40169,7 @@
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
@@ -40193,7 +40236,7 @@
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="56" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
@@ -40260,7 +40303,7 @@
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="56" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
@@ -42033,10 +42076,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -42599,7 +42642,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -42607,7 +42650,7 @@
       <c r="E1" s="82"/>
       <c r="F1" s="83"/>
       <c r="G1" s="84" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -42638,7 +42681,7 @@
         <v>215</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.2">
@@ -42775,7 +42818,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="31" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -42802,7 +42845,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -42894,14 +42937,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
       <c r="E1" s="80"/>
       <c r="F1" s="86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G1" s="86"/>
       <c r="H1" s="86"/>
@@ -42914,19 +42957,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="G2" s="29" t="s">
         <v>415</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>416</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>269</v>
@@ -42984,7 +43027,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="37" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B1" s="87"/>
     </row>
@@ -42998,19 +43041,19 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B3" s="32"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B5" s="32"/>
     </row>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F44BFA2-C6D7-4DC1-B543-23CDFF6FCC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3E301B-E6D6-4381-9803-DCA1FB5F3F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17113,7 +17113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -17137,7 +17137,7 @@
     <col min="19" max="19" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="137" customHeight="1">
+    <row r="1" spans="1:20" ht="155" customHeight="1">
       <c r="A1" s="80" t="s">
         <v>586</v>
       </c>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C57369-2067-42E9-BABF-B3BBD05AC0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05C1F3-A7B8-4550-8C41-95FF589D3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <sheet name="LB-Listener" sheetId="20" r:id="rId26"/>
     <sheet name="LB-RuleSet" sheetId="18" r:id="rId27"/>
     <sheet name="LB-PathRouteSet" sheetId="19" r:id="rId28"/>
-    <sheet name="NLB-Listeners " sheetId="57" r:id="rId29"/>
+    <sheet name="NLB-Listeners" sheetId="57" r:id="rId29"/>
     <sheet name="NLB-BackendSets-BackendServers" sheetId="35" r:id="rId30"/>
     <sheet name="ADB" sheetId="38" r:id="rId31"/>
     <sheet name="DBSystems-VM-BM" sheetId="24" r:id="rId32"/>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A05C1F3-A7B8-4550-8C41-95FF589D3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E4F7AC-895F-4D2F-95D7-F4A87CBF452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Compartments" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
     <sheet name="Users" sheetId="51" r:id="rId4"/>
-    <sheet name="NetworkSources" sheetId="50" state="hidden" r:id="rId5"/>
+    <sheet name="NetworkSources" sheetId="50" r:id="rId5"/>
     <sheet name="Policies" sheetId="4" r:id="rId6"/>
     <sheet name="Tags" sheetId="22" r:id="rId7"/>
     <sheet name="VCNs" sheetId="5" r:id="rId8"/>
@@ -41,7 +41,7 @@
     <sheet name="LB-Listener" sheetId="20" r:id="rId26"/>
     <sheet name="LB-RuleSet" sheetId="18" r:id="rId27"/>
     <sheet name="LB-PathRouteSet" sheetId="19" r:id="rId28"/>
-    <sheet name="NLB-Listeners" sheetId="57" r:id="rId29"/>
+    <sheet name="NLB-Listeners " sheetId="57" r:id="rId29"/>
     <sheet name="NLB-BackendSets-BackendServers" sheetId="35" r:id="rId30"/>
     <sheet name="ADB" sheetId="38" r:id="rId31"/>
     <sheet name="DBSystems-VM-BM" sheetId="24" r:id="rId32"/>
@@ -4112,12 +4112,6 @@
     <t>Object Versioning</t>
   </si>
   <si>
-    <t>Public Network</t>
-  </si>
-  <si>
-    <t>OCI Network</t>
-  </si>
-  <si>
     <t>Jovanovac</t>
   </si>
   <si>
@@ -4231,101 +4225,6 @@
   <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Group  Name) is a mandatory field.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Matching Rule" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "User Name" - </t>
     </r>
     <r>
@@ -4468,145 +4367,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Name) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Description) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Public Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OCI Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Format: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;compartment name&gt;@&lt;vcn name&gt;=&lt;CIDR&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Values can be specified using semi colon (;) as the delimeter. Ex: Network@VCN1=10.0.1.0/18;Network@VCN2=10.0.2.0/18,10.0.3.0/18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
                                 </t>
     </r>
@@ -7770,6 +7530,57 @@
         <scheme val="minor"/>
       </rPr>
       <t>Example: Asia/Calcutta | UTC | US/Pacific-New</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"SDDC name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the SDDC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                             </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
     </r>
   </si>
   <si>
@@ -8636,19 +8447,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"SDDC name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the SDDC
+    <t>OCI Networks</t>
+  </si>
+  <si>
+    <t>Public Networks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Name) is a mandatory field.
 </t>
     </r>
     <r>
@@ -8660,6 +8477,105 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Description) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Public Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OCI Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Format: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify comma separated list of VCN CIDR to be included. For ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.0.2.0/18,10.0.3.0/18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">"Defined Tags" - </t>
     </r>
     <r>
@@ -8671,8 +8587,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                             </t>
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
     </r>
     <r>
       <rPr>
@@ -8685,6 +8601,22 @@
       </rPr>
       <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Group  Name) is a mandatory field.</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -8695,7 +8627,74 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Note: For this release of the toolkit, only DenseIO shapes are permissible.</t>
+"Matching Rule" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
     </r>
   </si>
   <si>
@@ -8733,9 +8732,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Release - v11
-New Services - DNS, RPC, OCVS, VLANs, Buckets, Users
-Enhancements - Added support for Remote Exec and Cloud Init for Instances, Adding cloned recipes for CloudGuard
+      <t xml:space="preserve">Release - v12
+Introduced new service - Network Sources, 
+Enhancements - Added support for multiple Exa VM Clusters, OCVS Standard Shapes, 
+NLB fix, Instance Terraform
 </t>
     </r>
   </si>
@@ -9281,7 +9281,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9477,6 +9477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9585,9 +9586,119 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="LB Rule Set Dropdown"/>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="Subnets (2)"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="OKE(creation)"/>
+      <sheetName val="OKE"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVolumes"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="NLB-Listeners"/>
+      <sheetName val="NLB-BackendSets-BackendServers"/>
+      <sheetName val="ADB"/>
+      <sheetName val="DBSystems-VM-BM"/>
+      <sheetName val="EXA-Infra"/>
+      <sheetName val="EXA-VMClusters"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+      <sheetName val="Subnets(4)"/>
+      <sheetName val="Subnets (3)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14677,7 +14788,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1" ht="59.15" customHeight="1" thickBot="1">
       <c r="A2" s="65" t="s">
         <v>722</v>
       </c>
@@ -14704,10 +14815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="34" customFormat="1" ht="94" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="88"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
@@ -14768,18 +14879,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-    </row>
-    <row r="2" spans="1:8" s="34" customFormat="1" ht="43.25" customHeight="1">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="1:8" s="34" customFormat="1" ht="43.4" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -14819,10 +14930,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:T483"/>
+  <dimension ref="A1:U483"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -14831,50 +14942,52 @@
     <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="11.453125" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" customWidth="1"/>
-    <col min="13" max="13" width="11.36328125" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.6328125" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
-    <col min="17" max="17" width="11.81640625" customWidth="1"/>
-    <col min="18" max="18" width="14.1796875" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" style="79" customWidth="1"/>
+    <col min="6" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="11" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="13.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="192.5" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+    <row r="1" spans="1:21" ht="192.65" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="84"/>
-      <c r="J1" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-    </row>
-    <row r="2" spans="1:20" s="34" customFormat="1" ht="59.5" customHeight="1">
+      <c r="J1" s="85"/>
+      <c r="K1" s="90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+    </row>
+    <row r="2" spans="1:21" s="34" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -14887,4872 +15000,4873 @@
       <c r="D2" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>659</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O50" si="0">IF(H3="public","n",IF(H3="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="3" spans="1:21">
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P50" si="1">IF(H3="public","y",IF(H3="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="O4" t="str">
+        <f t="shared" ref="P3:P50" si="0">IF(I3="public","n",IF(I3="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q50" si="1">IF(I3="public","y",IF(I3="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="O5" t="str">
+    <row r="5" spans="1:21">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="O6" t="str">
+    <row r="6" spans="1:21">
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="O7" t="str">
+    <row r="7" spans="1:21">
+      <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="O8" t="str">
+    <row r="8" spans="1:21">
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="O9" t="str">
+    <row r="9" spans="1:21">
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="O10" t="str">
+    <row r="10" spans="1:21">
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="O11" t="str">
+    <row r="11" spans="1:21">
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="O12" t="str">
+    <row r="12" spans="1:21">
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="O13" t="str">
+    <row r="13" spans="1:21">
+      <c r="P13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="O14" t="str">
+    <row r="14" spans="1:21">
+      <c r="P14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="O15" t="str">
+    <row r="15" spans="1:21">
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="O16" t="str">
+    <row r="16" spans="1:21">
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="15:16">
-      <c r="O17" t="str">
+    <row r="17" spans="16:17">
+      <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="15:16">
-      <c r="O18" t="str">
+    <row r="18" spans="16:17">
+      <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="15:16">
-      <c r="O19" t="str">
+    <row r="19" spans="16:17">
+      <c r="P19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="15:16">
-      <c r="O20" t="str">
+    <row r="20" spans="16:17">
+      <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="15:16">
-      <c r="O21" t="str">
+    <row r="21" spans="16:17">
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="15:16">
-      <c r="O22" t="str">
+    <row r="22" spans="16:17">
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="15:16">
-      <c r="O23" t="str">
+    <row r="23" spans="16:17">
+      <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="15:16">
-      <c r="O24" t="str">
+    <row r="24" spans="16:17">
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="15:16">
-      <c r="O25" t="str">
+    <row r="25" spans="16:17">
+      <c r="P25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="15:16">
-      <c r="O26" t="str">
+    <row r="26" spans="16:17">
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="15:16">
-      <c r="O27" t="str">
+    <row r="27" spans="16:17">
+      <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="15:16">
-      <c r="O28" t="str">
+    <row r="28" spans="16:17">
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="15:16">
-      <c r="O29" t="str">
+    <row r="29" spans="16:17">
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="15:16">
-      <c r="O30" t="str">
+    <row r="30" spans="16:17">
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="15:16">
-      <c r="O31" t="str">
+    <row r="31" spans="16:17">
+      <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="15:16">
-      <c r="O32" t="str">
+    <row r="32" spans="16:17">
+      <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="15:16">
-      <c r="O33" t="str">
+    <row r="33" spans="16:17">
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="15:16">
-      <c r="O34" t="str">
+    <row r="34" spans="16:17">
+      <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="15:16">
-      <c r="O35" t="str">
+    <row r="35" spans="16:17">
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="15:16">
-      <c r="O36" t="str">
+    <row r="36" spans="16:17">
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="15:16">
-      <c r="O37" t="str">
+    <row r="37" spans="16:17">
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="15:16">
-      <c r="O38" t="str">
+    <row r="38" spans="16:17">
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="15:16">
-      <c r="O39" t="str">
+    <row r="39" spans="16:17">
+      <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="15:16">
-      <c r="O40" t="str">
+    <row r="40" spans="16:17">
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="15:16">
-      <c r="O41" t="str">
+    <row r="41" spans="16:17">
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="15:16">
-      <c r="O42" t="str">
+    <row r="42" spans="16:17">
+      <c r="P42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="15:16">
-      <c r="O43" t="str">
+    <row r="43" spans="16:17">
+      <c r="P43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="15:16">
-      <c r="O44" t="str">
+    <row r="44" spans="16:17">
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="15:16">
-      <c r="O45" t="str">
+    <row r="45" spans="16:17">
+      <c r="P45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="15:16">
-      <c r="O46" t="str">
+    <row r="46" spans="16:17">
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="15:16">
-      <c r="O47" t="str">
+    <row r="47" spans="16:17">
+      <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="15:16">
-      <c r="O48" t="str">
+    <row r="48" spans="16:17">
+      <c r="P48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="15:16">
-      <c r="O49" t="str">
+    <row r="49" spans="16:17">
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="15:16">
-      <c r="O50" t="str">
+    <row r="50" spans="16:17">
+      <c r="P50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="15:16">
-      <c r="O51" t="str">
-        <f t="shared" ref="O51:O114" si="2">IF(H51="public","n",IF(H51="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="51" spans="16:17">
       <c r="P51" t="str">
-        <f t="shared" ref="P51:P114" si="3">IF(H51="public","y",IF(H51="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="15:16">
-      <c r="O52" t="str">
+        <f t="shared" ref="P51:P114" si="2">IF(I51="public","n",IF(I51="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51:Q114" si="3">IF(I51="public","y",IF(I51="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="16:17">
+      <c r="P52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="15:16">
-      <c r="O53" t="str">
+    <row r="53" spans="16:17">
+      <c r="P53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="15:16">
-      <c r="O54" t="str">
+    <row r="54" spans="16:17">
+      <c r="P54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="15:16">
-      <c r="O55" t="str">
+    <row r="55" spans="16:17">
+      <c r="P55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P55" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="15:16">
-      <c r="O56" t="str">
+    <row r="56" spans="16:17">
+      <c r="P56" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P56" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="15:16">
-      <c r="O57" t="str">
+    <row r="57" spans="16:17">
+      <c r="P57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P57" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="15:16">
-      <c r="O58" t="str">
+    <row r="58" spans="16:17">
+      <c r="P58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P58" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="15:16">
-      <c r="O59" t="str">
+    <row r="59" spans="16:17">
+      <c r="P59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="15:16">
-      <c r="O60" t="str">
+    <row r="60" spans="16:17">
+      <c r="P60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P60" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="15:16">
-      <c r="O61" t="str">
+    <row r="61" spans="16:17">
+      <c r="P61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P61" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="15:16">
-      <c r="O62" t="str">
+    <row r="62" spans="16:17">
+      <c r="P62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="15:16">
-      <c r="O63" t="str">
+    <row r="63" spans="16:17">
+      <c r="P63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="15:16">
-      <c r="O64" t="str">
+    <row r="64" spans="16:17">
+      <c r="P64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P64" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="15:16">
-      <c r="O65" t="str">
+    <row r="65" spans="16:17">
+      <c r="P65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="15:16">
-      <c r="O66" t="str">
+    <row r="66" spans="16:17">
+      <c r="P66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P66" t="str">
+      <c r="Q66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="15:16">
-      <c r="O67" t="str">
+    <row r="67" spans="16:17">
+      <c r="P67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P67" t="str">
+      <c r="Q67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="15:16">
-      <c r="O68" t="str">
+    <row r="68" spans="16:17">
+      <c r="P68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P68" t="str">
+      <c r="Q68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="15:16">
-      <c r="O69" t="str">
+    <row r="69" spans="16:17">
+      <c r="P69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P69" t="str">
+      <c r="Q69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="15:16">
-      <c r="O70" t="str">
+    <row r="70" spans="16:17">
+      <c r="P70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P70" t="str">
+      <c r="Q70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="15:16">
-      <c r="O71" t="str">
+    <row r="71" spans="16:17">
+      <c r="P71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P71" t="str">
+      <c r="Q71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="15:16">
-      <c r="O72" t="str">
+    <row r="72" spans="16:17">
+      <c r="P72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P72" t="str">
+      <c r="Q72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="15:16">
-      <c r="O73" t="str">
+    <row r="73" spans="16:17">
+      <c r="P73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P73" t="str">
+      <c r="Q73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="15:16">
-      <c r="O74" t="str">
+    <row r="74" spans="16:17">
+      <c r="P74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P74" t="str">
+      <c r="Q74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="15:16">
-      <c r="O75" t="str">
+    <row r="75" spans="16:17">
+      <c r="P75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P75" t="str">
+      <c r="Q75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="15:16">
-      <c r="O76" t="str">
+    <row r="76" spans="16:17">
+      <c r="P76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P76" t="str">
+      <c r="Q76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="15:16">
-      <c r="O77" t="str">
+    <row r="77" spans="16:17">
+      <c r="P77" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P77" t="str">
+      <c r="Q77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="15:16">
-      <c r="O78" t="str">
+    <row r="78" spans="16:17">
+      <c r="P78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P78" t="str">
+      <c r="Q78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="15:16">
-      <c r="O79" t="str">
+    <row r="79" spans="16:17">
+      <c r="P79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P79" t="str">
+      <c r="Q79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="15:16">
-      <c r="O80" t="str">
+    <row r="80" spans="16:17">
+      <c r="P80" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P80" t="str">
+      <c r="Q80" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="15:16">
-      <c r="O81" t="str">
+    <row r="81" spans="16:17">
+      <c r="P81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P81" t="str">
+      <c r="Q81" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="15:16">
-      <c r="O82" t="str">
+    <row r="82" spans="16:17">
+      <c r="P82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P82" t="str">
+      <c r="Q82" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="15:16">
-      <c r="O83" t="str">
+    <row r="83" spans="16:17">
+      <c r="P83" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P83" t="str">
+      <c r="Q83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="15:16">
-      <c r="O84" t="str">
+    <row r="84" spans="16:17">
+      <c r="P84" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P84" t="str">
+      <c r="Q84" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="15:16">
-      <c r="O85" t="str">
+    <row r="85" spans="16:17">
+      <c r="P85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P85" t="str">
+      <c r="Q85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="15:16">
-      <c r="O86" t="str">
+    <row r="86" spans="16:17">
+      <c r="P86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P86" t="str">
+      <c r="Q86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="15:16">
-      <c r="O87" t="str">
+    <row r="87" spans="16:17">
+      <c r="P87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P87" t="str">
+      <c r="Q87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="15:16">
-      <c r="O88" t="str">
+    <row r="88" spans="16:17">
+      <c r="P88" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P88" t="str">
+      <c r="Q88" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="15:16">
-      <c r="O89" t="str">
+    <row r="89" spans="16:17">
+      <c r="P89" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P89" t="str">
+      <c r="Q89" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="15:16">
-      <c r="O90" t="str">
+    <row r="90" spans="16:17">
+      <c r="P90" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P90" t="str">
+      <c r="Q90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="15:16">
-      <c r="O91" t="str">
+    <row r="91" spans="16:17">
+      <c r="P91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P91" t="str">
+      <c r="Q91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="15:16">
-      <c r="O92" t="str">
+    <row r="92" spans="16:17">
+      <c r="P92" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P92" t="str">
+      <c r="Q92" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="15:16">
-      <c r="O93" t="str">
+    <row r="93" spans="16:17">
+      <c r="P93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P93" t="str">
+      <c r="Q93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="15:16">
-      <c r="O94" t="str">
+    <row r="94" spans="16:17">
+      <c r="P94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P94" t="str">
+      <c r="Q94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="15:16">
-      <c r="O95" t="str">
+    <row r="95" spans="16:17">
+      <c r="P95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P95" t="str">
+      <c r="Q95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="15:16">
-      <c r="O96" t="str">
+    <row r="96" spans="16:17">
+      <c r="P96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P96" t="str">
+      <c r="Q96" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="15:16">
-      <c r="O97" t="str">
+    <row r="97" spans="16:17">
+      <c r="P97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P97" t="str">
+      <c r="Q97" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="15:16">
-      <c r="O98" t="str">
+    <row r="98" spans="16:17">
+      <c r="P98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P98" t="str">
+      <c r="Q98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="15:16">
-      <c r="O99" t="str">
+    <row r="99" spans="16:17">
+      <c r="P99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P99" t="str">
+      <c r="Q99" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="15:16">
-      <c r="O100" t="str">
+    <row r="100" spans="16:17">
+      <c r="P100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P100" t="str">
+      <c r="Q100" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="15:16">
-      <c r="O101" t="str">
+    <row r="101" spans="16:17">
+      <c r="P101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P101" t="str">
+      <c r="Q101" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="15:16">
-      <c r="O102" t="str">
+    <row r="102" spans="16:17">
+      <c r="P102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P102" t="str">
+      <c r="Q102" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="15:16">
-      <c r="O103" t="str">
+    <row r="103" spans="16:17">
+      <c r="P103" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P103" t="str">
+      <c r="Q103" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="15:16">
-      <c r="O104" t="str">
+    <row r="104" spans="16:17">
+      <c r="P104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P104" t="str">
+      <c r="Q104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="15:16">
-      <c r="O105" t="str">
+    <row r="105" spans="16:17">
+      <c r="P105" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P105" t="str">
+      <c r="Q105" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="15:16">
-      <c r="O106" t="str">
+    <row r="106" spans="16:17">
+      <c r="P106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P106" t="str">
+      <c r="Q106" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="15:16">
-      <c r="O107" t="str">
+    <row r="107" spans="16:17">
+      <c r="P107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P107" t="str">
+      <c r="Q107" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="15:16">
-      <c r="O108" t="str">
+    <row r="108" spans="16:17">
+      <c r="P108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P108" t="str">
+      <c r="Q108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="15:16">
-      <c r="O109" t="str">
+    <row r="109" spans="16:17">
+      <c r="P109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P109" t="str">
+      <c r="Q109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="15:16">
-      <c r="O110" t="str">
+    <row r="110" spans="16:17">
+      <c r="P110" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P110" t="str">
+      <c r="Q110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="15:16">
-      <c r="O111" t="str">
+    <row r="111" spans="16:17">
+      <c r="P111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P111" t="str">
+      <c r="Q111" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="15:16">
-      <c r="O112" t="str">
+    <row r="112" spans="16:17">
+      <c r="P112" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P112" t="str">
+      <c r="Q112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="15:16">
-      <c r="O113" t="str">
+    <row r="113" spans="16:17">
+      <c r="P113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P113" t="str">
+      <c r="Q113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="15:16">
-      <c r="O114" t="str">
+    <row r="114" spans="16:17">
+      <c r="P114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P114" t="str">
+      <c r="Q114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="15:16">
-      <c r="O115" t="str">
-        <f t="shared" ref="O115:O178" si="4">IF(H115="public","n",IF(H115="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="115" spans="16:17">
       <c r="P115" t="str">
-        <f t="shared" ref="P115:P178" si="5">IF(H115="public","y",IF(H115="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="15:16">
-      <c r="O116" t="str">
+        <f t="shared" ref="P115:P178" si="4">IF(I115="public","n",IF(I115="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" ref="Q115:Q178" si="5">IF(I115="public","y",IF(I115="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="16:17">
+      <c r="P116" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P116" t="str">
+      <c r="Q116" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="15:16">
-      <c r="O117" t="str">
+    <row r="117" spans="16:17">
+      <c r="P117" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P117" t="str">
+      <c r="Q117" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="15:16">
-      <c r="O118" t="str">
+    <row r="118" spans="16:17">
+      <c r="P118" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P118" t="str">
+      <c r="Q118" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="15:16">
-      <c r="O119" t="str">
+    <row r="119" spans="16:17">
+      <c r="P119" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P119" t="str">
+      <c r="Q119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="15:16">
-      <c r="O120" t="str">
+    <row r="120" spans="16:17">
+      <c r="P120" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P120" t="str">
+      <c r="Q120" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="15:16">
-      <c r="O121" t="str">
+    <row r="121" spans="16:17">
+      <c r="P121" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P121" t="str">
+      <c r="Q121" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="15:16">
-      <c r="O122" t="str">
+    <row r="122" spans="16:17">
+      <c r="P122" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P122" t="str">
+      <c r="Q122" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="15:16">
-      <c r="O123" t="str">
+    <row r="123" spans="16:17">
+      <c r="P123" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P123" t="str">
+      <c r="Q123" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="15:16">
-      <c r="O124" t="str">
+    <row r="124" spans="16:17">
+      <c r="P124" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P124" t="str">
+      <c r="Q124" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="15:16">
-      <c r="O125" t="str">
+    <row r="125" spans="16:17">
+      <c r="P125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P125" t="str">
+      <c r="Q125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="15:16">
-      <c r="O126" t="str">
+    <row r="126" spans="16:17">
+      <c r="P126" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P126" t="str">
+      <c r="Q126" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="15:16">
-      <c r="O127" t="str">
+    <row r="127" spans="16:17">
+      <c r="P127" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P127" t="str">
+      <c r="Q127" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="15:16">
-      <c r="O128" t="str">
+    <row r="128" spans="16:17">
+      <c r="P128" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P128" t="str">
+      <c r="Q128" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="15:16">
-      <c r="O129" t="str">
+    <row r="129" spans="16:17">
+      <c r="P129" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P129" t="str">
+      <c r="Q129" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="15:16">
-      <c r="O130" t="str">
+    <row r="130" spans="16:17">
+      <c r="P130" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P130" t="str">
+      <c r="Q130" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="15:16">
-      <c r="O131" t="str">
+    <row r="131" spans="16:17">
+      <c r="P131" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P131" t="str">
+      <c r="Q131" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="15:16">
-      <c r="O132" t="str">
+    <row r="132" spans="16:17">
+      <c r="P132" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P132" t="str">
+      <c r="Q132" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="15:16">
-      <c r="O133" t="str">
+    <row r="133" spans="16:17">
+      <c r="P133" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P133" t="str">
+      <c r="Q133" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="15:16">
-      <c r="O134" t="str">
+    <row r="134" spans="16:17">
+      <c r="P134" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P134" t="str">
+      <c r="Q134" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="15:16">
-      <c r="O135" t="str">
+    <row r="135" spans="16:17">
+      <c r="P135" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P135" t="str">
+      <c r="Q135" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="15:16">
-      <c r="O136" t="str">
+    <row r="136" spans="16:17">
+      <c r="P136" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P136" t="str">
+      <c r="Q136" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="15:16">
-      <c r="O137" t="str">
+    <row r="137" spans="16:17">
+      <c r="P137" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P137" t="str">
+      <c r="Q137" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="15:16">
-      <c r="O138" t="str">
+    <row r="138" spans="16:17">
+      <c r="P138" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P138" t="str">
+      <c r="Q138" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="15:16">
-      <c r="O139" t="str">
+    <row r="139" spans="16:17">
+      <c r="P139" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P139" t="str">
+      <c r="Q139" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="15:16">
-      <c r="O140" t="str">
+    <row r="140" spans="16:17">
+      <c r="P140" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P140" t="str">
+      <c r="Q140" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="15:16">
-      <c r="O141" t="str">
+    <row r="141" spans="16:17">
+      <c r="P141" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P141" t="str">
+      <c r="Q141" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="15:16">
-      <c r="O142" t="str">
+    <row r="142" spans="16:17">
+      <c r="P142" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P142" t="str">
+      <c r="Q142" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="15:16">
-      <c r="O143" t="str">
+    <row r="143" spans="16:17">
+      <c r="P143" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P143" t="str">
+      <c r="Q143" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="15:16">
-      <c r="O144" t="str">
+    <row r="144" spans="16:17">
+      <c r="P144" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P144" t="str">
+      <c r="Q144" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="15:16">
-      <c r="O145" t="str">
+    <row r="145" spans="16:17">
+      <c r="P145" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P145" t="str">
+      <c r="Q145" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="15:16">
-      <c r="O146" t="str">
+    <row r="146" spans="16:17">
+      <c r="P146" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P146" t="str">
+      <c r="Q146" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="15:16">
-      <c r="O147" t="str">
+    <row r="147" spans="16:17">
+      <c r="P147" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P147" t="str">
+      <c r="Q147" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="15:16">
-      <c r="O148" t="str">
+    <row r="148" spans="16:17">
+      <c r="P148" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P148" t="str">
+      <c r="Q148" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="15:16">
-      <c r="O149" t="str">
+    <row r="149" spans="16:17">
+      <c r="P149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P149" t="str">
+      <c r="Q149" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="15:16">
-      <c r="O150" t="str">
+    <row r="150" spans="16:17">
+      <c r="P150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P150" t="str">
+      <c r="Q150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="15:16">
-      <c r="O151" t="str">
+    <row r="151" spans="16:17">
+      <c r="P151" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P151" t="str">
+      <c r="Q151" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="15:16">
-      <c r="O152" t="str">
+    <row r="152" spans="16:17">
+      <c r="P152" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P152" t="str">
+      <c r="Q152" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="15:16">
-      <c r="O153" t="str">
+    <row r="153" spans="16:17">
+      <c r="P153" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P153" t="str">
+      <c r="Q153" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="15:16">
-      <c r="O154" t="str">
+    <row r="154" spans="16:17">
+      <c r="P154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P154" t="str">
+      <c r="Q154" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="15:16">
-      <c r="O155" t="str">
+    <row r="155" spans="16:17">
+      <c r="P155" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P155" t="str">
+      <c r="Q155" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="15:16">
-      <c r="O156" t="str">
+    <row r="156" spans="16:17">
+      <c r="P156" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P156" t="str">
+      <c r="Q156" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="15:16">
-      <c r="O157" t="str">
+    <row r="157" spans="16:17">
+      <c r="P157" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P157" t="str">
+      <c r="Q157" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="15:16">
-      <c r="O158" t="str">
+    <row r="158" spans="16:17">
+      <c r="P158" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P158" t="str">
+      <c r="Q158" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="15:16">
-      <c r="O159" t="str">
+    <row r="159" spans="16:17">
+      <c r="P159" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P159" t="str">
+      <c r="Q159" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="15:16">
-      <c r="O160" t="str">
+    <row r="160" spans="16:17">
+      <c r="P160" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P160" t="str">
+      <c r="Q160" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="15:16">
-      <c r="O161" t="str">
+    <row r="161" spans="16:17">
+      <c r="P161" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P161" t="str">
+      <c r="Q161" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="15:16">
-      <c r="O162" t="str">
+    <row r="162" spans="16:17">
+      <c r="P162" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P162" t="str">
+      <c r="Q162" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="15:16">
-      <c r="O163" t="str">
+    <row r="163" spans="16:17">
+      <c r="P163" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P163" t="str">
+      <c r="Q163" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="15:16">
-      <c r="O164" t="str">
+    <row r="164" spans="16:17">
+      <c r="P164" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P164" t="str">
+      <c r="Q164" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="15:16">
-      <c r="O165" t="str">
+    <row r="165" spans="16:17">
+      <c r="P165" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P165" t="str">
+      <c r="Q165" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="15:16">
-      <c r="O166" t="str">
+    <row r="166" spans="16:17">
+      <c r="P166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P166" t="str">
+      <c r="Q166" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="15:16">
-      <c r="O167" t="str">
+    <row r="167" spans="16:17">
+      <c r="P167" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P167" t="str">
+      <c r="Q167" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="15:16">
-      <c r="O168" t="str">
+    <row r="168" spans="16:17">
+      <c r="P168" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P168" t="str">
+      <c r="Q168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="15:16">
-      <c r="O169" t="str">
+    <row r="169" spans="16:17">
+      <c r="P169" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P169" t="str">
+      <c r="Q169" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="15:16">
-      <c r="O170" t="str">
+    <row r="170" spans="16:17">
+      <c r="P170" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P170" t="str">
+      <c r="Q170" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="15:16">
-      <c r="O171" t="str">
+    <row r="171" spans="16:17">
+      <c r="P171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P171" t="str">
+      <c r="Q171" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="15:16">
-      <c r="O172" t="str">
+    <row r="172" spans="16:17">
+      <c r="P172" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P172" t="str">
+      <c r="Q172" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="15:16">
-      <c r="O173" t="str">
+    <row r="173" spans="16:17">
+      <c r="P173" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P173" t="str">
+      <c r="Q173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="15:16">
-      <c r="O174" t="str">
+    <row r="174" spans="16:17">
+      <c r="P174" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P174" t="str">
+      <c r="Q174" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="15:16">
-      <c r="O175" t="str">
+    <row r="175" spans="16:17">
+      <c r="P175" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P175" t="str">
+      <c r="Q175" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="15:16">
-      <c r="O176" t="str">
+    <row r="176" spans="16:17">
+      <c r="P176" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P176" t="str">
+      <c r="Q176" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="15:16">
-      <c r="O177" t="str">
+    <row r="177" spans="16:17">
+      <c r="P177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P177" t="str">
+      <c r="Q177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="15:16">
-      <c r="O178" t="str">
+    <row r="178" spans="16:17">
+      <c r="P178" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P178" t="str">
+      <c r="Q178" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="15:16">
-      <c r="O179" t="str">
-        <f t="shared" ref="O179:O242" si="6">IF(H179="public","n",IF(H179="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="179" spans="16:17">
       <c r="P179" t="str">
-        <f t="shared" ref="P179:P242" si="7">IF(H179="public","y",IF(H179="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="15:16">
-      <c r="O180" t="str">
+        <f t="shared" ref="P179:P242" si="6">IF(I179="public","n",IF(I179="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q179" t="str">
+        <f t="shared" ref="Q179:Q242" si="7">IF(I179="public","y",IF(I179="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="16:17">
+      <c r="P180" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P180" t="str">
+      <c r="Q180" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="15:16">
-      <c r="O181" t="str">
+    <row r="181" spans="16:17">
+      <c r="P181" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P181" t="str">
+      <c r="Q181" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="15:16">
-      <c r="O182" t="str">
+    <row r="182" spans="16:17">
+      <c r="P182" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P182" t="str">
+      <c r="Q182" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="15:16">
-      <c r="O183" t="str">
+    <row r="183" spans="16:17">
+      <c r="P183" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P183" t="str">
+      <c r="Q183" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="15:16">
-      <c r="O184" t="str">
+    <row r="184" spans="16:17">
+      <c r="P184" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P184" t="str">
+      <c r="Q184" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="15:16">
-      <c r="O185" t="str">
+    <row r="185" spans="16:17">
+      <c r="P185" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P185" t="str">
+      <c r="Q185" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="15:16">
-      <c r="O186" t="str">
+    <row r="186" spans="16:17">
+      <c r="P186" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P186" t="str">
+      <c r="Q186" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="15:16">
-      <c r="O187" t="str">
+    <row r="187" spans="16:17">
+      <c r="P187" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P187" t="str">
+      <c r="Q187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="15:16">
-      <c r="O188" t="str">
+    <row r="188" spans="16:17">
+      <c r="P188" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P188" t="str">
+      <c r="Q188" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="15:16">
-      <c r="O189" t="str">
+    <row r="189" spans="16:17">
+      <c r="P189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P189" t="str">
+      <c r="Q189" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="15:16">
-      <c r="O190" t="str">
+    <row r="190" spans="16:17">
+      <c r="P190" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P190" t="str">
+      <c r="Q190" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="15:16">
-      <c r="O191" t="str">
+    <row r="191" spans="16:17">
+      <c r="P191" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P191" t="str">
+      <c r="Q191" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="15:16">
-      <c r="O192" t="str">
+    <row r="192" spans="16:17">
+      <c r="P192" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P192" t="str">
+      <c r="Q192" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="15:16">
-      <c r="O193" t="str">
+    <row r="193" spans="16:17">
+      <c r="P193" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P193" t="str">
+      <c r="Q193" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="15:16">
-      <c r="O194" t="str">
+    <row r="194" spans="16:17">
+      <c r="P194" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P194" t="str">
+      <c r="Q194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="15:16">
-      <c r="O195" t="str">
+    <row r="195" spans="16:17">
+      <c r="P195" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P195" t="str">
+      <c r="Q195" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="15:16">
-      <c r="O196" t="str">
+    <row r="196" spans="16:17">
+      <c r="P196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P196" t="str">
+      <c r="Q196" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="15:16">
-      <c r="O197" t="str">
+    <row r="197" spans="16:17">
+      <c r="P197" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P197" t="str">
+      <c r="Q197" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="15:16">
-      <c r="O198" t="str">
+    <row r="198" spans="16:17">
+      <c r="P198" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P198" t="str">
+      <c r="Q198" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="15:16">
-      <c r="O199" t="str">
+    <row r="199" spans="16:17">
+      <c r="P199" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P199" t="str">
+      <c r="Q199" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="15:16">
-      <c r="O200" t="str">
+    <row r="200" spans="16:17">
+      <c r="P200" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P200" t="str">
+      <c r="Q200" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="15:16">
-      <c r="O201" t="str">
+    <row r="201" spans="16:17">
+      <c r="P201" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P201" t="str">
+      <c r="Q201" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="15:16">
-      <c r="O202" t="str">
+    <row r="202" spans="16:17">
+      <c r="P202" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P202" t="str">
+      <c r="Q202" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="15:16">
-      <c r="O203" t="str">
+    <row r="203" spans="16:17">
+      <c r="P203" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P203" t="str">
+      <c r="Q203" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="15:16">
-      <c r="O204" t="str">
+    <row r="204" spans="16:17">
+      <c r="P204" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P204" t="str">
+      <c r="Q204" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="15:16">
-      <c r="O205" t="str">
+    <row r="205" spans="16:17">
+      <c r="P205" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P205" t="str">
+      <c r="Q205" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="15:16">
-      <c r="O206" t="str">
+    <row r="206" spans="16:17">
+      <c r="P206" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P206" t="str">
+      <c r="Q206" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="15:16">
-      <c r="O207" t="str">
+    <row r="207" spans="16:17">
+      <c r="P207" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P207" t="str">
+      <c r="Q207" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="15:16">
-      <c r="O208" t="str">
+    <row r="208" spans="16:17">
+      <c r="P208" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P208" t="str">
+      <c r="Q208" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="15:16">
-      <c r="O209" t="str">
+    <row r="209" spans="16:17">
+      <c r="P209" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P209" t="str">
+      <c r="Q209" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="15:16">
-      <c r="O210" t="str">
+    <row r="210" spans="16:17">
+      <c r="P210" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P210" t="str">
+      <c r="Q210" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="15:16">
-      <c r="O211" t="str">
+    <row r="211" spans="16:17">
+      <c r="P211" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P211" t="str">
+      <c r="Q211" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="15:16">
-      <c r="O212" t="str">
+    <row r="212" spans="16:17">
+      <c r="P212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P212" t="str">
+      <c r="Q212" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="15:16">
-      <c r="O213" t="str">
+    <row r="213" spans="16:17">
+      <c r="P213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P213" t="str">
+      <c r="Q213" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="15:16">
-      <c r="O214" t="str">
+    <row r="214" spans="16:17">
+      <c r="P214" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P214" t="str">
+      <c r="Q214" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="15:16">
-      <c r="O215" t="str">
+    <row r="215" spans="16:17">
+      <c r="P215" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P215" t="str">
+      <c r="Q215" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="15:16">
-      <c r="O216" t="str">
+    <row r="216" spans="16:17">
+      <c r="P216" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P216" t="str">
+      <c r="Q216" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="15:16">
-      <c r="O217" t="str">
+    <row r="217" spans="16:17">
+      <c r="P217" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P217" t="str">
+      <c r="Q217" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="15:16">
-      <c r="O218" t="str">
+    <row r="218" spans="16:17">
+      <c r="P218" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P218" t="str">
+      <c r="Q218" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="15:16">
-      <c r="O219" t="str">
+    <row r="219" spans="16:17">
+      <c r="P219" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P219" t="str">
+      <c r="Q219" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="15:16">
-      <c r="O220" t="str">
+    <row r="220" spans="16:17">
+      <c r="P220" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P220" t="str">
+      <c r="Q220" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="15:16">
-      <c r="O221" t="str">
+    <row r="221" spans="16:17">
+      <c r="P221" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P221" t="str">
+      <c r="Q221" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="15:16">
-      <c r="O222" t="str">
+    <row r="222" spans="16:17">
+      <c r="P222" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P222" t="str">
+      <c r="Q222" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="15:16">
-      <c r="O223" t="str">
+    <row r="223" spans="16:17">
+      <c r="P223" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P223" t="str">
+      <c r="Q223" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="15:16">
-      <c r="O224" t="str">
+    <row r="224" spans="16:17">
+      <c r="P224" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P224" t="str">
+      <c r="Q224" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="15:16">
-      <c r="O225" t="str">
+    <row r="225" spans="16:17">
+      <c r="P225" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P225" t="str">
+      <c r="Q225" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="15:16">
-      <c r="O226" t="str">
+    <row r="226" spans="16:17">
+      <c r="P226" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P226" t="str">
+      <c r="Q226" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="15:16">
-      <c r="O227" t="str">
+    <row r="227" spans="16:17">
+      <c r="P227" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P227" t="str">
+      <c r="Q227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="15:16">
-      <c r="O228" t="str">
+    <row r="228" spans="16:17">
+      <c r="P228" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P228" t="str">
+      <c r="Q228" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="15:16">
-      <c r="O229" t="str">
+    <row r="229" spans="16:17">
+      <c r="P229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P229" t="str">
+      <c r="Q229" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="15:16">
-      <c r="O230" t="str">
+    <row r="230" spans="16:17">
+      <c r="P230" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P230" t="str">
+      <c r="Q230" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="15:16">
-      <c r="O231" t="str">
+    <row r="231" spans="16:17">
+      <c r="P231" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P231" t="str">
+      <c r="Q231" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="15:16">
-      <c r="O232" t="str">
+    <row r="232" spans="16:17">
+      <c r="P232" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P232" t="str">
+      <c r="Q232" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="15:16">
-      <c r="O233" t="str">
+    <row r="233" spans="16:17">
+      <c r="P233" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P233" t="str">
+      <c r="Q233" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="15:16">
-      <c r="O234" t="str">
+    <row r="234" spans="16:17">
+      <c r="P234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P234" t="str">
+      <c r="Q234" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="15:16">
-      <c r="O235" t="str">
+    <row r="235" spans="16:17">
+      <c r="P235" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P235" t="str">
+      <c r="Q235" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="15:16">
-      <c r="O236" t="str">
+    <row r="236" spans="16:17">
+      <c r="P236" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P236" t="str">
+      <c r="Q236" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="15:16">
-      <c r="O237" t="str">
+    <row r="237" spans="16:17">
+      <c r="P237" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P237" t="str">
+      <c r="Q237" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="15:16">
-      <c r="O238" t="str">
+    <row r="238" spans="16:17">
+      <c r="P238" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P238" t="str">
+      <c r="Q238" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="15:16">
-      <c r="O239" t="str">
+    <row r="239" spans="16:17">
+      <c r="P239" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P239" t="str">
+      <c r="Q239" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="15:16">
-      <c r="O240" t="str">
+    <row r="240" spans="16:17">
+      <c r="P240" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P240" t="str">
+      <c r="Q240" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="15:16">
-      <c r="O241" t="str">
+    <row r="241" spans="16:17">
+      <c r="P241" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P241" t="str">
+      <c r="Q241" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="15:16">
-      <c r="O242" t="str">
+    <row r="242" spans="16:17">
+      <c r="P242" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P242" t="str">
+      <c r="Q242" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="15:16">
-      <c r="O243" t="str">
-        <f t="shared" ref="O243:O306" si="8">IF(H243="public","n",IF(H243="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="243" spans="16:17">
       <c r="P243" t="str">
-        <f t="shared" ref="P243:P306" si="9">IF(H243="public","y",IF(H243="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="15:16">
-      <c r="O244" t="str">
+        <f t="shared" ref="P243:P306" si="8">IF(I243="public","n",IF(I243="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q243" t="str">
+        <f t="shared" ref="Q243:Q306" si="9">IF(I243="public","y",IF(I243="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="16:17">
+      <c r="P244" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P244" t="str">
+      <c r="Q244" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="15:16">
-      <c r="O245" t="str">
+    <row r="245" spans="16:17">
+      <c r="P245" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P245" t="str">
+      <c r="Q245" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="15:16">
-      <c r="O246" t="str">
+    <row r="246" spans="16:17">
+      <c r="P246" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P246" t="str">
+      <c r="Q246" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="15:16">
-      <c r="O247" t="str">
+    <row r="247" spans="16:17">
+      <c r="P247" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P247" t="str">
+      <c r="Q247" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="15:16">
-      <c r="O248" t="str">
+    <row r="248" spans="16:17">
+      <c r="P248" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P248" t="str">
+      <c r="Q248" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="15:16">
-      <c r="O249" t="str">
+    <row r="249" spans="16:17">
+      <c r="P249" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P249" t="str">
+      <c r="Q249" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="15:16">
-      <c r="O250" t="str">
+    <row r="250" spans="16:17">
+      <c r="P250" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P250" t="str">
+      <c r="Q250" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="15:16">
-      <c r="O251" t="str">
+    <row r="251" spans="16:17">
+      <c r="P251" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P251" t="str">
+      <c r="Q251" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="15:16">
-      <c r="O252" t="str">
+    <row r="252" spans="16:17">
+      <c r="P252" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P252" t="str">
+      <c r="Q252" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="15:16">
-      <c r="O253" t="str">
+    <row r="253" spans="16:17">
+      <c r="P253" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P253" t="str">
+      <c r="Q253" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="15:16">
-      <c r="O254" t="str">
+    <row r="254" spans="16:17">
+      <c r="P254" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P254" t="str">
+      <c r="Q254" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="15:16">
-      <c r="O255" t="str">
+    <row r="255" spans="16:17">
+      <c r="P255" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P255" t="str">
+      <c r="Q255" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="15:16">
-      <c r="O256" t="str">
+    <row r="256" spans="16:17">
+      <c r="P256" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P256" t="str">
+      <c r="Q256" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="15:16">
-      <c r="O257" t="str">
+    <row r="257" spans="16:17">
+      <c r="P257" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P257" t="str">
+      <c r="Q257" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="15:16">
-      <c r="O258" t="str">
+    <row r="258" spans="16:17">
+      <c r="P258" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P258" t="str">
+      <c r="Q258" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="15:16">
-      <c r="O259" t="str">
+    <row r="259" spans="16:17">
+      <c r="P259" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P259" t="str">
+      <c r="Q259" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="15:16">
-      <c r="O260" t="str">
+    <row r="260" spans="16:17">
+      <c r="P260" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P260" t="str">
+      <c r="Q260" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="15:16">
-      <c r="O261" t="str">
+    <row r="261" spans="16:17">
+      <c r="P261" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P261" t="str">
+      <c r="Q261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="15:16">
-      <c r="O262" t="str">
+    <row r="262" spans="16:17">
+      <c r="P262" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P262" t="str">
+      <c r="Q262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="15:16">
-      <c r="O263" t="str">
+    <row r="263" spans="16:17">
+      <c r="P263" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P263" t="str">
+      <c r="Q263" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="15:16">
-      <c r="O264" t="str">
+    <row r="264" spans="16:17">
+      <c r="P264" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P264" t="str">
+      <c r="Q264" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="15:16">
-      <c r="O265" t="str">
+    <row r="265" spans="16:17">
+      <c r="P265" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P265" t="str">
+      <c r="Q265" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="15:16">
-      <c r="O266" t="str">
+    <row r="266" spans="16:17">
+      <c r="P266" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P266" t="str">
+      <c r="Q266" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="15:16">
-      <c r="O267" t="str">
+    <row r="267" spans="16:17">
+      <c r="P267" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P267" t="str">
+      <c r="Q267" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="15:16">
-      <c r="O268" t="str">
+    <row r="268" spans="16:17">
+      <c r="P268" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P268" t="str">
+      <c r="Q268" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="15:16">
-      <c r="O269" t="str">
+    <row r="269" spans="16:17">
+      <c r="P269" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P269" t="str">
+      <c r="Q269" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="15:16">
-      <c r="O270" t="str">
+    <row r="270" spans="16:17">
+      <c r="P270" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P270" t="str">
+      <c r="Q270" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="15:16">
-      <c r="O271" t="str">
+    <row r="271" spans="16:17">
+      <c r="P271" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P271" t="str">
+      <c r="Q271" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="15:16">
-      <c r="O272" t="str">
+    <row r="272" spans="16:17">
+      <c r="P272" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P272" t="str">
+      <c r="Q272" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="15:16">
-      <c r="O273" t="str">
+    <row r="273" spans="16:17">
+      <c r="P273" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P273" t="str">
+      <c r="Q273" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="15:16">
-      <c r="O274" t="str">
+    <row r="274" spans="16:17">
+      <c r="P274" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P274" t="str">
+      <c r="Q274" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="15:16">
-      <c r="O275" t="str">
+    <row r="275" spans="16:17">
+      <c r="P275" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P275" t="str">
+      <c r="Q275" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="15:16">
-      <c r="O276" t="str">
+    <row r="276" spans="16:17">
+      <c r="P276" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P276" t="str">
+      <c r="Q276" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="15:16">
-      <c r="O277" t="str">
+    <row r="277" spans="16:17">
+      <c r="P277" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P277" t="str">
+      <c r="Q277" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="15:16">
-      <c r="O278" t="str">
+    <row r="278" spans="16:17">
+      <c r="P278" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P278" t="str">
+      <c r="Q278" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="15:16">
-      <c r="O279" t="str">
+    <row r="279" spans="16:17">
+      <c r="P279" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P279" t="str">
+      <c r="Q279" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="15:16">
-      <c r="O280" t="str">
+    <row r="280" spans="16:17">
+      <c r="P280" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P280" t="str">
+      <c r="Q280" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="15:16">
-      <c r="O281" t="str">
+    <row r="281" spans="16:17">
+      <c r="P281" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P281" t="str">
+      <c r="Q281" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="15:16">
-      <c r="O282" t="str">
+    <row r="282" spans="16:17">
+      <c r="P282" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P282" t="str">
+      <c r="Q282" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="15:16">
-      <c r="O283" t="str">
+    <row r="283" spans="16:17">
+      <c r="P283" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P283" t="str">
+      <c r="Q283" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="15:16">
-      <c r="O284" t="str">
+    <row r="284" spans="16:17">
+      <c r="P284" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P284" t="str">
+      <c r="Q284" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="15:16">
-      <c r="O285" t="str">
+    <row r="285" spans="16:17">
+      <c r="P285" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P285" t="str">
+      <c r="Q285" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="15:16">
-      <c r="O286" t="str">
+    <row r="286" spans="16:17">
+      <c r="P286" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P286" t="str">
+      <c r="Q286" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="15:16">
-      <c r="O287" t="str">
+    <row r="287" spans="16:17">
+      <c r="P287" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P287" t="str">
+      <c r="Q287" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="15:16">
-      <c r="O288" t="str">
+    <row r="288" spans="16:17">
+      <c r="P288" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P288" t="str">
+      <c r="Q288" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="15:16">
-      <c r="O289" t="str">
+    <row r="289" spans="16:17">
+      <c r="P289" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P289" t="str">
+      <c r="Q289" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="15:16">
-      <c r="O290" t="str">
+    <row r="290" spans="16:17">
+      <c r="P290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P290" t="str">
+      <c r="Q290" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="15:16">
-      <c r="O291" t="str">
+    <row r="291" spans="16:17">
+      <c r="P291" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P291" t="str">
+      <c r="Q291" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="15:16">
-      <c r="O292" t="str">
+    <row r="292" spans="16:17">
+      <c r="P292" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P292" t="str">
+      <c r="Q292" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="15:16">
-      <c r="O293" t="str">
+    <row r="293" spans="16:17">
+      <c r="P293" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P293" t="str">
+      <c r="Q293" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="15:16">
-      <c r="O294" t="str">
+    <row r="294" spans="16:17">
+      <c r="P294" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P294" t="str">
+      <c r="Q294" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="15:16">
-      <c r="O295" t="str">
+    <row r="295" spans="16:17">
+      <c r="P295" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P295" t="str">
+      <c r="Q295" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="15:16">
-      <c r="O296" t="str">
+    <row r="296" spans="16:17">
+      <c r="P296" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P296" t="str">
+      <c r="Q296" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="15:16">
-      <c r="O297" t="str">
+    <row r="297" spans="16:17">
+      <c r="P297" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P297" t="str">
+      <c r="Q297" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="15:16">
-      <c r="O298" t="str">
+    <row r="298" spans="16:17">
+      <c r="P298" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P298" t="str">
+      <c r="Q298" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="15:16">
-      <c r="O299" t="str">
+    <row r="299" spans="16:17">
+      <c r="P299" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P299" t="str">
+      <c r="Q299" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="15:16">
-      <c r="O300" t="str">
+    <row r="300" spans="16:17">
+      <c r="P300" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P300" t="str">
+      <c r="Q300" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="15:16">
-      <c r="O301" t="str">
+    <row r="301" spans="16:17">
+      <c r="P301" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P301" t="str">
+      <c r="Q301" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="15:16">
-      <c r="O302" t="str">
+    <row r="302" spans="16:17">
+      <c r="P302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P302" t="str">
+      <c r="Q302" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="15:16">
-      <c r="O303" t="str">
+    <row r="303" spans="16:17">
+      <c r="P303" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P303" t="str">
+      <c r="Q303" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="15:16">
-      <c r="O304" t="str">
+    <row r="304" spans="16:17">
+      <c r="P304" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P304" t="str">
+      <c r="Q304" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="15:16">
-      <c r="O305" t="str">
+    <row r="305" spans="16:17">
+      <c r="P305" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P305" t="str">
+      <c r="Q305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="15:16">
-      <c r="O306" t="str">
+    <row r="306" spans="16:17">
+      <c r="P306" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P306" t="str">
+      <c r="Q306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="15:16">
-      <c r="O307" t="str">
-        <f t="shared" ref="O307:O370" si="10">IF(H307="public","n",IF(H307="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="307" spans="16:17">
       <c r="P307" t="str">
-        <f t="shared" ref="P307:P370" si="11">IF(H307="public","y",IF(H307="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="15:16">
-      <c r="O308" t="str">
+        <f t="shared" ref="P307:P370" si="10">IF(I307="public","n",IF(I307="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q307" t="str">
+        <f t="shared" ref="Q307:Q370" si="11">IF(I307="public","y",IF(I307="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="16:17">
+      <c r="P308" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P308" t="str">
+      <c r="Q308" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="15:16">
-      <c r="O309" t="str">
+    <row r="309" spans="16:17">
+      <c r="P309" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P309" t="str">
+      <c r="Q309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="15:16">
-      <c r="O310" t="str">
+    <row r="310" spans="16:17">
+      <c r="P310" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P310" t="str">
+      <c r="Q310" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="15:16">
-      <c r="O311" t="str">
+    <row r="311" spans="16:17">
+      <c r="P311" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P311" t="str">
+      <c r="Q311" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="15:16">
-      <c r="O312" t="str">
+    <row r="312" spans="16:17">
+      <c r="P312" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P312" t="str">
+      <c r="Q312" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="15:16">
-      <c r="O313" t="str">
+    <row r="313" spans="16:17">
+      <c r="P313" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P313" t="str">
+      <c r="Q313" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="15:16">
-      <c r="O314" t="str">
+    <row r="314" spans="16:17">
+      <c r="P314" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P314" t="str">
+      <c r="Q314" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="15:16">
-      <c r="O315" t="str">
+    <row r="315" spans="16:17">
+      <c r="P315" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P315" t="str">
+      <c r="Q315" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="15:16">
-      <c r="O316" t="str">
+    <row r="316" spans="16:17">
+      <c r="P316" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P316" t="str">
+      <c r="Q316" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="15:16">
-      <c r="O317" t="str">
+    <row r="317" spans="16:17">
+      <c r="P317" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P317" t="str">
+      <c r="Q317" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="15:16">
-      <c r="O318" t="str">
+    <row r="318" spans="16:17">
+      <c r="P318" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P318" t="str">
+      <c r="Q318" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="15:16">
-      <c r="O319" t="str">
+    <row r="319" spans="16:17">
+      <c r="P319" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P319" t="str">
+      <c r="Q319" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="15:16">
-      <c r="O320" t="str">
+    <row r="320" spans="16:17">
+      <c r="P320" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P320" t="str">
+      <c r="Q320" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="15:16">
-      <c r="O321" t="str">
+    <row r="321" spans="16:17">
+      <c r="P321" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P321" t="str">
+      <c r="Q321" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="15:16">
-      <c r="O322" t="str">
+    <row r="322" spans="16:17">
+      <c r="P322" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P322" t="str">
+      <c r="Q322" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="15:16">
-      <c r="O323" t="str">
+    <row r="323" spans="16:17">
+      <c r="P323" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P323" t="str">
+      <c r="Q323" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="15:16">
-      <c r="O324" t="str">
+    <row r="324" spans="16:17">
+      <c r="P324" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P324" t="str">
+      <c r="Q324" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="15:16">
-      <c r="O325" t="str">
+    <row r="325" spans="16:17">
+      <c r="P325" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P325" t="str">
+      <c r="Q325" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="15:16">
-      <c r="O326" t="str">
+    <row r="326" spans="16:17">
+      <c r="P326" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P326" t="str">
+      <c r="Q326" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="15:16">
-      <c r="O327" t="str">
+    <row r="327" spans="16:17">
+      <c r="P327" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P327" t="str">
+      <c r="Q327" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="15:16">
-      <c r="O328" t="str">
+    <row r="328" spans="16:17">
+      <c r="P328" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P328" t="str">
+      <c r="Q328" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="15:16">
-      <c r="O329" t="str">
+    <row r="329" spans="16:17">
+      <c r="P329" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P329" t="str">
+      <c r="Q329" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="15:16">
-      <c r="O330" t="str">
+    <row r="330" spans="16:17">
+      <c r="P330" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P330" t="str">
+      <c r="Q330" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="15:16">
-      <c r="O331" t="str">
+    <row r="331" spans="16:17">
+      <c r="P331" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P331" t="str">
+      <c r="Q331" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="15:16">
-      <c r="O332" t="str">
+    <row r="332" spans="16:17">
+      <c r="P332" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P332" t="str">
+      <c r="Q332" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="15:16">
-      <c r="O333" t="str">
+    <row r="333" spans="16:17">
+      <c r="P333" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P333" t="str">
+      <c r="Q333" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="15:16">
-      <c r="O334" t="str">
+    <row r="334" spans="16:17">
+      <c r="P334" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P334" t="str">
+      <c r="Q334" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="15:16">
-      <c r="O335" t="str">
+    <row r="335" spans="16:17">
+      <c r="P335" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P335" t="str">
+      <c r="Q335" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="15:16">
-      <c r="O336" t="str">
+    <row r="336" spans="16:17">
+      <c r="P336" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P336" t="str">
+      <c r="Q336" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="15:16">
-      <c r="O337" t="str">
+    <row r="337" spans="16:17">
+      <c r="P337" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P337" t="str">
+      <c r="Q337" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="15:16">
-      <c r="O338" t="str">
+    <row r="338" spans="16:17">
+      <c r="P338" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P338" t="str">
+      <c r="Q338" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="15:16">
-      <c r="O339" t="str">
+    <row r="339" spans="16:17">
+      <c r="P339" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P339" t="str">
+      <c r="Q339" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="15:16">
-      <c r="O340" t="str">
+    <row r="340" spans="16:17">
+      <c r="P340" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P340" t="str">
+      <c r="Q340" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="15:16">
-      <c r="O341" t="str">
+    <row r="341" spans="16:17">
+      <c r="P341" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P341" t="str">
+      <c r="Q341" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="15:16">
-      <c r="O342" t="str">
+    <row r="342" spans="16:17">
+      <c r="P342" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P342" t="str">
+      <c r="Q342" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="15:16">
-      <c r="O343" t="str">
+    <row r="343" spans="16:17">
+      <c r="P343" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P343" t="str">
+      <c r="Q343" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="15:16">
-      <c r="O344" t="str">
+    <row r="344" spans="16:17">
+      <c r="P344" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P344" t="str">
+      <c r="Q344" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="15:16">
-      <c r="O345" t="str">
+    <row r="345" spans="16:17">
+      <c r="P345" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P345" t="str">
+      <c r="Q345" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="15:16">
-      <c r="O346" t="str">
+    <row r="346" spans="16:17">
+      <c r="P346" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P346" t="str">
+      <c r="Q346" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="15:16">
-      <c r="O347" t="str">
+    <row r="347" spans="16:17">
+      <c r="P347" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P347" t="str">
+      <c r="Q347" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="15:16">
-      <c r="O348" t="str">
+    <row r="348" spans="16:17">
+      <c r="P348" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P348" t="str">
+      <c r="Q348" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="15:16">
-      <c r="O349" t="str">
+    <row r="349" spans="16:17">
+      <c r="P349" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P349" t="str">
+      <c r="Q349" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="15:16">
-      <c r="O350" t="str">
+    <row r="350" spans="16:17">
+      <c r="P350" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P350" t="str">
+      <c r="Q350" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="15:16">
-      <c r="O351" t="str">
+    <row r="351" spans="16:17">
+      <c r="P351" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P351" t="str">
+      <c r="Q351" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="15:16">
-      <c r="O352" t="str">
+    <row r="352" spans="16:17">
+      <c r="P352" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P352" t="str">
+      <c r="Q352" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="15:16">
-      <c r="O353" t="str">
+    <row r="353" spans="16:17">
+      <c r="P353" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P353" t="str">
+      <c r="Q353" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="15:16">
-      <c r="O354" t="str">
+    <row r="354" spans="16:17">
+      <c r="P354" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P354" t="str">
+      <c r="Q354" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="15:16">
-      <c r="O355" t="str">
+    <row r="355" spans="16:17">
+      <c r="P355" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P355" t="str">
+      <c r="Q355" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="15:16">
-      <c r="O356" t="str">
+    <row r="356" spans="16:17">
+      <c r="P356" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P356" t="str">
+      <c r="Q356" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="15:16">
-      <c r="O357" t="str">
+    <row r="357" spans="16:17">
+      <c r="P357" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P357" t="str">
+      <c r="Q357" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="15:16">
-      <c r="O358" t="str">
+    <row r="358" spans="16:17">
+      <c r="P358" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P358" t="str">
+      <c r="Q358" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="15:16">
-      <c r="O359" t="str">
+    <row r="359" spans="16:17">
+      <c r="P359" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P359" t="str">
+      <c r="Q359" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="15:16">
-      <c r="O360" t="str">
+    <row r="360" spans="16:17">
+      <c r="P360" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P360" t="str">
+      <c r="Q360" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="15:16">
-      <c r="O361" t="str">
+    <row r="361" spans="16:17">
+      <c r="P361" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P361" t="str">
+      <c r="Q361" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="15:16">
-      <c r="O362" t="str">
+    <row r="362" spans="16:17">
+      <c r="P362" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P362" t="str">
+      <c r="Q362" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="15:16">
-      <c r="O363" t="str">
+    <row r="363" spans="16:17">
+      <c r="P363" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P363" t="str">
+      <c r="Q363" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="15:16">
-      <c r="O364" t="str">
+    <row r="364" spans="16:17">
+      <c r="P364" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P364" t="str">
+      <c r="Q364" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="15:16">
-      <c r="O365" t="str">
+    <row r="365" spans="16:17">
+      <c r="P365" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P365" t="str">
+      <c r="Q365" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="15:16">
-      <c r="O366" t="str">
+    <row r="366" spans="16:17">
+      <c r="P366" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P366" t="str">
+      <c r="Q366" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="15:16">
-      <c r="O367" t="str">
+    <row r="367" spans="16:17">
+      <c r="P367" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P367" t="str">
+      <c r="Q367" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="15:16">
-      <c r="O368" t="str">
+    <row r="368" spans="16:17">
+      <c r="P368" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P368" t="str">
+      <c r="Q368" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="15:16">
-      <c r="O369" t="str">
+    <row r="369" spans="16:17">
+      <c r="P369" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P369" t="str">
+      <c r="Q369" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="15:16">
-      <c r="O370" t="str">
+    <row r="370" spans="16:17">
+      <c r="P370" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P370" t="str">
+      <c r="Q370" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="15:16">
-      <c r="O371" t="str">
-        <f t="shared" ref="O371:O434" si="12">IF(H371="public","n",IF(H371="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="371" spans="16:17">
       <c r="P371" t="str">
-        <f t="shared" ref="P371:P434" si="13">IF(H371="public","y",IF(H371="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="15:16">
-      <c r="O372" t="str">
+        <f t="shared" ref="P371:P434" si="12">IF(I371="public","n",IF(I371="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q371" t="str">
+        <f t="shared" ref="Q371:Q434" si="13">IF(I371="public","y",IF(I371="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="16:17">
+      <c r="P372" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P372" t="str">
+      <c r="Q372" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="15:16">
-      <c r="O373" t="str">
+    <row r="373" spans="16:17">
+      <c r="P373" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P373" t="str">
+      <c r="Q373" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="15:16">
-      <c r="O374" t="str">
+    <row r="374" spans="16:17">
+      <c r="P374" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P374" t="str">
+      <c r="Q374" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="15:16">
-      <c r="O375" t="str">
+    <row r="375" spans="16:17">
+      <c r="P375" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P375" t="str">
+      <c r="Q375" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="15:16">
-      <c r="O376" t="str">
+    <row r="376" spans="16:17">
+      <c r="P376" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P376" t="str">
+      <c r="Q376" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="15:16">
-      <c r="O377" t="str">
+    <row r="377" spans="16:17">
+      <c r="P377" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P377" t="str">
+      <c r="Q377" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="15:16">
-      <c r="O378" t="str">
+    <row r="378" spans="16:17">
+      <c r="P378" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P378" t="str">
+      <c r="Q378" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="15:16">
-      <c r="O379" t="str">
+    <row r="379" spans="16:17">
+      <c r="P379" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P379" t="str">
+      <c r="Q379" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="15:16">
-      <c r="O380" t="str">
+    <row r="380" spans="16:17">
+      <c r="P380" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P380" t="str">
+      <c r="Q380" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="15:16">
-      <c r="O381" t="str">
+    <row r="381" spans="16:17">
+      <c r="P381" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P381" t="str">
+      <c r="Q381" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="15:16">
-      <c r="O382" t="str">
+    <row r="382" spans="16:17">
+      <c r="P382" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P382" t="str">
+      <c r="Q382" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="15:16">
-      <c r="O383" t="str">
+    <row r="383" spans="16:17">
+      <c r="P383" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P383" t="str">
+      <c r="Q383" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="15:16">
-      <c r="O384" t="str">
+    <row r="384" spans="16:17">
+      <c r="P384" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P384" t="str">
+      <c r="Q384" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="15:16">
-      <c r="O385" t="str">
+    <row r="385" spans="16:17">
+      <c r="P385" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P385" t="str">
+      <c r="Q385" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="15:16">
-      <c r="O386" t="str">
+    <row r="386" spans="16:17">
+      <c r="P386" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P386" t="str">
+      <c r="Q386" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="15:16">
-      <c r="O387" t="str">
+    <row r="387" spans="16:17">
+      <c r="P387" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P387" t="str">
+      <c r="Q387" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="15:16">
-      <c r="O388" t="str">
+    <row r="388" spans="16:17">
+      <c r="P388" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P388" t="str">
+      <c r="Q388" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="15:16">
-      <c r="O389" t="str">
+    <row r="389" spans="16:17">
+      <c r="P389" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P389" t="str">
+      <c r="Q389" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="15:16">
-      <c r="O390" t="str">
+    <row r="390" spans="16:17">
+      <c r="P390" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P390" t="str">
+      <c r="Q390" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="15:16">
-      <c r="O391" t="str">
+    <row r="391" spans="16:17">
+      <c r="P391" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P391" t="str">
+      <c r="Q391" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="15:16">
-      <c r="O392" t="str">
+    <row r="392" spans="16:17">
+      <c r="P392" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P392" t="str">
+      <c r="Q392" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="15:16">
-      <c r="O393" t="str">
+    <row r="393" spans="16:17">
+      <c r="P393" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P393" t="str">
+      <c r="Q393" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="15:16">
-      <c r="O394" t="str">
+    <row r="394" spans="16:17">
+      <c r="P394" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P394" t="str">
+      <c r="Q394" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="15:16">
-      <c r="O395" t="str">
+    <row r="395" spans="16:17">
+      <c r="P395" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P395" t="str">
+      <c r="Q395" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="15:16">
-      <c r="O396" t="str">
+    <row r="396" spans="16:17">
+      <c r="P396" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P396" t="str">
+      <c r="Q396" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="15:16">
-      <c r="O397" t="str">
+    <row r="397" spans="16:17">
+      <c r="P397" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P397" t="str">
+      <c r="Q397" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="15:16">
-      <c r="O398" t="str">
+    <row r="398" spans="16:17">
+      <c r="P398" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P398" t="str">
+      <c r="Q398" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="15:16">
-      <c r="O399" t="str">
+    <row r="399" spans="16:17">
+      <c r="P399" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P399" t="str">
+      <c r="Q399" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="15:16">
-      <c r="O400" t="str">
+    <row r="400" spans="16:17">
+      <c r="P400" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P400" t="str">
+      <c r="Q400" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="15:16">
-      <c r="O401" t="str">
+    <row r="401" spans="16:17">
+      <c r="P401" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P401" t="str">
+      <c r="Q401" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="15:16">
-      <c r="O402" t="str">
+    <row r="402" spans="16:17">
+      <c r="P402" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P402" t="str">
+      <c r="Q402" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="15:16">
-      <c r="O403" t="str">
+    <row r="403" spans="16:17">
+      <c r="P403" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P403" t="str">
+      <c r="Q403" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="15:16">
-      <c r="O404" t="str">
+    <row r="404" spans="16:17">
+      <c r="P404" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P404" t="str">
+      <c r="Q404" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="15:16">
-      <c r="O405" t="str">
+    <row r="405" spans="16:17">
+      <c r="P405" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P405" t="str">
+      <c r="Q405" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="15:16">
-      <c r="O406" t="str">
+    <row r="406" spans="16:17">
+      <c r="P406" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P406" t="str">
+      <c r="Q406" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="15:16">
-      <c r="O407" t="str">
+    <row r="407" spans="16:17">
+      <c r="P407" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P407" t="str">
+      <c r="Q407" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="15:16">
-      <c r="O408" t="str">
+    <row r="408" spans="16:17">
+      <c r="P408" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P408" t="str">
+      <c r="Q408" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="15:16">
-      <c r="O409" t="str">
+    <row r="409" spans="16:17">
+      <c r="P409" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P409" t="str">
+      <c r="Q409" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="15:16">
-      <c r="O410" t="str">
+    <row r="410" spans="16:17">
+      <c r="P410" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P410" t="str">
+      <c r="Q410" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="15:16">
-      <c r="O411" t="str">
+    <row r="411" spans="16:17">
+      <c r="P411" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P411" t="str">
+      <c r="Q411" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="15:16">
-      <c r="O412" t="str">
+    <row r="412" spans="16:17">
+      <c r="P412" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P412" t="str">
+      <c r="Q412" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="15:16">
-      <c r="O413" t="str">
+    <row r="413" spans="16:17">
+      <c r="P413" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P413" t="str">
+      <c r="Q413" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="15:16">
-      <c r="O414" t="str">
+    <row r="414" spans="16:17">
+      <c r="P414" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P414" t="str">
+      <c r="Q414" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="15:16">
-      <c r="O415" t="str">
+    <row r="415" spans="16:17">
+      <c r="P415" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P415" t="str">
+      <c r="Q415" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="15:16">
-      <c r="O416" t="str">
+    <row r="416" spans="16:17">
+      <c r="P416" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P416" t="str">
+      <c r="Q416" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="15:16">
-      <c r="O417" t="str">
+    <row r="417" spans="16:17">
+      <c r="P417" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P417" t="str">
+      <c r="Q417" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="15:16">
-      <c r="O418" t="str">
+    <row r="418" spans="16:17">
+      <c r="P418" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P418" t="str">
+      <c r="Q418" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="15:16">
-      <c r="O419" t="str">
+    <row r="419" spans="16:17">
+      <c r="P419" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P419" t="str">
+      <c r="Q419" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="15:16">
-      <c r="O420" t="str">
+    <row r="420" spans="16:17">
+      <c r="P420" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P420" t="str">
+      <c r="Q420" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="15:16">
-      <c r="O421" t="str">
+    <row r="421" spans="16:17">
+      <c r="P421" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P421" t="str">
+      <c r="Q421" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="15:16">
-      <c r="O422" t="str">
+    <row r="422" spans="16:17">
+      <c r="P422" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P422" t="str">
+      <c r="Q422" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="15:16">
-      <c r="O423" t="str">
+    <row r="423" spans="16:17">
+      <c r="P423" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P423" t="str">
+      <c r="Q423" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="15:16">
-      <c r="O424" t="str">
+    <row r="424" spans="16:17">
+      <c r="P424" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P424" t="str">
+      <c r="Q424" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="15:16">
-      <c r="O425" t="str">
+    <row r="425" spans="16:17">
+      <c r="P425" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P425" t="str">
+      <c r="Q425" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="15:16">
-      <c r="O426" t="str">
+    <row r="426" spans="16:17">
+      <c r="P426" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P426" t="str">
+      <c r="Q426" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="15:16">
-      <c r="O427" t="str">
+    <row r="427" spans="16:17">
+      <c r="P427" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P427" t="str">
+      <c r="Q427" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="15:16">
-      <c r="O428" t="str">
+    <row r="428" spans="16:17">
+      <c r="P428" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P428" t="str">
+      <c r="Q428" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="15:16">
-      <c r="O429" t="str">
+    <row r="429" spans="16:17">
+      <c r="P429" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P429" t="str">
+      <c r="Q429" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="15:16">
-      <c r="O430" t="str">
+    <row r="430" spans="16:17">
+      <c r="P430" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P430" t="str">
+      <c r="Q430" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="15:16">
-      <c r="O431" t="str">
+    <row r="431" spans="16:17">
+      <c r="P431" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P431" t="str">
+      <c r="Q431" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="15:16">
-      <c r="O432" t="str">
+    <row r="432" spans="16:17">
+      <c r="P432" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P432" t="str">
+      <c r="Q432" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="15:16">
-      <c r="O433" t="str">
+    <row r="433" spans="16:17">
+      <c r="P433" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P433" t="str">
+      <c r="Q433" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="15:16">
-      <c r="O434" t="str">
+    <row r="434" spans="16:17">
+      <c r="P434" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P434" t="str">
+      <c r="Q434" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="15:16">
-      <c r="O435" t="str">
-        <f t="shared" ref="O435:O483" si="14">IF(H435="public","n",IF(H435="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="435" spans="16:17">
       <c r="P435" t="str">
-        <f t="shared" ref="P435:P483" si="15">IF(H435="public","y",IF(H435="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="15:16">
-      <c r="O436" t="str">
+        <f t="shared" ref="P435:P483" si="14">IF(I435="public","n",IF(I435="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q435" t="str">
+        <f t="shared" ref="Q435:Q483" si="15">IF(I435="public","y",IF(I435="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="16:17">
+      <c r="P436" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P436" t="str">
+      <c r="Q436" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="15:16">
-      <c r="O437" t="str">
+    <row r="437" spans="16:17">
+      <c r="P437" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P437" t="str">
+      <c r="Q437" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="15:16">
-      <c r="O438" t="str">
+    <row r="438" spans="16:17">
+      <c r="P438" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P438" t="str">
+      <c r="Q438" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="15:16">
-      <c r="O439" t="str">
+    <row r="439" spans="16:17">
+      <c r="P439" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P439" t="str">
+      <c r="Q439" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="15:16">
-      <c r="O440" t="str">
+    <row r="440" spans="16:17">
+      <c r="P440" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P440" t="str">
+      <c r="Q440" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="15:16">
-      <c r="O441" t="str">
+    <row r="441" spans="16:17">
+      <c r="P441" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P441" t="str">
+      <c r="Q441" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="15:16">
-      <c r="O442" t="str">
+    <row r="442" spans="16:17">
+      <c r="P442" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P442" t="str">
+      <c r="Q442" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="15:16">
-      <c r="O443" t="str">
+    <row r="443" spans="16:17">
+      <c r="P443" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P443" t="str">
+      <c r="Q443" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="15:16">
-      <c r="O444" t="str">
+    <row r="444" spans="16:17">
+      <c r="P444" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P444" t="str">
+      <c r="Q444" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="15:16">
-      <c r="O445" t="str">
+    <row r="445" spans="16:17">
+      <c r="P445" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P445" t="str">
+      <c r="Q445" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="15:16">
-      <c r="O446" t="str">
+    <row r="446" spans="16:17">
+      <c r="P446" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P446" t="str">
+      <c r="Q446" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="15:16">
-      <c r="O447" t="str">
+    <row r="447" spans="16:17">
+      <c r="P447" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P447" t="str">
+      <c r="Q447" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="15:16">
-      <c r="O448" t="str">
+    <row r="448" spans="16:17">
+      <c r="P448" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P448" t="str">
+      <c r="Q448" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="15:16">
-      <c r="O449" t="str">
+    <row r="449" spans="16:17">
+      <c r="P449" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P449" t="str">
+      <c r="Q449" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="15:16">
-      <c r="O450" t="str">
+    <row r="450" spans="16:17">
+      <c r="P450" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P450" t="str">
+      <c r="Q450" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="15:16">
-      <c r="O451" t="str">
+    <row r="451" spans="16:17">
+      <c r="P451" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P451" t="str">
+      <c r="Q451" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="15:16">
-      <c r="O452" t="str">
+    <row r="452" spans="16:17">
+      <c r="P452" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P452" t="str">
+      <c r="Q452" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="15:16">
-      <c r="O453" t="str">
+    <row r="453" spans="16:17">
+      <c r="P453" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P453" t="str">
+      <c r="Q453" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="15:16">
-      <c r="O454" t="str">
+    <row r="454" spans="16:17">
+      <c r="P454" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P454" t="str">
+      <c r="Q454" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="15:16">
-      <c r="O455" t="str">
+    <row r="455" spans="16:17">
+      <c r="P455" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P455" t="str">
+      <c r="Q455" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="15:16">
-      <c r="O456" t="str">
+    <row r="456" spans="16:17">
+      <c r="P456" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P456" t="str">
+      <c r="Q456" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="15:16">
-      <c r="O457" t="str">
+    <row r="457" spans="16:17">
+      <c r="P457" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P457" t="str">
+      <c r="Q457" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="15:16">
-      <c r="O458" t="str">
+    <row r="458" spans="16:17">
+      <c r="P458" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P458" t="str">
+      <c r="Q458" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="15:16">
-      <c r="O459" t="str">
+    <row r="459" spans="16:17">
+      <c r="P459" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P459" t="str">
+      <c r="Q459" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="15:16">
-      <c r="O460" t="str">
+    <row r="460" spans="16:17">
+      <c r="P460" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P460" t="str">
+      <c r="Q460" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="15:16">
-      <c r="O461" t="str">
+    <row r="461" spans="16:17">
+      <c r="P461" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P461" t="str">
+      <c r="Q461" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="15:16">
-      <c r="O462" t="str">
+    <row r="462" spans="16:17">
+      <c r="P462" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P462" t="str">
+      <c r="Q462" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="15:16">
-      <c r="O463" t="str">
+    <row r="463" spans="16:17">
+      <c r="P463" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P463" t="str">
+      <c r="Q463" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="15:16">
-      <c r="O464" t="str">
+    <row r="464" spans="16:17">
+      <c r="P464" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P464" t="str">
+      <c r="Q464" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="15:16">
-      <c r="O465" t="str">
+    <row r="465" spans="16:17">
+      <c r="P465" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P465" t="str">
+      <c r="Q465" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="15:16">
-      <c r="O466" t="str">
+    <row r="466" spans="16:17">
+      <c r="P466" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P466" t="str">
+      <c r="Q466" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="15:16">
-      <c r="O467" t="str">
+    <row r="467" spans="16:17">
+      <c r="P467" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P467" t="str">
+      <c r="Q467" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="15:16">
-      <c r="O468" t="str">
+    <row r="468" spans="16:17">
+      <c r="P468" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P468" t="str">
+      <c r="Q468" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="15:16">
-      <c r="O469" t="str">
+    <row r="469" spans="16:17">
+      <c r="P469" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P469" t="str">
+      <c r="Q469" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="15:16">
-      <c r="O470" t="str">
+    <row r="470" spans="16:17">
+      <c r="P470" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P470" t="str">
+      <c r="Q470" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="15:16">
-      <c r="O471" t="str">
+    <row r="471" spans="16:17">
+      <c r="P471" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P471" t="str">
+      <c r="Q471" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="15:16">
-      <c r="O472" t="str">
+    <row r="472" spans="16:17">
+      <c r="P472" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P472" t="str">
+      <c r="Q472" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="15:16">
-      <c r="O473" t="str">
+    <row r="473" spans="16:17">
+      <c r="P473" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P473" t="str">
+      <c r="Q473" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="15:16">
-      <c r="O474" t="str">
+    <row r="474" spans="16:17">
+      <c r="P474" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P474" t="str">
+      <c r="Q474" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="15:16">
-      <c r="O475" t="str">
+    <row r="475" spans="16:17">
+      <c r="P475" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P475" t="str">
+      <c r="Q475" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="15:16">
-      <c r="O476" t="str">
+    <row r="476" spans="16:17">
+      <c r="P476" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P476" t="str">
+      <c r="Q476" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="15:16">
-      <c r="O477" t="str">
+    <row r="477" spans="16:17">
+      <c r="P477" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P477" t="str">
+      <c r="Q477" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="15:16">
-      <c r="O478" t="str">
+    <row r="478" spans="16:17">
+      <c r="P478" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P478" t="str">
+      <c r="Q478" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="15:16">
-      <c r="O479" t="str">
+    <row r="479" spans="16:17">
+      <c r="P479" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P479" t="str">
+      <c r="Q479" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="15:16">
-      <c r="O480" t="str">
+    <row r="480" spans="16:17">
+      <c r="P480" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P480" t="str">
+      <c r="Q480" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="15:16">
-      <c r="O481" t="str">
+    <row r="481" spans="16:17">
+      <c r="P481" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P481" t="str">
+      <c r="Q481" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="15:16">
-      <c r="O482" t="str">
+    <row r="482" spans="16:17">
+      <c r="P482" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P482" t="str">
+      <c r="Q482" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="15:16">
-      <c r="O483" t="str">
+    <row r="483" spans="16:17">
+      <c r="P483" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P483" t="str">
+      <c r="Q483" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:U1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="J1:J2 G1:G2 A1:D2 D3:D1048576 E1:F1048576 K1:XFD1048576 H1:I1048576" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
+    <dataValidation allowBlank="1" sqref="K1:K2 H1:H2 A1:E2 D3:E1048576 F1:G1048576 L1:XFD1048576 I1:J1048576" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19767,36 +19881,36 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6328125" customWidth="1"/>
+    <col min="9" max="9" width="42.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>660</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.15" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -19858,21 +19972,21 @@
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>661</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -19932,29 +20046,29 @@
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>662</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -20042,32 +20156,32 @@
     <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="125" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+    <row r="1" spans="1:20" ht="125.15" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="12" t="s">
@@ -20157,25 +20271,25 @@
     <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="179" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>664</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+    <row r="1" spans="1:9" ht="179.15" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
@@ -20185,22 +20299,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>665</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>666</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>670</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>269</v>
@@ -20489,28 +20603,27 @@
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.1796875" customWidth="1"/>
     <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="191" customHeight="1">
-      <c r="A1" s="91" t="s">
-        <v>671</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+    <row r="1" spans="1:11" ht="191.15" customHeight="1">
+      <c r="A1" s="92" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" ht="29">
       <c r="A2" s="26" t="s">
@@ -20526,22 +20639,22 @@
         <v>216</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>673</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>674</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>677</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>269</v>
@@ -20573,7 +20686,7 @@
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" ht="29" customHeight="1">
+    <row r="5" spans="1:11" ht="29.15" customHeight="1">
       <c r="A5" s="28"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -20612,19 +20725,19 @@
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="26" t="s">
@@ -20671,20 +20784,20 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.453125" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
@@ -20726,21 +20839,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" customWidth="1"/>
     <col min="8" max="8" width="22.1796875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="11.1796875" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
+    <col min="13" max="13" width="13.54296875" customWidth="1"/>
     <col min="14" max="14" width="15.453125" customWidth="1"/>
-    <col min="15" max="15" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
     <col min="18" max="18" width="6.1796875" customWidth="1"/>
@@ -20750,33 +20863,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="193" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82" t="s">
-        <v>679</v>
-      </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84"/>
-    </row>
-    <row r="2" spans="1:21" s="34" customFormat="1" ht="83" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="85"/>
+    </row>
+    <row r="2" spans="1:21" s="34" customFormat="1" ht="83.15" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -20835,7 +20948,7 @@
         <v>75</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="U2" s="26" t="s">
         <v>269</v>
@@ -20871,28 +20984,28 @@
     <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.1796875" customWidth="1"/>
     <col min="8" max="8" width="26.81640625" customWidth="1"/>
-    <col min="9" max="9" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.453125" customWidth="1"/>
     <col min="12" max="12" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="120" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>682</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
+      <c r="A1" s="83" t="s">
+        <v>678</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1" ht="72.5">
       <c r="A2" s="26" t="s">
@@ -20905,7 +21018,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>81</v>
@@ -20959,44 +21072,44 @@
   <cols>
     <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
     <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="19.1796875" customWidth="1"/>
     <col min="12" max="12" width="7.81640625" customWidth="1"/>
     <col min="13" max="13" width="8.453125" customWidth="1"/>
     <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
     <col min="16" max="16" width="18.81640625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>684</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="A1" s="97" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -21072,74 +21185,74 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.36328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" customWidth="1"/>
     <col min="5" max="5" width="8.1796875" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="22.1796875" customWidth="1"/>
     <col min="14" max="14" width="18.81640625" customWidth="1"/>
-    <col min="15" max="15" width="18.36328125" customWidth="1"/>
-    <col min="16" max="17" width="14.36328125" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" customWidth="1"/>
+    <col min="16" max="17" width="14.453125" customWidth="1"/>
     <col min="18" max="18" width="11.1796875" customWidth="1"/>
     <col min="19" max="19" width="13.81640625" customWidth="1"/>
     <col min="20" max="20" width="12.1796875" customWidth="1"/>
     <col min="21" max="21" width="16.1796875" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" customWidth="1"/>
     <col min="23" max="23" width="10.81640625" customWidth="1"/>
     <col min="24" max="24" width="9.1796875" customWidth="1"/>
     <col min="25" max="25" width="16.81640625" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
     <col min="27" max="27" width="10.1796875" customWidth="1"/>
-    <col min="28" max="28" width="10.6328125" customWidth="1"/>
+    <col min="28" max="28" width="10.54296875" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
     <col min="30" max="30" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="139" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="93" t="s">
-        <v>685</v>
-      </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="95"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="94" t="s">
+        <v>681</v>
+      </c>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="96"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -21257,42 +21370,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="6" width="19.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.453125" customWidth="1"/>
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="31.1796875" customWidth="1"/>
     <col min="14" max="14" width="7.453125" customWidth="1"/>
     <col min="16" max="16" width="28.1796875" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>686</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -21382,41 +21495,41 @@
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="11" max="12" width="14.6328125" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
-    <col min="15" max="15" width="23.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.6328125" customWidth="1"/>
+    <col min="11" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="23.54296875" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" customWidth="1"/>
     <col min="18" max="18" width="14.81640625" customWidth="1"/>
     <col min="22" max="22" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="84"/>
-    </row>
-    <row r="2" spans="1:22" ht="58.25" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="85"/>
+    </row>
+    <row r="2" spans="1:22" ht="58.4" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
@@ -21514,31 +21627,31 @@
     <col min="8" max="9" width="12.453125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="17" max="17" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" ht="46.25" customHeight="1">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+    </row>
+    <row r="2" spans="1:17" ht="46.4" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -21616,10 +21729,10 @@
     <col min="2" max="2" width="8.81640625" customWidth="1"/>
     <col min="4" max="4" width="27.453125" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="19.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
     <col min="10" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="13.1796875" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" customWidth="1"/>
@@ -21629,29 +21742,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="154" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="85" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="102"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -21734,21 +21847,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
     <col min="3" max="3" width="26.1796875" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="A1" s="80" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -21789,36 +21902,36 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="8.6328125" customWidth="1"/>
+    <col min="8" max="9" width="8.54296875" customWidth="1"/>
     <col min="10" max="10" width="16.1796875" customWidth="1"/>
-    <col min="11" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="18" width="8.6328125" style="66"/>
+    <col min="11" max="12" width="8.54296875" customWidth="1"/>
+    <col min="13" max="18" width="8.54296875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -22155,7 +22268,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -22163,18 +22276,18 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -22213,35 +22326,35 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
-    <col min="8" max="10" width="12.36328125" customWidth="1"/>
+    <col min="3" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" customWidth="1"/>
+    <col min="8" max="10" width="12.453125" customWidth="1"/>
     <col min="11" max="11" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.6328125" customWidth="1"/>
+    <col min="12" max="15" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-    </row>
-    <row r="2" spans="1:11" ht="72.5" customHeight="1">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="72.650000000000006" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -22309,24 +22422,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>689</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="A1" s="83" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="43.5">
       <c r="A2" s="17" t="s">
@@ -22430,7 +22543,7 @@
     <col min="9" max="9" width="27.453125" customWidth="1"/>
     <col min="10" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="16.453125" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="16" max="16" width="20.453125" style="3"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
@@ -22440,35 +22553,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>690</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="84"/>
+      <c r="A1" s="83" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="85"/>
     </row>
     <row r="2" spans="1:27" s="41" customFormat="1" ht="43.5">
       <c r="A2" s="42" t="s">
@@ -25546,27 +25659,27 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>691</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+    <row r="1" spans="1:8" ht="119.15" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="55" t="s">
@@ -28376,7 +28489,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -28386,7 +28499,7 @@
     <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -28399,26 +28512,26 @@
     <col min="26" max="26" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="200" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>692</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="200.15" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
       <c r="T1" s="61"/>
@@ -32703,8 +32816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED903B-F69B-8440-8195-68F92D10C778}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -32717,26 +32830,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="94.5" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="95"/>
+      <c r="A1" s="94" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="96"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" s="41" customFormat="1" ht="72.5" customHeight="1">
+    <row r="2" spans="1:16" s="41" customFormat="1" ht="72.650000000000006" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -32744,37 +32857,37 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>691</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>693</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>694</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="H2" s="27" t="s">
         <v>695</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="J2" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>700</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>703</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>72</v>
@@ -32787,7 +32900,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="H2:H1048576" xr:uid="{89BA7024-AC40-C54B-96AA-4FB1476BE9A7}">
       <formula1>"AD1,AD2,AD3,multi-AD"</formula1>
     </dataValidation>
@@ -32798,9 +32911,6 @@
       <formula1>"Advanced,Enterprise"</formula1>
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{6FD9B403-76B7-6945-AB0F-E60CAB1D5EEC}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I1" xr:uid="{108C332C-534C-1B4C-9FDF-EE14DDB34B12}">
-      <formula1>"BM.DenseIO2.52,BM.DenseIO.E4.128"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32820,71 +32930,71 @@
     <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
     <col min="13" max="13" width="11.81640625" customWidth="1"/>
     <col min="15" max="15" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1">
-      <c r="A1" s="93" t="s">
-        <v>704</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
+      <c r="A1" s="94" t="s">
+        <v>701</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
     </row>
     <row r="2" spans="1:15" s="34" customFormat="1" ht="43.5">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C2" s="64" t="s">
+        <v>702</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>705</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>713</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>714</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>716</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -32897,7 +33007,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="C9" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -32912,54 +33022,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E11E2-D3E5-4BD8-BB43-57A57B87349F}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.453125" style="29" customWidth="1"/>
     <col min="3" max="3" width="12.453125" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.81640625" style="29" customWidth="1"/>
     <col min="8" max="8" width="8.81640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="38.36328125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="25.6328125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="23.6328125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="38.453125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="25.54296875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="23.54296875" style="29" customWidth="1"/>
     <col min="13" max="13" width="13" style="29" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" style="28" customWidth="1"/>
     <col min="15" max="15" width="15.453125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="14.36328125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="29" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" style="29" customWidth="1"/>
     <col min="18" max="18" width="12" style="29" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6328125" style="29"/>
+    <col min="19" max="16384" width="8.54296875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="292" customHeight="1">
-      <c r="A1" s="102" t="s">
-        <v>717</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="104"/>
+    <row r="1" spans="1:18" ht="261" customHeight="1">
+      <c r="A1" s="103" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="105"/>
     </row>
     <row r="2" spans="1:18" ht="43.5">
       <c r="A2" s="26" t="s">
@@ -33068,18 +33178,18 @@
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="28.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.54296875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1796875" style="53" customWidth="1"/>
     <col min="4" max="5" width="38.453125" style="53" customWidth="1"/>
     <col min="6" max="6" width="33.81640625" style="53" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.453125" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="53" customWidth="1"/>
     <col min="12" max="12" width="29.81640625" style="53" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.81640625" style="53" customWidth="1"/>
     <col min="14" max="14" width="9.453125" style="53" bestFit="1" customWidth="1"/>
@@ -33087,24 +33197,24 @@
     <col min="16" max="16" width="11" style="53" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" style="53" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="18" style="53" customWidth="1"/>
-    <col min="21" max="21" width="21.36328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.81640625" style="53" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.81640625" style="53" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" style="53" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.6328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.54296875" style="53" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="30.1796875" style="53" customWidth="1"/>
     <col min="29" max="29" width="15.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="44.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.36328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.453125" style="53" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="28.1796875" style="53" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="16.1796875" style="53" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.1796875" style="53" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="17.1796875" style="53" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.36328125" style="53" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="28.36328125" style="53"/>
+    <col min="37" max="37" width="12.453125" style="53" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="28.453125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="46" customFormat="1" ht="148" customHeight="1">
@@ -33351,7 +33461,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="47" customFormat="1">
+    <row r="3" spans="1:40" s="47" customFormat="1" ht="26">
       <c r="A3" s="47">
         <v>4</v>
       </c>
@@ -34173,7 +34283,7 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
@@ -34563,7 +34673,7 @@
       </c>
       <c r="F29" s="48"/>
       <c r="G29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
@@ -35137,7 +35247,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1796875" customWidth="1"/>
@@ -35147,7 +35257,7 @@
     <col min="8" max="8" width="15.81640625" customWidth="1"/>
     <col min="9" max="10" width="11.453125" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35950,21 +36060,21 @@
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="6" width="23.6328125" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" customWidth="1"/>
+    <col min="5" max="6" width="23.54296875" customWidth="1"/>
     <col min="7" max="7" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="34" customFormat="1" ht="128" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+    <row r="1" spans="1:7" s="34" customFormat="1" ht="128.15" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="26" t="s">
@@ -36683,7 +36793,7 @@
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
     <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37002,13 +37112,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.1796875" style="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28">
+    <row r="1" spans="1:2" ht="42">
       <c r="A1" s="45" t="s">
         <v>404</v>
       </c>
@@ -37344,14 +37454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="131.5" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="80" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
@@ -37364,10 +37474,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>645</v>
+        <v>719</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>269</v>
@@ -38918,7 +39028,7 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="F3:F484" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38934,24 +39044,24 @@
   <cols>
     <col min="1" max="1" width="9.1796875" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
     <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" customWidth="1"/>
+    <col min="5" max="5" width="49.453125" customWidth="1"/>
     <col min="6" max="7" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="34" customFormat="1" ht="112" customHeight="1">
-      <c r="A1" s="79" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="A1" s="80" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8" s="34" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -41278,28 +41388,28 @@
     <col min="1" max="1" width="8.81640625" style="4"/>
     <col min="2" max="2" width="19.1796875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="59.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="169" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85" t="s">
-        <v>654</v>
-      </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
+        <v>650</v>
+      </c>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="33" t="s">
@@ -41356,10 +41466,9 @@
     <col min="1" max="1" width="9.1796875" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.453125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="22.453125" customWidth="1"/>
     <col min="11" max="11" width="26.453125" customWidth="1"/>
@@ -41367,22 +41476,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
-      <c r="A1" s="82" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="82" t="s">
-        <v>656</v>
-      </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="A1" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="83" t="s">
+        <v>652</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="85"/>
     </row>
     <row r="2" spans="1:12" s="34" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -41443,34 +41552,34 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.1796875" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="8.6328125" customWidth="1"/>
+    <col min="10" max="19" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="88" t="s">
-        <v>718</v>
-      </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="89" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="26" t="s">
@@ -41486,7 +41595,7 @@
         <v>396</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>397</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D36DD1-E727-0D4F-BCE3-21A4CD472600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFF09B6-BC06-7C49-BC20-05847C9A72CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="760" windowWidth="16720" windowHeight="17540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13520" yWindow="760" windowWidth="16720" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -7294,57 +7294,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"SDDC name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the SDDC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                             </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
     <t>SDDC Name</t>
   </si>
   <si>
@@ -8868,12 +8817,177 @@
   <si>
     <t>Workload Block Volumes</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"SDDC name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the SDDC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Management Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Name (minimum - 8 TB ~ 8192 GB). Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC comaprtment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Workload Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Names separated by ','. Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;,  &lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC compartment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
+** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9174,8 +9288,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9232,6 +9362,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8CCE4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -9434,7 +9570,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9630,6 +9766,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9703,11 +9845,14 @@
     <xf numFmtId="0" fontId="33" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14917,7 +15062,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -14942,10 +15087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="34" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="89"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15006,16 +15151,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" s="34" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15087,31 +15232,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="89" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="91" t="s">
         <v>654</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
     </row>
     <row r="2" spans="1:21" s="34" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20023,18 +20168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20102,17 +20247,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -20176,25 +20321,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>658</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -20286,28 +20431,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -20405,17 +20550,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -20737,19 +20882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>667</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20855,15 +21000,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>674</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20917,13 +21062,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -20989,32 +21134,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="82" t="s">
-        <v>722</v>
-      </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="84"/>
+      <c r="A1" s="95" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="84" t="s">
+        <v>721</v>
+      </c>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="2" spans="1:22" s="34" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -21117,22 +21262,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -21216,27 +21361,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="98" t="s">
         <v>679</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -21346,40 +21491,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="93" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="95" t="s">
         <v>680</v>
       </c>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="94"/>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="94"/>
-      <c r="AD1" s="95"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="97"/>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -21512,27 +21657,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -21630,30 +21775,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -21757,25 +21902,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -21868,29 +22013,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="103"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -21980,14 +22125,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -22044,21 +22189,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:19" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -22413,13 +22558,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="A1" s="81" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -22471,19 +22616,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -22553,24 +22698,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>684</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -22684,35 +22829,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="86"/>
     </row>
     <row r="2" spans="1:27" s="41" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
@@ -25801,16 +25946,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
@@ -28644,29 +28789,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
       <c r="V1" s="61"/>
       <c r="W1" s="61"/>
       <c r="X1" s="61"/>
@@ -28703,16 +28848,16 @@
         <v>490</v>
       </c>
       <c r="K2" s="55" t="s">
+        <v>722</v>
+      </c>
+      <c r="L2" s="55" t="s">
         <v>723</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="M2" s="55" t="s">
         <v>724</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>725</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>726</v>
       </c>
       <c r="O2" s="55" t="s">
         <v>491</v>
@@ -32974,25 +33119,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
-        <v>688</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+      <c r="A1" s="108" t="s">
+        <v>728</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
     </row>
     <row r="2" spans="1:17" s="41" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -33002,43 +33147,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="64" t="s">
         <v>690</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="64" t="s">
         <v>692</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="H2" s="27" t="s">
         <v>693</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>695</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="79" t="s">
+        <v>726</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>727</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="K2" s="106" t="s">
-        <v>727</v>
-      </c>
-      <c r="L2" s="107" t="s">
-        <v>728</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>698</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>699</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>72</v>
@@ -33087,65 +33232,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
-        <v>700</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
+      <c r="A1" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:15" s="34" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C2" s="64" t="s">
+        <v>700</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>701</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>704</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>705</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>711</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>712</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -33200,26 +33345,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
-        <v>713</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
+      <c r="A1" s="105" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="107"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -36216,15 +36361,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="34" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -37604,14 +37749,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>719</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="81" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -37624,10 +37769,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>269</v>
@@ -39202,16 +39347,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="34" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>649</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -41547,19 +41692,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87" t="s">
         <v>650</v>
       </c>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
@@ -41626,22 +41771,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="84" t="s">
         <v>652</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="86"/>
     </row>
     <row r="2" spans="1:12" s="34" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -41717,19 +41862,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>529</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="88" t="s">
-        <v>714</v>
-      </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="90" t="s">
+        <v>713</v>
+      </c>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -41745,7 +41890,7 @@
         <v>396</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>397</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFF09B6-BC06-7C49-BC20-05847C9A72CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B509BD-4EE8-F449-ACF8-D28811A5A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13520" yWindow="760" windowWidth="16720" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -9836,6 +9836,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9843,15 +9852,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15202,10 +15202,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:U483"/>
+  <dimension ref="A1:T483"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15213,25 +15213,25 @@
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" customWidth="1"/>
-    <col min="20" max="20" width="10" customWidth="1"/>
-    <col min="21" max="21" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>653</v>
       </c>
@@ -15242,11 +15242,11 @@
       <c r="F1" s="85"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="91" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="91" t="s">
         <v>654</v>
       </c>
+      <c r="K1" s="91"/>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
@@ -15256,9 +15256,8 @@
       <c r="R1" s="91"/>
       <c r="S1" s="91"/>
       <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" s="34" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" s="34" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -15271,4873 +15270,4872 @@
       <c r="D2" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="26" t="s">
+        <v>655</v>
+      </c>
       <c r="F2" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="G2" s="26" t="s">
         <v>11</v>
       </c>
+      <c r="G2" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="H2" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="27" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O50" si="0">IF(H3="public","n",IF(H3="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P50" si="0">IF(I3="public","n",IF(I3="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q50" si="1">IF(I3="public","y",IF(I3="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P3:P50" si="1">IF(H3="public","y",IF(H3="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q4" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P5" t="str">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q5" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P6" t="str">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q6" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P7" t="str">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q7" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P8" t="str">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q8" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P9" t="str">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q9" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P10" t="str">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q10" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P11" t="str">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q11" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P12" t="str">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q12" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P13" t="str">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q13" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P14" t="str">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q14" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P15" t="str">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q15" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="P16" t="str">
+    <row r="17" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q16" t="str">
+      <c r="P17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P17" t="str">
+    <row r="18" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q17" t="str">
+      <c r="P18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P18" t="str">
+    <row r="19" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q18" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P19" t="str">
+    <row r="20" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q19" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P20" t="str">
+    <row r="21" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q20" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P21" t="str">
+    <row r="22" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q21" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P22" t="str">
+    <row r="23" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q22" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P23" t="str">
+    <row r="24" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q23" t="str">
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P24" t="str">
+    <row r="25" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q24" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P25" t="str">
+    <row r="26" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q25" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P26" t="str">
+    <row r="27" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q26" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P27" t="str">
+    <row r="28" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q27" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P28" t="str">
+    <row r="29" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q28" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P29" t="str">
+    <row r="30" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q29" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P30" t="str">
+    <row r="31" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q30" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P31" t="str">
+    <row r="32" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q31" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P32" t="str">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q32" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P33" t="str">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q33" t="str">
+      <c r="P34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P34" t="str">
+    <row r="35" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q34" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P35" t="str">
+    <row r="36" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q35" t="str">
+      <c r="P36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P36" t="str">
+    <row r="37" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q36" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P37" t="str">
+    <row r="38" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q37" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P38" t="str">
+    <row r="39" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q38" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P39" t="str">
+    <row r="40" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q39" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P40" t="str">
+    <row r="41" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q40" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P41" t="str">
+    <row r="42" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q41" t="str">
+      <c r="P42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P42" t="str">
+    <row r="43" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q42" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P43" t="str">
+    <row r="44" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q43" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P44" t="str">
+    <row r="45" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q44" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P45" t="str">
+    <row r="46" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q45" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P46" t="str">
+    <row r="47" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q46" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P47" t="str">
+    <row r="48" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q47" t="str">
+      <c r="P48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P48" t="str">
+    <row r="49" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q48" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P49" t="str">
+    <row r="50" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q49" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P50" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O51" t="str">
+        <f t="shared" ref="O51:O114" si="2">IF(H51="public","n",IF(H51="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P51" t="str">
-        <f t="shared" ref="P51:P114" si="2">IF(I51="public","n",IF(I51="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q51" t="str">
-        <f t="shared" ref="Q51:Q114" si="3">IF(I51="public","y",IF(I51="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P51:P114" si="3">IF(H51="public","y",IF(H51="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="P52" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q52" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P53" t="str">
+    <row r="54" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q53" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P54" t="str">
+    <row r="55" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q54" t="str">
+      <c r="P55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P55" t="str">
+    <row r="56" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O56" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q55" t="str">
+      <c r="P56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P56" t="str">
+    <row r="57" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q56" t="str">
+      <c r="P57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P57" t="str">
+    <row r="58" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q57" t="str">
+      <c r="P58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P58" t="str">
+    <row r="59" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q58" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P59" t="str">
+    <row r="60" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q59" t="str">
+      <c r="P60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P60" t="str">
+    <row r="61" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q60" t="str">
+      <c r="P61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P61" t="str">
+    <row r="62" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q61" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P62" t="str">
+    <row r="63" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q62" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P63" t="str">
+    <row r="64" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q63" t="str">
+      <c r="P64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P64" t="str">
+    <row r="65" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q64" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P65" t="str">
+    <row r="66" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q65" t="str">
+      <c r="P66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P66" t="str">
+    <row r="67" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q66" t="str">
+      <c r="P67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P67" t="str">
+    <row r="68" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q67" t="str">
+      <c r="P68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P68" t="str">
+    <row r="69" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q68" t="str">
+      <c r="P69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P69" t="str">
+    <row r="70" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q69" t="str">
+      <c r="P70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P70" t="str">
+    <row r="71" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q70" t="str">
+      <c r="P71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P71" t="str">
+    <row r="72" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q71" t="str">
+      <c r="P72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P72" t="str">
+    <row r="73" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q72" t="str">
+      <c r="P73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P73" t="str">
+    <row r="74" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q73" t="str">
+      <c r="P74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P74" t="str">
+    <row r="75" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q74" t="str">
+      <c r="P75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P75" t="str">
+    <row r="76" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q75" t="str">
+      <c r="P76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P76" t="str">
+    <row r="77" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O77" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q76" t="str">
+      <c r="P77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P77" t="str">
+    <row r="78" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q77" t="str">
+      <c r="P78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P78" t="str">
+    <row r="79" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q78" t="str">
+      <c r="P79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P79" t="str">
+    <row r="80" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O80" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q79" t="str">
+      <c r="P80" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P80" t="str">
+    <row r="81" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q80" t="str">
+      <c r="P81" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P81" t="str">
+    <row r="82" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q81" t="str">
+      <c r="P82" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P82" t="str">
+    <row r="83" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O83" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q82" t="str">
+      <c r="P83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P83" t="str">
+    <row r="84" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O84" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q83" t="str">
+      <c r="P84" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P84" t="str">
+    <row r="85" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q84" t="str">
+      <c r="P85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P85" t="str">
+    <row r="86" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q85" t="str">
+      <c r="P86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P86" t="str">
+    <row r="87" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q86" t="str">
+      <c r="P87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P87" t="str">
+    <row r="88" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O88" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q87" t="str">
+      <c r="P88" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P88" t="str">
+    <row r="89" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O89" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q88" t="str">
+      <c r="P89" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P89" t="str">
+    <row r="90" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O90" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q89" t="str">
+      <c r="P90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P90" t="str">
+    <row r="91" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q90" t="str">
+      <c r="P91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P91" t="str">
+    <row r="92" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O92" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q91" t="str">
+      <c r="P92" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P92" t="str">
+    <row r="93" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q92" t="str">
+      <c r="P93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P93" t="str">
+    <row r="94" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q93" t="str">
+      <c r="P94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P94" t="str">
+    <row r="95" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q94" t="str">
+      <c r="P95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P95" t="str">
+    <row r="96" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q95" t="str">
+      <c r="P96" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P96" t="str">
+    <row r="97" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q96" t="str">
+      <c r="P97" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P97" t="str">
+    <row r="98" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q97" t="str">
+      <c r="P98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P98" t="str">
+    <row r="99" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q98" t="str">
+      <c r="P99" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P99" t="str">
+    <row r="100" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q99" t="str">
+      <c r="P100" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P100" t="str">
+    <row r="101" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q100" t="str">
+      <c r="P101" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P101" t="str">
+    <row r="102" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q101" t="str">
+      <c r="P102" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P102" t="str">
+    <row r="103" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O103" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q102" t="str">
+      <c r="P103" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P103" t="str">
+    <row r="104" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q103" t="str">
+      <c r="P104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P104" t="str">
+    <row r="105" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O105" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q104" t="str">
+      <c r="P105" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P105" t="str">
+    <row r="106" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q105" t="str">
+      <c r="P106" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P106" t="str">
+    <row r="107" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q106" t="str">
+      <c r="P107" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P107" t="str">
+    <row r="108" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q107" t="str">
+      <c r="P108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P108" t="str">
+    <row r="109" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q108" t="str">
+      <c r="P109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P109" t="str">
+    <row r="110" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O110" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q109" t="str">
+      <c r="P110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P110" t="str">
+    <row r="111" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q110" t="str">
+      <c r="P111" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P111" t="str">
+    <row r="112" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O112" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q111" t="str">
+      <c r="P112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P112" t="str">
+    <row r="113" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q112" t="str">
+      <c r="P113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P113" t="str">
+    <row r="114" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q113" t="str">
+      <c r="P114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P114" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q114" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O115" t="str">
+        <f t="shared" ref="O115:O178" si="4">IF(H115="public","n",IF(H115="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P115" t="str">
-        <f t="shared" ref="P115:P178" si="4">IF(I115="public","n",IF(I115="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q115" t="str">
-        <f t="shared" ref="Q115:Q178" si="5">IF(I115="public","y",IF(I115="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P115:P178" si="5">IF(H115="public","y",IF(H115="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="P116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O117" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q116" t="str">
+      <c r="P117" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P117" t="str">
+    <row r="118" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O118" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q117" t="str">
+      <c r="P118" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P118" t="str">
+    <row r="119" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O119" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q118" t="str">
+      <c r="P119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P119" t="str">
+    <row r="120" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O120" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q119" t="str">
+      <c r="P120" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P120" t="str">
+    <row r="121" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O121" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q120" t="str">
+      <c r="P121" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P121" t="str">
+    <row r="122" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O122" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q121" t="str">
+      <c r="P122" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P122" t="str">
+    <row r="123" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O123" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q122" t="str">
+      <c r="P123" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P123" t="str">
+    <row r="124" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O124" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q123" t="str">
+      <c r="P124" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P124" t="str">
+    <row r="125" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q124" t="str">
+      <c r="P125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P125" t="str">
+    <row r="126" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O126" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q125" t="str">
+      <c r="P126" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P126" t="str">
+    <row r="127" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O127" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q126" t="str">
+      <c r="P127" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P127" t="str">
+    <row r="128" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O128" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q127" t="str">
+      <c r="P128" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P128" t="str">
+    <row r="129" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O129" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q128" t="str">
+      <c r="P129" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P129" t="str">
+    <row r="130" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O130" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q129" t="str">
+      <c r="P130" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P130" t="str">
+    <row r="131" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O131" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q130" t="str">
+      <c r="P131" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P131" t="str">
+    <row r="132" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O132" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q131" t="str">
+      <c r="P132" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P132" t="str">
+    <row r="133" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O133" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q132" t="str">
+      <c r="P133" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P133" t="str">
+    <row r="134" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O134" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q133" t="str">
+      <c r="P134" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P134" t="str">
+    <row r="135" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O135" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q134" t="str">
+      <c r="P135" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P135" t="str">
+    <row r="136" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O136" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q135" t="str">
+      <c r="P136" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P136" t="str">
+    <row r="137" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O137" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q136" t="str">
+      <c r="P137" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P137" t="str">
+    <row r="138" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O138" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q137" t="str">
+      <c r="P138" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P138" t="str">
+    <row r="139" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O139" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q138" t="str">
+      <c r="P139" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P139" t="str">
+    <row r="140" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O140" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q139" t="str">
+      <c r="P140" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P140" t="str">
+    <row r="141" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O141" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q140" t="str">
+      <c r="P141" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P141" t="str">
+    <row r="142" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O142" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q141" t="str">
+      <c r="P142" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P142" t="str">
+    <row r="143" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O143" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q142" t="str">
+      <c r="P143" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P143" t="str">
+    <row r="144" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O144" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q143" t="str">
+      <c r="P144" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P144" t="str">
+    <row r="145" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O145" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q144" t="str">
+      <c r="P145" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P145" t="str">
+    <row r="146" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O146" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q145" t="str">
+      <c r="P146" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P146" t="str">
+    <row r="147" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O147" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q146" t="str">
+      <c r="P147" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P147" t="str">
+    <row r="148" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O148" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q147" t="str">
+      <c r="P148" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P148" t="str">
+    <row r="149" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q148" t="str">
+      <c r="P149" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P149" t="str">
+    <row r="150" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q149" t="str">
+      <c r="P150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P150" t="str">
+    <row r="151" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O151" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q150" t="str">
+      <c r="P151" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P151" t="str">
+    <row r="152" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O152" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q151" t="str">
+      <c r="P152" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P152" t="str">
+    <row r="153" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O153" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q152" t="str">
+      <c r="P153" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P153" t="str">
+    <row r="154" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q153" t="str">
+      <c r="P154" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P154" t="str">
+    <row r="155" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O155" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q154" t="str">
+      <c r="P155" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P155" t="str">
+    <row r="156" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O156" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q155" t="str">
+      <c r="P156" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P156" t="str">
+    <row r="157" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O157" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q156" t="str">
+      <c r="P157" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P157" t="str">
+    <row r="158" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O158" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q157" t="str">
+      <c r="P158" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P158" t="str">
+    <row r="159" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O159" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q158" t="str">
+      <c r="P159" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P159" t="str">
+    <row r="160" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O160" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q159" t="str">
+      <c r="P160" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P160" t="str">
+    <row r="161" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O161" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q160" t="str">
+      <c r="P161" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P161" t="str">
+    <row r="162" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O162" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q161" t="str">
+      <c r="P162" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P162" t="str">
+    <row r="163" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O163" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q162" t="str">
+      <c r="P163" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P163" t="str">
+    <row r="164" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O164" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q163" t="str">
+      <c r="P164" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P164" t="str">
+    <row r="165" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O165" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q164" t="str">
+      <c r="P165" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P165" t="str">
+    <row r="166" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q165" t="str">
+      <c r="P166" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P166" t="str">
+    <row r="167" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O167" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q166" t="str">
+      <c r="P167" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P167" t="str">
+    <row r="168" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O168" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q167" t="str">
+      <c r="P168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P168" t="str">
+    <row r="169" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O169" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q168" t="str">
+      <c r="P169" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P169" t="str">
+    <row r="170" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O170" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q169" t="str">
+      <c r="P170" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P170" t="str">
+    <row r="171" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q170" t="str">
+      <c r="P171" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P171" t="str">
+    <row r="172" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O172" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q171" t="str">
+      <c r="P172" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P172" t="str">
+    <row r="173" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O173" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q172" t="str">
+      <c r="P173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P173" t="str">
+    <row r="174" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O174" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q173" t="str">
+      <c r="P174" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P174" t="str">
+    <row r="175" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O175" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q174" t="str">
+      <c r="P175" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P175" t="str">
+    <row r="176" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O176" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q175" t="str">
+      <c r="P176" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P176" t="str">
+    <row r="177" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q176" t="str">
+      <c r="P177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P177" t="str">
+    <row r="178" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O178" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q177" t="str">
+      <c r="P178" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P178" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q178" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O179" t="str">
+        <f t="shared" ref="O179:O242" si="6">IF(H179="public","n",IF(H179="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P179" t="str">
-        <f t="shared" ref="P179:P242" si="6">IF(I179="public","n",IF(I179="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q179" t="str">
-        <f t="shared" ref="Q179:Q242" si="7">IF(I179="public","y",IF(I179="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P179:P242" si="7">IF(H179="public","y",IF(H179="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O180" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
       <c r="P180" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O181" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q180" t="str">
+      <c r="P181" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P181" t="str">
+    <row r="182" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O182" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q181" t="str">
+      <c r="P182" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P182" t="str">
+    <row r="183" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O183" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q182" t="str">
+      <c r="P183" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P183" t="str">
+    <row r="184" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O184" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q183" t="str">
+      <c r="P184" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P184" t="str">
+    <row r="185" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O185" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q184" t="str">
+      <c r="P185" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P185" t="str">
+    <row r="186" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O186" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q185" t="str">
+      <c r="P186" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P186" t="str">
+    <row r="187" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O187" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q186" t="str">
+      <c r="P187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P187" t="str">
+    <row r="188" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O188" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q187" t="str">
+      <c r="P188" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P188" t="str">
+    <row r="189" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q188" t="str">
+      <c r="P189" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P189" t="str">
+    <row r="190" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O190" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q189" t="str">
+      <c r="P190" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P190" t="str">
+    <row r="191" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O191" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q190" t="str">
+      <c r="P191" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P191" t="str">
+    <row r="192" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O192" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q191" t="str">
+      <c r="P192" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P192" t="str">
+    <row r="193" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O193" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q192" t="str">
+      <c r="P193" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P193" t="str">
+    <row r="194" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O194" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q193" t="str">
+      <c r="P194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P194" t="str">
+    <row r="195" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O195" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q194" t="str">
+      <c r="P195" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P195" t="str">
+    <row r="196" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q195" t="str">
+      <c r="P196" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P196" t="str">
+    <row r="197" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O197" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q196" t="str">
+      <c r="P197" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P197" t="str">
+    <row r="198" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O198" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q197" t="str">
+      <c r="P198" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P198" t="str">
+    <row r="199" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O199" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q198" t="str">
+      <c r="P199" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P199" t="str">
+    <row r="200" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O200" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q199" t="str">
+      <c r="P200" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P200" t="str">
+    <row r="201" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O201" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q200" t="str">
+      <c r="P201" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P201" t="str">
+    <row r="202" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O202" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q201" t="str">
+      <c r="P202" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P202" t="str">
+    <row r="203" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O203" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q202" t="str">
+      <c r="P203" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P203" t="str">
+    <row r="204" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O204" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q203" t="str">
+      <c r="P204" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P204" t="str">
+    <row r="205" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O205" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q204" t="str">
+      <c r="P205" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P205" t="str">
+    <row r="206" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O206" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q205" t="str">
+      <c r="P206" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P206" t="str">
+    <row r="207" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O207" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q206" t="str">
+      <c r="P207" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P207" t="str">
+    <row r="208" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O208" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q207" t="str">
+      <c r="P208" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P208" t="str">
+    <row r="209" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O209" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q208" t="str">
+      <c r="P209" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P209" t="str">
+    <row r="210" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O210" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q209" t="str">
+      <c r="P210" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P210" t="str">
+    <row r="211" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O211" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q210" t="str">
+      <c r="P211" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P211" t="str">
+    <row r="212" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q211" t="str">
+      <c r="P212" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P212" t="str">
+    <row r="213" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q212" t="str">
+      <c r="P213" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P213" t="str">
+    <row r="214" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O214" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q213" t="str">
+      <c r="P214" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P214" t="str">
+    <row r="215" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O215" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q214" t="str">
+      <c r="P215" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P215" t="str">
+    <row r="216" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O216" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q215" t="str">
+      <c r="P216" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P216" t="str">
+    <row r="217" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O217" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q216" t="str">
+      <c r="P217" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P217" t="str">
+    <row r="218" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O218" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q217" t="str">
+      <c r="P218" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P218" t="str">
+    <row r="219" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O219" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q218" t="str">
+      <c r="P219" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P219" t="str">
+    <row r="220" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O220" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q219" t="str">
+      <c r="P220" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P220" t="str">
+    <row r="221" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O221" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q220" t="str">
+      <c r="P221" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P221" t="str">
+    <row r="222" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O222" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q221" t="str">
+      <c r="P222" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P222" t="str">
+    <row r="223" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O223" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q222" t="str">
+      <c r="P223" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P223" t="str">
+    <row r="224" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O224" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q223" t="str">
+      <c r="P224" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P224" t="str">
+    <row r="225" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O225" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q224" t="str">
+      <c r="P225" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P225" t="str">
+    <row r="226" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O226" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q225" t="str">
+      <c r="P226" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P226" t="str">
+    <row r="227" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O227" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q226" t="str">
+      <c r="P227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P227" t="str">
+    <row r="228" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O228" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q227" t="str">
+      <c r="P228" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P228" t="str">
+    <row r="229" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q228" t="str">
+      <c r="P229" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P229" t="str">
+    <row r="230" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O230" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q229" t="str">
+      <c r="P230" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P230" t="str">
+    <row r="231" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O231" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q230" t="str">
+      <c r="P231" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P231" t="str">
+    <row r="232" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O232" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q231" t="str">
+      <c r="P232" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P232" t="str">
+    <row r="233" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O233" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q232" t="str">
+      <c r="P233" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P233" t="str">
+    <row r="234" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q233" t="str">
+      <c r="P234" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P234" t="str">
+    <row r="235" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O235" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q234" t="str">
+      <c r="P235" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P235" t="str">
+    <row r="236" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O236" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q235" t="str">
+      <c r="P236" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P236" t="str">
+    <row r="237" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O237" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q236" t="str">
+      <c r="P237" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P237" t="str">
+    <row r="238" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O238" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q237" t="str">
+      <c r="P238" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P238" t="str">
+    <row r="239" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O239" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q238" t="str">
+      <c r="P239" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P239" t="str">
+    <row r="240" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O240" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q239" t="str">
+      <c r="P240" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P240" t="str">
+    <row r="241" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O241" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q240" t="str">
+      <c r="P241" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P241" t="str">
+    <row r="242" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O242" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q241" t="str">
+      <c r="P242" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P242" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q242" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O243" t="str">
+        <f t="shared" ref="O243:O306" si="8">IF(H243="public","n",IF(H243="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P243" t="str">
-        <f t="shared" ref="P243:P306" si="8">IF(I243="public","n",IF(I243="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q243" t="str">
-        <f t="shared" ref="Q243:Q306" si="9">IF(I243="public","y",IF(I243="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P243:P306" si="9">IF(H243="public","y",IF(H243="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O244" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="P244" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O245" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q244" t="str">
+      <c r="P245" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P245" t="str">
+    <row r="246" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O246" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q245" t="str">
+      <c r="P246" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P246" t="str">
+    <row r="247" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O247" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q246" t="str">
+      <c r="P247" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P247" t="str">
+    <row r="248" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O248" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q247" t="str">
+      <c r="P248" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P248" t="str">
+    <row r="249" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O249" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q248" t="str">
+      <c r="P249" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P249" t="str">
+    <row r="250" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O250" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q249" t="str">
+      <c r="P250" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P250" t="str">
+    <row r="251" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O251" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q250" t="str">
+      <c r="P251" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P251" t="str">
+    <row r="252" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O252" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q251" t="str">
+      <c r="P252" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P252" t="str">
+    <row r="253" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O253" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q252" t="str">
+      <c r="P253" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P253" t="str">
+    <row r="254" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O254" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q253" t="str">
+      <c r="P254" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P254" t="str">
+    <row r="255" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O255" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q254" t="str">
+      <c r="P255" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P255" t="str">
+    <row r="256" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O256" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q255" t="str">
+      <c r="P256" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P256" t="str">
+    <row r="257" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O257" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q256" t="str">
+      <c r="P257" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P257" t="str">
+    <row r="258" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O258" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q257" t="str">
+      <c r="P258" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P258" t="str">
+    <row r="259" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O259" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q258" t="str">
+      <c r="P259" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P259" t="str">
+    <row r="260" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O260" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q259" t="str">
+      <c r="P260" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P260" t="str">
+    <row r="261" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O261" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q260" t="str">
+      <c r="P261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P261" t="str">
+    <row r="262" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O262" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q261" t="str">
+      <c r="P262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P262" t="str">
+    <row r="263" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O263" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q262" t="str">
+      <c r="P263" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P263" t="str">
+    <row r="264" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O264" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q263" t="str">
+      <c r="P264" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P264" t="str">
+    <row r="265" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O265" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q264" t="str">
+      <c r="P265" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P265" t="str">
+    <row r="266" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O266" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q265" t="str">
+      <c r="P266" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P266" t="str">
+    <row r="267" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O267" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q266" t="str">
+      <c r="P267" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P267" t="str">
+    <row r="268" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O268" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q267" t="str">
+      <c r="P268" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P268" t="str">
+    <row r="269" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O269" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q268" t="str">
+      <c r="P269" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P269" t="str">
+    <row r="270" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O270" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q269" t="str">
+      <c r="P270" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P270" t="str">
+    <row r="271" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O271" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q270" t="str">
+      <c r="P271" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P271" t="str">
+    <row r="272" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O272" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q271" t="str">
+      <c r="P272" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P272" t="str">
+    <row r="273" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O273" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q272" t="str">
+      <c r="P273" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P273" t="str">
+    <row r="274" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O274" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q273" t="str">
+      <c r="P274" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P274" t="str">
+    <row r="275" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O275" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q274" t="str">
+      <c r="P275" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P275" t="str">
+    <row r="276" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O276" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q275" t="str">
+      <c r="P276" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P276" t="str">
+    <row r="277" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O277" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q276" t="str">
+      <c r="P277" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P277" t="str">
+    <row r="278" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O278" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q277" t="str">
+      <c r="P278" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P278" t="str">
+    <row r="279" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O279" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q278" t="str">
+      <c r="P279" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P279" t="str">
+    <row r="280" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O280" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q279" t="str">
+      <c r="P280" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P280" t="str">
+    <row r="281" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O281" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q280" t="str">
+      <c r="P281" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P281" t="str">
+    <row r="282" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O282" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q281" t="str">
+      <c r="P282" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P282" t="str">
+    <row r="283" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O283" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q282" t="str">
+      <c r="P283" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P283" t="str">
+    <row r="284" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O284" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q283" t="str">
+      <c r="P284" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P284" t="str">
+    <row r="285" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O285" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q284" t="str">
+      <c r="P285" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P285" t="str">
+    <row r="286" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O286" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q285" t="str">
+      <c r="P286" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P286" t="str">
+    <row r="287" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O287" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q286" t="str">
+      <c r="P287" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P287" t="str">
+    <row r="288" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O288" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q287" t="str">
+      <c r="P288" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P288" t="str">
+    <row r="289" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O289" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q288" t="str">
+      <c r="P289" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P289" t="str">
+    <row r="290" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q289" t="str">
+      <c r="P290" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P290" t="str">
+    <row r="291" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O291" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q290" t="str">
+      <c r="P291" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P291" t="str">
+    <row r="292" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O292" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q291" t="str">
+      <c r="P292" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P292" t="str">
+    <row r="293" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O293" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q292" t="str">
+      <c r="P293" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P293" t="str">
+    <row r="294" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O294" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q293" t="str">
+      <c r="P294" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P294" t="str">
+    <row r="295" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O295" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q294" t="str">
+      <c r="P295" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P295" t="str">
+    <row r="296" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O296" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q295" t="str">
+      <c r="P296" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P296" t="str">
+    <row r="297" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O297" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q296" t="str">
+      <c r="P297" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P297" t="str">
+    <row r="298" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O298" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q297" t="str">
+      <c r="P298" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P298" t="str">
+    <row r="299" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O299" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q298" t="str">
+      <c r="P299" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P299" t="str">
+    <row r="300" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O300" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q299" t="str">
+      <c r="P300" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P300" t="str">
+    <row r="301" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O301" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q300" t="str">
+      <c r="P301" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P301" t="str">
+    <row r="302" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q301" t="str">
+      <c r="P302" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P302" t="str">
+    <row r="303" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O303" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q302" t="str">
+      <c r="P303" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P303" t="str">
+    <row r="304" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O304" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q303" t="str">
+      <c r="P304" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P304" t="str">
+    <row r="305" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O305" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q304" t="str">
+      <c r="P305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P305" t="str">
+    <row r="306" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O306" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Q305" t="str">
+      <c r="P306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P306" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q306" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O307" t="str">
+        <f t="shared" ref="O307:O370" si="10">IF(H307="public","n",IF(H307="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P307" t="str">
-        <f t="shared" ref="P307:P370" si="10">IF(I307="public","n",IF(I307="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q307" t="str">
-        <f t="shared" ref="Q307:Q370" si="11">IF(I307="public","y",IF(I307="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P307:P370" si="11">IF(H307="public","y",IF(H307="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O308" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
       <c r="P308" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O309" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q308" t="str">
+      <c r="P309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P309" t="str">
+    <row r="310" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O310" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q309" t="str">
+      <c r="P310" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P310" t="str">
+    <row r="311" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O311" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q310" t="str">
+      <c r="P311" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P311" t="str">
+    <row r="312" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O312" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q311" t="str">
+      <c r="P312" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P312" t="str">
+    <row r="313" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O313" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q312" t="str">
+      <c r="P313" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P313" t="str">
+    <row r="314" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O314" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q313" t="str">
+      <c r="P314" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P314" t="str">
+    <row r="315" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O315" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q314" t="str">
+      <c r="P315" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P315" t="str">
+    <row r="316" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O316" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q315" t="str">
+      <c r="P316" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P316" t="str">
+    <row r="317" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O317" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q316" t="str">
+      <c r="P317" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P317" t="str">
+    <row r="318" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O318" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q317" t="str">
+      <c r="P318" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P318" t="str">
+    <row r="319" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O319" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q318" t="str">
+      <c r="P319" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P319" t="str">
+    <row r="320" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O320" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q319" t="str">
+      <c r="P320" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P320" t="str">
+    <row r="321" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O321" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q320" t="str">
+      <c r="P321" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P321" t="str">
+    <row r="322" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O322" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q321" t="str">
+      <c r="P322" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P322" t="str">
+    <row r="323" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O323" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q322" t="str">
+      <c r="P323" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P323" t="str">
+    <row r="324" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O324" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q323" t="str">
+      <c r="P324" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P324" t="str">
+    <row r="325" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O325" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q324" t="str">
+      <c r="P325" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P325" t="str">
+    <row r="326" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O326" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q325" t="str">
+      <c r="P326" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P326" t="str">
+    <row r="327" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O327" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q326" t="str">
+      <c r="P327" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P327" t="str">
+    <row r="328" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O328" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q327" t="str">
+      <c r="P328" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P328" t="str">
+    <row r="329" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O329" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q328" t="str">
+      <c r="P329" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P329" t="str">
+    <row r="330" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O330" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q329" t="str">
+      <c r="P330" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P330" t="str">
+    <row r="331" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O331" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q330" t="str">
+      <c r="P331" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P331" t="str">
+    <row r="332" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O332" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q331" t="str">
+      <c r="P332" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P332" t="str">
+    <row r="333" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O333" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q332" t="str">
+      <c r="P333" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P333" t="str">
+    <row r="334" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O334" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q333" t="str">
+      <c r="P334" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P334" t="str">
+    <row r="335" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O335" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q334" t="str">
+      <c r="P335" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P335" t="str">
+    <row r="336" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O336" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q335" t="str">
+      <c r="P336" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P336" t="str">
+    <row r="337" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O337" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q336" t="str">
+      <c r="P337" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P337" t="str">
+    <row r="338" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O338" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q337" t="str">
+      <c r="P338" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P338" t="str">
+    <row r="339" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O339" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q338" t="str">
+      <c r="P339" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P339" t="str">
+    <row r="340" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O340" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q339" t="str">
+      <c r="P340" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P340" t="str">
+    <row r="341" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O341" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q340" t="str">
+      <c r="P341" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P341" t="str">
+    <row r="342" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O342" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q341" t="str">
+      <c r="P342" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P342" t="str">
+    <row r="343" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O343" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q342" t="str">
+      <c r="P343" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P343" t="str">
+    <row r="344" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O344" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q343" t="str">
+      <c r="P344" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P344" t="str">
+    <row r="345" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O345" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q344" t="str">
+      <c r="P345" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P345" t="str">
+    <row r="346" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O346" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q345" t="str">
+      <c r="P346" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P346" t="str">
+    <row r="347" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O347" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q346" t="str">
+      <c r="P347" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P347" t="str">
+    <row r="348" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O348" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q347" t="str">
+      <c r="P348" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P348" t="str">
+    <row r="349" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O349" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q348" t="str">
+      <c r="P349" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P349" t="str">
+    <row r="350" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O350" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q349" t="str">
+      <c r="P350" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P350" t="str">
+    <row r="351" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O351" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q350" t="str">
+      <c r="P351" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P351" t="str">
+    <row r="352" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O352" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q351" t="str">
+      <c r="P352" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P352" t="str">
+    <row r="353" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O353" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q352" t="str">
+      <c r="P353" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P353" t="str">
+    <row r="354" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O354" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q353" t="str">
+      <c r="P354" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P354" t="str">
+    <row r="355" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O355" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q354" t="str">
+      <c r="P355" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P355" t="str">
+    <row r="356" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O356" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q355" t="str">
+      <c r="P356" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P356" t="str">
+    <row r="357" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O357" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q356" t="str">
+      <c r="P357" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P357" t="str">
+    <row r="358" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O358" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q357" t="str">
+      <c r="P358" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P358" t="str">
+    <row r="359" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O359" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q358" t="str">
+      <c r="P359" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P359" t="str">
+    <row r="360" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O360" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q359" t="str">
+      <c r="P360" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P360" t="str">
+    <row r="361" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O361" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q360" t="str">
+      <c r="P361" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P361" t="str">
+    <row r="362" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O362" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q361" t="str">
+      <c r="P362" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P362" t="str">
+    <row r="363" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O363" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q362" t="str">
+      <c r="P363" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P363" t="str">
+    <row r="364" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O364" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q363" t="str">
+      <c r="P364" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P364" t="str">
+    <row r="365" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O365" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q364" t="str">
+      <c r="P365" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P365" t="str">
+    <row r="366" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O366" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q365" t="str">
+      <c r="P366" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P366" t="str">
+    <row r="367" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O367" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q366" t="str">
+      <c r="P367" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P367" t="str">
+    <row r="368" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O368" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q367" t="str">
+      <c r="P368" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P368" t="str">
+    <row r="369" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O369" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q368" t="str">
+      <c r="P369" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P369" t="str">
+    <row r="370" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O370" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="Q369" t="str">
+      <c r="P370" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P370" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q370" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O371" t="str">
+        <f t="shared" ref="O371:O434" si="12">IF(H371="public","n",IF(H371="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P371" t="str">
-        <f t="shared" ref="P371:P434" si="12">IF(I371="public","n",IF(I371="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q371" t="str">
-        <f t="shared" ref="Q371:Q434" si="13">IF(I371="public","y",IF(I371="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P371:P434" si="13">IF(H371="public","y",IF(H371="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O372" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
       <c r="P372" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O373" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q372" t="str">
+      <c r="P373" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P373" t="str">
+    <row r="374" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O374" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q373" t="str">
+      <c r="P374" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P374" t="str">
+    <row r="375" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O375" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q374" t="str">
+      <c r="P375" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P375" t="str">
+    <row r="376" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O376" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q375" t="str">
+      <c r="P376" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P376" t="str">
+    <row r="377" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O377" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q376" t="str">
+      <c r="P377" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P377" t="str">
+    <row r="378" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O378" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q377" t="str">
+      <c r="P378" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P378" t="str">
+    <row r="379" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O379" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q378" t="str">
+      <c r="P379" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P379" t="str">
+    <row r="380" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O380" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q379" t="str">
+      <c r="P380" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P380" t="str">
+    <row r="381" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O381" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q380" t="str">
+      <c r="P381" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P381" t="str">
+    <row r="382" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O382" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q381" t="str">
+      <c r="P382" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P382" t="str">
+    <row r="383" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O383" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q382" t="str">
+      <c r="P383" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P383" t="str">
+    <row r="384" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O384" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q383" t="str">
+      <c r="P384" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P384" t="str">
+    <row r="385" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O385" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q384" t="str">
+      <c r="P385" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P385" t="str">
+    <row r="386" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O386" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q385" t="str">
+      <c r="P386" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P386" t="str">
+    <row r="387" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O387" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q386" t="str">
+      <c r="P387" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P387" t="str">
+    <row r="388" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O388" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q387" t="str">
+      <c r="P388" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P388" t="str">
+    <row r="389" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O389" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q388" t="str">
+      <c r="P389" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P389" t="str">
+    <row r="390" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O390" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q389" t="str">
+      <c r="P390" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P390" t="str">
+    <row r="391" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O391" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q390" t="str">
+      <c r="P391" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P391" t="str">
+    <row r="392" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O392" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q391" t="str">
+      <c r="P392" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P392" t="str">
+    <row r="393" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O393" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q392" t="str">
+      <c r="P393" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P393" t="str">
+    <row r="394" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O394" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q393" t="str">
+      <c r="P394" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P394" t="str">
+    <row r="395" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O395" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q394" t="str">
+      <c r="P395" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P395" t="str">
+    <row r="396" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O396" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q395" t="str">
+      <c r="P396" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P396" t="str">
+    <row r="397" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O397" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q396" t="str">
+      <c r="P397" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P397" t="str">
+    <row r="398" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O398" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q397" t="str">
+      <c r="P398" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P398" t="str">
+    <row r="399" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O399" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q398" t="str">
+      <c r="P399" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P399" t="str">
+    <row r="400" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O400" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q399" t="str">
+      <c r="P400" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P400" t="str">
+    <row r="401" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O401" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q400" t="str">
+      <c r="P401" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P401" t="str">
+    <row r="402" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O402" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q401" t="str">
+      <c r="P402" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P402" t="str">
+    <row r="403" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O403" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q402" t="str">
+      <c r="P403" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P403" t="str">
+    <row r="404" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O404" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q403" t="str">
+      <c r="P404" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P404" t="str">
+    <row r="405" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O405" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q404" t="str">
+      <c r="P405" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P405" t="str">
+    <row r="406" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O406" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q405" t="str">
+      <c r="P406" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P406" t="str">
+    <row r="407" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O407" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q406" t="str">
+      <c r="P407" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P407" t="str">
+    <row r="408" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O408" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q407" t="str">
+      <c r="P408" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P408" t="str">
+    <row r="409" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O409" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q408" t="str">
+      <c r="P409" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P409" t="str">
+    <row r="410" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O410" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q409" t="str">
+      <c r="P410" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P410" t="str">
+    <row r="411" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O411" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q410" t="str">
+      <c r="P411" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P411" t="str">
+    <row r="412" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O412" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q411" t="str">
+      <c r="P412" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P412" t="str">
+    <row r="413" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O413" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q412" t="str">
+      <c r="P413" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P413" t="str">
+    <row r="414" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O414" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q413" t="str">
+      <c r="P414" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P414" t="str">
+    <row r="415" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O415" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q414" t="str">
+      <c r="P415" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P415" t="str">
+    <row r="416" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O416" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q415" t="str">
+      <c r="P416" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P416" t="str">
+    <row r="417" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O417" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q416" t="str">
+      <c r="P417" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P417" t="str">
+    <row r="418" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O418" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q417" t="str">
+      <c r="P418" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P418" t="str">
+    <row r="419" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O419" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q418" t="str">
+      <c r="P419" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P419" t="str">
+    <row r="420" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O420" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q419" t="str">
+      <c r="P420" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P420" t="str">
+    <row r="421" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O421" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q420" t="str">
+      <c r="P421" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P421" t="str">
+    <row r="422" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O422" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q421" t="str">
+      <c r="P422" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P422" t="str">
+    <row r="423" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O423" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q422" t="str">
+      <c r="P423" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P423" t="str">
+    <row r="424" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O424" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q423" t="str">
+      <c r="P424" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P424" t="str">
+    <row r="425" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O425" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q424" t="str">
+      <c r="P425" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P425" t="str">
+    <row r="426" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O426" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q425" t="str">
+      <c r="P426" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P426" t="str">
+    <row r="427" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O427" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q426" t="str">
+      <c r="P427" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P427" t="str">
+    <row r="428" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O428" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q427" t="str">
+      <c r="P428" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P428" t="str">
+    <row r="429" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O429" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q428" t="str">
+      <c r="P429" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P429" t="str">
+    <row r="430" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O430" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q429" t="str">
+      <c r="P430" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P430" t="str">
+    <row r="431" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O431" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q430" t="str">
+      <c r="P431" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P431" t="str">
+    <row r="432" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O432" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q431" t="str">
+      <c r="P432" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P432" t="str">
+    <row r="433" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O433" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q432" t="str">
+      <c r="P433" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P433" t="str">
+    <row r="434" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O434" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="Q433" t="str">
+      <c r="P434" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P434" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q434" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="435" spans="16:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O435" t="str">
+        <f t="shared" ref="O435:O483" si="14">IF(H435="public","n",IF(H435="private","y",""))</f>
+        <v/>
+      </c>
       <c r="P435" t="str">
-        <f t="shared" ref="P435:P483" si="14">IF(I435="public","n",IF(I435="private","y",""))</f>
-        <v/>
-      </c>
-      <c r="Q435" t="str">
-        <f t="shared" ref="Q435:Q483" si="15">IF(I435="public","y",IF(I435="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="16:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P435:P483" si="15">IF(H435="public","y",IF(H435="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O436" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
       <c r="P436" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O437" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q436" t="str">
+      <c r="P437" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P437" t="str">
+    <row r="438" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O438" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q437" t="str">
+      <c r="P438" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P438" t="str">
+    <row r="439" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O439" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q438" t="str">
+      <c r="P439" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P439" t="str">
+    <row r="440" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O440" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q439" t="str">
+      <c r="P440" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P440" t="str">
+    <row r="441" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O441" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q440" t="str">
+      <c r="P441" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P441" t="str">
+    <row r="442" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O442" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q441" t="str">
+      <c r="P442" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P442" t="str">
+    <row r="443" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O443" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q442" t="str">
+      <c r="P443" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P443" t="str">
+    <row r="444" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O444" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q443" t="str">
+      <c r="P444" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P444" t="str">
+    <row r="445" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O445" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q444" t="str">
+      <c r="P445" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P445" t="str">
+    <row r="446" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O446" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q445" t="str">
+      <c r="P446" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P446" t="str">
+    <row r="447" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O447" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q446" t="str">
+      <c r="P447" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P447" t="str">
+    <row r="448" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O448" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q447" t="str">
+      <c r="P448" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P448" t="str">
+    <row r="449" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O449" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q448" t="str">
+      <c r="P449" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P449" t="str">
+    <row r="450" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O450" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q449" t="str">
+      <c r="P450" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P450" t="str">
+    <row r="451" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O451" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q450" t="str">
+      <c r="P451" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P451" t="str">
+    <row r="452" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O452" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q451" t="str">
+      <c r="P452" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P452" t="str">
+    <row r="453" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O453" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q452" t="str">
+      <c r="P453" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P453" t="str">
+    <row r="454" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O454" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q453" t="str">
+      <c r="P454" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P454" t="str">
+    <row r="455" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O455" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q454" t="str">
+      <c r="P455" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P455" t="str">
+    <row r="456" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O456" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q455" t="str">
+      <c r="P456" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P456" t="str">
+    <row r="457" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O457" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q456" t="str">
+      <c r="P457" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P457" t="str">
+    <row r="458" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O458" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q457" t="str">
+      <c r="P458" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P458" t="str">
+    <row r="459" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O459" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q458" t="str">
+      <c r="P459" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P459" t="str">
+    <row r="460" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O460" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q459" t="str">
+      <c r="P460" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P460" t="str">
+    <row r="461" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O461" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q460" t="str">
+      <c r="P461" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P461" t="str">
+    <row r="462" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O462" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q461" t="str">
+      <c r="P462" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P462" t="str">
+    <row r="463" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O463" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q462" t="str">
+      <c r="P463" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P463" t="str">
+    <row r="464" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O464" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q463" t="str">
+      <c r="P464" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P464" t="str">
+    <row r="465" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O465" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q464" t="str">
+      <c r="P465" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P465" t="str">
+    <row r="466" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O466" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q465" t="str">
+      <c r="P466" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P466" t="str">
+    <row r="467" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O467" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q466" t="str">
+      <c r="P467" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P467" t="str">
+    <row r="468" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O468" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q467" t="str">
+      <c r="P468" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P468" t="str">
+    <row r="469" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O469" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q468" t="str">
+      <c r="P469" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P469" t="str">
+    <row r="470" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O470" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q469" t="str">
+      <c r="P470" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P470" t="str">
+    <row r="471" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O471" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q470" t="str">
+      <c r="P471" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P471" t="str">
+    <row r="472" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O472" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q471" t="str">
+      <c r="P472" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P472" t="str">
+    <row r="473" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O473" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q472" t="str">
+      <c r="P473" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P473" t="str">
+    <row r="474" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O474" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q473" t="str">
+      <c r="P474" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P474" t="str">
+    <row r="475" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O475" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q474" t="str">
+      <c r="P475" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P475" t="str">
+    <row r="476" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O476" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q475" t="str">
+      <c r="P476" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P476" t="str">
+    <row r="477" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O477" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q476" t="str">
+      <c r="P477" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P477" t="str">
+    <row r="478" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O478" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q477" t="str">
+      <c r="P478" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P478" t="str">
+    <row r="479" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O479" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q478" t="str">
+      <c r="P479" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P479" t="str">
+    <row r="480" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O480" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q479" t="str">
+      <c r="P480" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P480" t="str">
+    <row r="481" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O481" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q480" t="str">
+      <c r="P481" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P481" t="str">
+    <row r="482" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O482" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q481" t="str">
+      <c r="P482" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="16:17" x14ac:dyDescent="0.2">
-      <c r="P482" t="str">
+    <row r="483" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O483" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="Q482" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="483" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P483" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q483" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:U1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:T1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="K1:K2 H1:H2 A1:E2 D3:E1048576 F1:G1048576 L1:XFD1048576 I1:J1048576" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
+    <dataValidation allowBlank="1" sqref="J1:J2 G1:G2 A1:D2 D3:D1048576 E1:F1048576 K1:XFD1048576 H1:I1048576" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20864,7 +20862,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21241,10 +21239,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21261,7 +21259,7 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>677</v>
       </c>
@@ -21277,9 +21275,8 @@
       <c r="K1" s="85"/>
       <c r="L1" s="85"/>
       <c r="M1" s="85"/>
-      <c r="N1" s="86"/>
-    </row>
-    <row r="2" spans="1:14" s="34" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" s="34" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -21322,10 +21319,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:XFD1048576" xr:uid="{A635500E-EE4D-A744-A092-30D24AA5305C}"/>
+    <dataValidation allowBlank="1" sqref="A1:A1048576 B2:M1048576 N1:XFD1048576" xr:uid="{A635500E-EE4D-A744-A092-30D24AA5305C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21337,7 +21334,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21453,8 +21450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF99B6-A34F-624E-9962-B07C78FC3BD7}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21991,8 +21988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22545,7 +22542,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33119,25 +33116,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="105" t="s">
         <v>728</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="110"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="107"/>
     </row>
     <row r="2" spans="1:17" s="41" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -33318,7 +33315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E11E2-D3E5-4BD8-BB43-57A57B87349F}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
@@ -33345,26 +33342,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="108" t="s">
         <v>712</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="110"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -41675,7 +41672,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41753,7 +41750,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/cd3devrel/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/mycd3/cd3-automation-toolkit/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B509BD-4EE8-F449-ACF8-D28811A5A270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616E6A0-8BAD-7541-A989-BB78E6606840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0226742C-CDBF-EA49-9C8B-C603A542B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1ADEE-DA6D-F442-B956-1F34A17B68F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="1520" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -8409,48 +8409,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v12
-Introduced new service - Network Sources, 
-Enhancements - Added support for multiple Exa VM Clusters, OCVS Standard Shapes, 
-NLB fix, Instance Terraform
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
 If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
 "Create_Is PV Encryption In Transit Enabled" </t>
@@ -8984,6 +8942,44 @@
   </si>
   <si>
     <t>Plugin Vulnerability Scanning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3-OCI Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.1.0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -15065,7 +15061,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -21146,7 +21142,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="97"/>
       <c r="I1" s="84" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
@@ -21207,7 +21203,7 @@
         <v>514</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>72</v>
@@ -28852,16 +28848,16 @@
         <v>490</v>
       </c>
       <c r="K2" s="55" t="s">
+        <v>721</v>
+      </c>
+      <c r="L2" s="55" t="s">
         <v>722</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="M2" s="55" t="s">
         <v>723</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>724</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>725</v>
       </c>
       <c r="O2" s="55" t="s">
         <v>491</v>
@@ -33124,7 +33120,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -33175,10 +33171,10 @@
         <v>695</v>
       </c>
       <c r="K2" s="79" t="s">
+        <v>725</v>
+      </c>
+      <c r="L2" s="80" t="s">
         <v>726</v>
-      </c>
-      <c r="L2" s="80" t="s">
-        <v>727</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>696</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1ADEE-DA6D-F442-B956-1F34A17B68F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB805BCE-622F-2F44-A82C-4F4E426851CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1520" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -8957,7 +8957,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3-OCI Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -8978,7 +8978,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.1.0</t>
+      <t>Release - v2024.2.0</t>
     </r>
   </si>
 </sst>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB805BCE-622F-2F44-A82C-4F4E426851CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9B7FA-9A14-1F43-8658-37ECF92DBFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16040" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -15045,7 +15045,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -15072,10 +15072,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15131,6 +15134,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -15201,10 +15207,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T483"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20143,10 +20152,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20224,10 +20236,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20299,10 +20314,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20404,10 +20422,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection sqref="A1:T1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20527,10 +20548,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66F12FA-08B6-DD41-A702-ABBC64AAAA55}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20858,10 +20882,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FF5E6C-AFB2-B34B-881D-6B69B8DC5062}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20980,10 +21007,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21043,10 +21073,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21099,10 +21132,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21242,10 +21278,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21334,10 +21373,13 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21451,6 +21493,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF99B6-A34F-624E-9962-B07C78FC3BD7}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -21634,10 +21679,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21752,10 +21800,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21882,10 +21933,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21989,10 +22043,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22110,10 +22167,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22167,10 +22227,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7F0FCC-1E37-7145-B88D-B9F0D1AABC09}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22542,10 +22605,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22597,10 +22663,13 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F032E3C-E5A2-3544-A693-CF15A37770BF}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22678,10 +22747,13 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB95AE4A-F9E4-134A-864A-9F24C8E929EA}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22801,10 +22873,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AA993"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection sqref="A1:AA1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25929,10 +26004,13 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:H921"/>
   <sheetViews>
     <sheetView zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28753,10 +28831,13 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AB995"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="78" workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33103,10 +33184,13 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ED903B-F69B-8440-8195-68F92D10C778}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33215,10 +33299,13 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2CEDE1-096D-3A48-B241-B55C70848C6F}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33316,6 +33403,9 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047E11E2-D3E5-4BD8-BB43-57A57B87349F}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -36344,10 +36434,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999B7604-8A91-4603-BC51-D587A22D6DD8}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37734,6 +37827,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6790755E-B3EC-4AF9-B8F2-0E8E6A199B83}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39329,10 +39425,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41672,6 +41771,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41750,6 +41852,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41841,6 +41946,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9B7FA-9A14-1F43-8658-37ECF92DBFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D17F91-55B4-A846-B06D-4423DEB347CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16040" windowHeight="17640" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3696,164 +3696,6 @@
     <t>Node Defined Tags</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Allowed values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter subnet name as :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ocid
-"API Endpoint Pub Address" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"SSH Key Var Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>FLANNEL_OVERLAY</t>
   </si>
   <si>
@@ -7888,8 +7730,552 @@
     <t>RPC Display Name</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+    <t>OCI Networks</t>
+  </si>
+  <si>
+    <t>Public Networks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Name) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Description) is a mandatory field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Public Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"OCI Networks" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">It is an optional field. Format: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify comma separated list of VCN CIDR to be included. For ex:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.0.2.0/18,10.0.3.0/18
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Group  Name) is a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Matching Rule" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                              </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+"Create_Is PV Encryption In Transit Enabled" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">when left empty.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Update_Is PV Encryption In Transit Enabled"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"NSGs"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DedicatedVMHost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enabled or Disabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Enable/Disable 
+other plugins by adding new columns with name as - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
 </t>
     </r>
     <r>
@@ -7898,6 +8284,445 @@
         <i/>
         <u/>
         <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Please add column '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is Live Migration preferred</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
+    </r>
+  </si>
+  <si>
+    <t>DB Node Storage Size in GBS</t>
+  </si>
+  <si>
+    <t>Memory Size in GBS</t>
+  </si>
+  <si>
+    <t>Data Storage Size in TBS</t>
+  </si>
+  <si>
+    <t>DB Servers</t>
+  </si>
+  <si>
+    <t>Management Block Volumes</t>
+  </si>
+  <si>
+    <t>Workload Block Volumes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"SDDC name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Name of the SDDC
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Management Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Name (minimum - 8 TB ~ 8192 GB). Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC comaprtment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Workload Block Volumes" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Existing Block Volume Names separated by ','. Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;,  &lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skip block_compartment if it is same as SDDC compartment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                             Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
+** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plugin Vulnerability Scanning</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.2.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Allowed values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Type" - FLANNEL_OVERLAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> OCI_VCN_IP_NATIVE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter subnet name as :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;vcn-name&gt;_&lt;subnet-name&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ocid
+"API Endpoint Pub Address" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Represents whether public address needs to be assigned to the control plane or not(TRUE|FALSE).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"SSH Key Var Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts SSH Key value or the name name of the key defined under variable  oke_ssh_keys in variables_&lt;region&gt;.tf filecontaining SSH key; Multiple keys should be separated by \n</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Columns with nsgs accept comma seperated list of NSG names or ocids that needs to be part of the particular component, leave it blank if it doesnot need to be part of any NSG. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -7976,7 +8801,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the key defined under variable  instance_ssh_keys in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
 </t>
     </r>
     <r>
@@ -8154,831 +8979,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <t>OCI Networks</t>
-  </si>
-  <si>
-    <t>Public Networks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Name) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Description" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(Description) is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Public Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Specify comma separated list of public CIDRs to be included.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"OCI Networks" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">It is an optional field. Format: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Specify comma separated list of VCN CIDR to be included. For ex:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10.0.2.0/18,10.0.3.0/18
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Group  Name) is a mandatory field.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Matching Rule" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Create_Is PV Encryption In Transit Enabled" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this attribute for setting the parameter while launching a new instance. Specify </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Defaults to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">false </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">when left empty.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Update_Is PV Encryption In Transit Enabled"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Use this attribute for setting the parameter for an existing instance. Leave it empty while launching a new instance.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"NSGs"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"DedicatedVMHost"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin Vulnerability Scanning" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Use this column to enable or disable the 'Vulnerability Scanning' plugin for this instance. Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enabled or Disabled</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Enable/Disable 
-other plugins by adding new columns with name as - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Plugin &lt;Plugin_Name_As_It_Appears_In_Console&gt;" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eg for 'Bastion', column name will be 'Plugin Bastion'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Note </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Please add column '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Is Live Migration preferred</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>' and set the value to True to enable live migration for the instance. It will be enabled if it is compatible.</t>
-    </r>
-  </si>
-  <si>
-    <t>DB Node Storage Size in GBS</t>
-  </si>
-  <si>
-    <t>Memory Size in GBS</t>
-  </si>
-  <si>
-    <t>Data Storage Size in TBS</t>
-  </si>
-  <si>
-    <t>DB Servers</t>
-  </si>
-  <si>
-    <t>Management Block Volumes</t>
-  </si>
-  <si>
-    <t>Workload Block Volumes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"SDDC name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Name of the SDDC
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Management Block Volumes" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Existing Block Volume Name (minimum - 8 TB ~ 8192 GB). Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skip block_compartment if it is same as SDDC comaprtment.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Workload Block Volumes" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Existing Block Volume Names separated by ','. Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt;block_compartment&gt;@&lt;block-volume_name&gt;,  &lt;block_compartment&gt;@&lt;block-volume_name&gt;. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skip block_compartment if it is same as SDDC compartment.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                             Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
-** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
-    </r>
-  </si>
-  <si>
-    <t>Plugin Vulnerability Scanning</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.2.0</t>
     </r>
   </si>
 </sst>
@@ -15061,7 +15061,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -15241,7 +15241,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -15252,7 +15252,7 @@
       <c r="H1" s="85"/>
       <c r="I1" s="86"/>
       <c r="J1" s="91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K1" s="91"/>
       <c r="L1" s="91"/>
@@ -15279,7 +15279,7 @@
         <v>216</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
@@ -20178,7 +20178,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -20260,7 +20260,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -20337,7 +20337,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -20450,7 +20450,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -20572,7 +20572,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -20591,22 +20591,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>665</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>666</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>269</v>
@@ -20907,7 +20907,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -20934,22 +20934,22 @@
         <v>216</v>
       </c>
       <c r="E2" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>672</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>673</v>
       </c>
       <c r="K2" s="26" t="s">
         <v>269</v>
@@ -21028,7 +21028,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -21093,7 +21093,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -21138,7 +21138,7 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21168,7 +21168,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -21178,7 +21178,7 @@
       <c r="G1" s="96"/>
       <c r="H1" s="97"/>
       <c r="I1" s="84" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J1" s="85"/>
       <c r="K1" s="85"/>
@@ -21239,7 +21239,7 @@
         <v>514</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>72</v>
@@ -21257,7 +21257,7 @@
         <v>75</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>269</v>
@@ -21303,7 +21303,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -21329,7 +21329,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>81</v>
@@ -21404,7 +21404,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -21537,7 +21537,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="139" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>558</v>
+        <v>728</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -21553,7 +21553,7 @@
       <c r="M1" s="85"/>
       <c r="N1" s="86"/>
       <c r="O1" s="95" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="P1" s="96"/>
       <c r="Q1" s="96"/>
@@ -21706,7 +21706,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -21827,7 +21827,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -22186,7 +22186,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -22625,7 +22625,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -22771,7 +22771,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -22905,7 +22905,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -26025,7 +26025,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -28871,7 +28871,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -28929,16 +28929,16 @@
         <v>490</v>
       </c>
       <c r="K2" s="55" t="s">
+        <v>719</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>720</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>721</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>722</v>
-      </c>
-      <c r="M2" s="55" t="s">
-        <v>723</v>
-      </c>
-      <c r="N2" s="55" t="s">
-        <v>724</v>
       </c>
       <c r="O2" s="55" t="s">
         <v>491</v>
@@ -33204,7 +33204,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -33231,43 +33231,43 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>688</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="64" t="s">
         <v>689</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="F2" s="27" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="64" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="H2" s="27" t="s">
         <v>692</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>693</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="79" t="s">
+        <v>723</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>724</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>695</v>
       </c>
-      <c r="K2" s="79" t="s">
-        <v>725</v>
-      </c>
-      <c r="L2" s="80" t="s">
-        <v>726</v>
-      </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>696</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>697</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>698</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>72</v>
@@ -33320,7 +33320,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -33341,43 +33341,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C2" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>700</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>701</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>704</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>705</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>710</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>711</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -33390,7 +33390,7 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -33436,7 +33436,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="108" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -33464,49 +33464,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>632</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>644</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="H2" s="26" t="s">
+      <c r="K2" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>635</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>633</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>640</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>639</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>636</v>
       </c>
       <c r="R2" s="26" t="s">
         <v>269</v>
@@ -33718,10 +33718,10 @@
         <v>539</v>
       </c>
       <c r="AM1" s="45" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN1" s="45" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -33729,22 +33729,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2" s="48" t="s">
         <v>28</v>
@@ -33756,13 +33756,13 @@
         <v>43</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L2" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N2" s="48" t="s">
         <v>393</v>
@@ -33783,10 +33783,10 @@
         <v>251</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U2" s="48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="V2" s="48" t="s">
         <v>431</v>
@@ -33837,13 +33837,13 @@
         <v>221</v>
       </c>
       <c r="AL2" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM2" s="47" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -33851,16 +33851,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>20</v>
@@ -33901,7 +33901,7 @@
         <v>434</v>
       </c>
       <c r="T3" s="48" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U3" s="48"/>
       <c r="V3" s="48" t="s">
@@ -33953,13 +33953,13 @@
         <v>222</v>
       </c>
       <c r="AL3" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM3" s="47" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="47" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -33967,16 +33967,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F4" s="48"/>
       <c r="G4" t="s">
@@ -34007,7 +34007,7 @@
         <v>438</v>
       </c>
       <c r="T4" s="48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
@@ -34045,7 +34045,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -34053,14 +34053,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F5" s="48"/>
       <c r="G5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48" t="s">
@@ -34110,14 +34110,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -34159,10 +34159,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" t="s">
@@ -34206,10 +34206,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" t="s">
@@ -34253,10 +34253,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" t="s">
@@ -34300,14 +34300,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
@@ -34347,14 +34347,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
@@ -34395,7 +34395,7 @@
       </c>
       <c r="F12" s="48"/>
       <c r="G12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
@@ -34434,7 +34434,7 @@
       </c>
       <c r="F13" s="48"/>
       <c r="G13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -34473,7 +34473,7 @@
       </c>
       <c r="F14" s="48"/>
       <c r="G14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -34590,7 +34590,7 @@
       </c>
       <c r="F17" s="48"/>
       <c r="G17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
@@ -34629,7 +34629,7 @@
       </c>
       <c r="F18" s="48"/>
       <c r="G18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -34668,7 +34668,7 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
@@ -34707,7 +34707,7 @@
       </c>
       <c r="F20" s="48"/>
       <c r="G20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
@@ -34785,7 +34785,7 @@
       </c>
       <c r="F22" s="48"/>
       <c r="G22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -34824,7 +34824,7 @@
       </c>
       <c r="F23" s="48"/>
       <c r="G23" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
@@ -34863,7 +34863,7 @@
       </c>
       <c r="F24" s="48"/>
       <c r="G24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
@@ -34941,7 +34941,7 @@
       </c>
       <c r="F26" s="48"/>
       <c r="G26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -35058,7 +35058,7 @@
       </c>
       <c r="F29" s="48"/>
       <c r="G29" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
@@ -35136,7 +35136,7 @@
       </c>
       <c r="F31" s="48"/>
       <c r="G31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -35214,7 +35214,7 @@
       </c>
       <c r="F33" s="48"/>
       <c r="G33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
@@ -35253,7 +35253,7 @@
       </c>
       <c r="F34" s="48"/>
       <c r="G34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="F36" s="48"/>
       <c r="G36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
@@ -35409,7 +35409,7 @@
       </c>
       <c r="F38" s="48"/>
       <c r="G38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -35448,7 +35448,7 @@
       </c>
       <c r="F39" s="48"/>
       <c r="G39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H39" s="48"/>
       <c r="I39" s="48"/>
@@ -35917,7 +35917,7 @@
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F12" s="29"/>
       <c r="H12" s="29" t="s">
@@ -35934,7 +35934,7 @@
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F13" s="29"/>
       <c r="H13" s="29" t="s">
@@ -36455,7 +36455,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="34" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -36469,19 +36469,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>269</v>
@@ -37525,7 +37525,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -37533,7 +37533,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -37541,7 +37541,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -37549,7 +37549,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -37846,7 +37846,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -37865,10 +37865,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>269</v>
@@ -39447,7 +39447,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="34" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -41803,7 +41803,7 @@
       <c r="E1" s="85"/>
       <c r="F1" s="86"/>
       <c r="G1" s="87" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1" s="88"/>
       <c r="I1" s="89"/>
@@ -41877,7 +41877,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -41885,7 +41885,7 @@
       <c r="E1" s="85"/>
       <c r="F1" s="86"/>
       <c r="G1" s="84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -41979,7 +41979,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
       <c r="G1" s="90" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
@@ -41998,7 +41998,7 @@
         <v>396</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>397</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-master/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D26860-A1BF-2D4F-8C24-A8428E443286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7A7345-52ED-F54D-9AC0-DC17D66615E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="760" windowWidth="20600" windowHeight="17500" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,13 @@
     <sheet name="SDDCs" sheetId="58" r:id="rId37"/>
     <sheet name="SDDCs-Network" sheetId="59" r:id="rId38"/>
     <sheet name="Buckets" sheetId="54" r:id="rId39"/>
-    <sheet name="drop_down_rule_set" sheetId="44" state="hidden" r:id="rId40"/>
-    <sheet name="Database_Dropdown" sheetId="47" state="hidden" r:id="rId41"/>
-    <sheet name="LB Rule Set Dropdown" sheetId="48" state="hidden" r:id="rId42"/>
-    <sheet name="drop_down_rule_comp" sheetId="49" state="hidden" r:id="rId43"/>
+    <sheet name="KMS" sheetId="62" r:id="rId40"/>
+    <sheet name="drop_down_rule_set" sheetId="44" state="hidden" r:id="rId41"/>
+    <sheet name="Database_Dropdown" sheetId="47" state="hidden" r:id="rId42"/>
+    <sheet name="LB Rule Set Dropdown" sheetId="48" state="hidden" r:id="rId43"/>
+    <sheet name="drop_down_rule_comp" sheetId="49" state="hidden" r:id="rId44"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId44"/>
     <externalReference r:id="rId45"/>
     <externalReference r:id="rId46"/>
     <externalReference r:id="rId47"/>
@@ -69,19 +69,21 @@
     <externalReference r:id="rId52"/>
     <externalReference r:id="rId53"/>
     <externalReference r:id="rId54"/>
+    <externalReference r:id="rId55"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="28">#REF!</definedName>
     <definedName name="Allowed_Methods" localSheetId="28">#REF!</definedName>
     <definedName name="Attribute_Names" localSheetId="28">#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="38">[1]Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="40">Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="41">Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="19">[1]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="18">[1]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="14">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="10">[3]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="42">[4]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="39">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="43">[4]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="40">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="39">[1]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="4">#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="31">[6]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop" localSheetId="30">[6]Database_Dropdown!#REF!</definedName>
@@ -91,14 +93,15 @@
     <definedName name="bm_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="bm_shapes_drop">#REF!</definedName>
     <definedName name="char_set" localSheetId="38">[1]Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="40">Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="41">Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="19">[1]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="18">[1]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="14">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="10">[3]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="42">[4]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="39">[5]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="41">#REF!</definedName>
+    <definedName name="char_set" localSheetId="43">[4]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="40">[5]Database_Dropdown!$I$2:$I$108</definedName>
+    <definedName name="char_set" localSheetId="39">[1]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="42">#REF!</definedName>
     <definedName name="char_set" localSheetId="4">#REF!</definedName>
     <definedName name="char_set" localSheetId="31">[6]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set" localSheetId="30">[6]Database_Dropdown!$H$2:$H$108</definedName>
@@ -111,13 +114,14 @@
     <definedName name="D3D1000" localSheetId="3">'[8]DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!#REF!</definedName>
     <definedName name="db_sersion_drop" localSheetId="38">[1]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="40">Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="41">Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="19">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="18">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="14">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="10">[3]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="42">[4]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="39">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="43">[4]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="40">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="39">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="4">#REF!</definedName>
     <definedName name="db_sersion_drop" localSheetId="31">[6]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="30">[6]Database_Dropdown!$C$2:$C$14</definedName>
@@ -127,13 +131,14 @@
     <definedName name="db_sersion_drop" localSheetId="3">#REF!</definedName>
     <definedName name="db_sersion_drop">#REF!</definedName>
     <definedName name="exa_shapes_drop" localSheetId="38">[1]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="40">Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="41">Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="19">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="18">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="14">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="10">[3]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="42">[4]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="39">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="43">[4]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="40">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="39">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="4">#REF!</definedName>
     <definedName name="exa_shapes_drop" localSheetId="31">[6]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="30">[6]Database_Dropdown!$E$2:$E$11</definedName>
@@ -142,12 +147,12 @@
     <definedName name="exa_shapes_drop" localSheetId="37">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="40">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="41">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="14">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="10">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="42">'[4]Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="39">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="41">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="43">'[4]Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="40">#REF!</definedName>
+    <definedName name="Header_Size" localSheetId="42">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="4">'[8]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="31">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="30">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
@@ -155,13 +160,14 @@
     <definedName name="Header_Size" localSheetId="3">'[8]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">#REF!</definedName>
     <definedName name="license_type_drop" localSheetId="38">[1]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="40">Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="41">Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="19">[1]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="18">[1]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="14">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="10">[3]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="42">[4]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="39">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="43">[4]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="40">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="license_type_drop" localSheetId="39">[1]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="4">#REF!</definedName>
     <definedName name="license_type_drop" localSheetId="31">[6]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop" localSheetId="30">[6]Database_Dropdown!$F$2:$F$3</definedName>
@@ -173,14 +179,15 @@
     <definedName name="Match_Style" localSheetId="29">#REF!</definedName>
     <definedName name="Match_Style" localSheetId="28">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="38">[1]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="40">Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="41">Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="19">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="18">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="14">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="10">[3]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="42">[4]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="39">[5]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="41">#REF!</definedName>
+    <definedName name="nchar_set" localSheetId="43">[4]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="40">[5]Database_Dropdown!$H$2:$H$3</definedName>
+    <definedName name="nchar_set" localSheetId="39">[1]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="42">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="4">#REF!</definedName>
     <definedName name="nchar_set" localSheetId="31">[6]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="30">[6]Database_Dropdown!$G$2:$G$3</definedName>
@@ -189,12 +196,12 @@
     <definedName name="nchar_set" localSheetId="37">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="3">#REF!</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="40">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="41">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="14">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="10">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="42">'[4]Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="39">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="41">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="43">'[4]Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="40">#REF!</definedName>
+    <definedName name="Response_Code" localSheetId="42">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="4">'[8]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="31">'[6]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="30">'[6]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
@@ -202,15 +209,16 @@
     <definedName name="Response_Code" localSheetId="3">'[8]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="38">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="40">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="41">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="33">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="19">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="18">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="14">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="10">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="42">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="43">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="40">#REF!</definedName>
+    <definedName name="Shape_Option" localSheetId="35">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="39">#REF!</definedName>
-    <definedName name="Shape_Option" localSheetId="35">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="4">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="31">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="30">#REF!</definedName>
@@ -221,13 +229,14 @@
     <definedName name="Shape_Option">#REF!</definedName>
     <definedName name="Shape_Option_DB">[11]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="38">[1]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="40">Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="41">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="19">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="18">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="14">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="10">[3]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="42">[4]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="39">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="43">[4]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="40">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="39">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="4">#REF!</definedName>
     <definedName name="software_drop" localSheetId="31">[6]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="30">[6]Database_Dropdown!$B$2:$B$5</definedName>
@@ -236,18 +245,19 @@
     <definedName name="software_drop" localSheetId="37">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="3">#REF!</definedName>
     <definedName name="software_drop">#REF!</definedName>
-    <definedName name="VM_Shapes" localSheetId="40">Database_Dropdown!$A$2:$A$12</definedName>
+    <definedName name="VM_Shapes" localSheetId="41">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="14">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$390:$AB$400</definedName>
     <definedName name="VM_shapes_drop" localSheetId="38">[1]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="40">Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="41">Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="19">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="18">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="14">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="10">[3]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="42">[4]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="39">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="43">[4]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="40">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="39">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="4">#REF!</definedName>
     <definedName name="VM_shapes_drop" localSheetId="31">[6]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[6]Database_Dropdown!$A$2:$A$7</definedName>
@@ -257,13 +267,14 @@
     <definedName name="VM_shapes_drop" localSheetId="3">#REF!</definedName>
     <definedName name="VM_shapes_drop">#REF!</definedName>
     <definedName name="workload_drop" localSheetId="38">[1]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="40">Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="41">Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="19">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="18">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="14">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="10">[3]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="42">[4]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="39">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="43">[4]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="40">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="39">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="4">#REF!</definedName>
     <definedName name="workload_drop" localSheetId="31">[6]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="30">[6]Database_Dropdown!$D$2:$D$3</definedName>
@@ -376,7 +387,7 @@
     <author>Suruchi</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F0D32B47-E310-7246-8369-2EDE96F2D473}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{DFA3381A-B6E3-8642-9D9B-F59DB2F382DA}">
       <text>
         <r>
           <rPr>
@@ -386,52 +397,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Enter OCID of the source snapshot to create clone FSS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>or leave empty to create empty FSS</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{0B1EC56D-B6AF-D24E-B30D-FBAFC2FE71EC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter OCID of the snapshot policy to be attached to the FSS.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
         </r>
       </text>
     </comment>
@@ -746,7 +712,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="757">
   <si>
     <t>Region</t>
   </si>
@@ -1003,40 +969,7 @@
     <t>paravirtualized</t>
   </si>
   <si>
-    <t>MountTarget Name</t>
-  </si>
-  <si>
-    <t>MountTarget SubnetName</t>
-  </si>
-  <si>
-    <t>MountTarget IP</t>
-  </si>
-  <si>
-    <t>MountTarget Hostname</t>
-  </si>
-  <si>
-    <t>FSS Name</t>
-  </si>
-  <si>
     <t>Path</t>
-  </si>
-  <si>
-    <t>Source CIDR</t>
-  </si>
-  <si>
-    <t>Access (READ_ONLY|READ_WRITE)</t>
-  </si>
-  <si>
-    <t>GID</t>
-  </si>
-  <si>
-    <t>UID</t>
-  </si>
-  <si>
-    <t>IDSquash (NONE|ALL|ROOT)</t>
-  </si>
-  <si>
-    <t>Require PS Port (true|false)</t>
   </si>
   <si>
     <t>READ_WRITE</t>
@@ -2152,45 +2085,6 @@
   </si>
   <si>
     <t>Source Details</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note:</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_ONLY, GID- 65534, UID- 65534, IDSquash- NONE and Require PS Port- false.
-Mount target IP will take default values from OCI if left blank.
-Resources will be created based on 'MountTarget Name' and 'FSS Name' columns.
-Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4).</t>
-    </r>
   </si>
   <si>
     <t>Exadata.Half3.200</t>
@@ -8733,55 +8627,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.3.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- VCNs, OKE, OCVS, Block Volumes, FSS, Quota Policies, Budgets, Key/Vaults</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Region" -</t>
     </r>
@@ -9348,6 +9193,884 @@
     </r>
   </si>
   <si>
+    <t>Autotune Type</t>
+  </si>
+  <si>
+    <t>Max VPUS Per GB</t>
+  </si>
+  <si>
+    <t>Block Volume Replica (Region::AD::Name)</t>
+  </si>
+  <si>
+    <t>Cross Region Replication</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP|DNS)</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"SDDC name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SDDC Name should match exactly the same as in SDDCs sheet.  For each SDDC Cluster in SDDCs sheet, there should be one row in this sheet defining the network for SDDC. 
+&lt;SDDC Name&gt;::&lt;Cluster Name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ VCNs, OKE, OCVS, Block Volumes, FSS, Quota Policies, Budgets, KMS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Display Name(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Type(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid values are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Replica Region(optional)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid only for vault type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Can't be same as the primary vault region.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a key/keys have to be created, enter below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Key Compartment Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Key Display Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Protection Mode" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"HSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SOFTWARE".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Length in bits" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 192, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"RSA" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2048, 3072, 4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECDSA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256, 384, 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below are the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameters:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Curve Id" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Can only be specified for ECDSA keys. Supported values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"NIST_P256", "NIST_P384", "NIST_P521" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">depending on the length provided for ecdsa key.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Auto Rotation" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Only supported for vault type:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "virtual_private"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to enable auto rotation, else leave empty</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Rotation Interval in days" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Only valid for virtual private vaults with Auto rotation enabled. Value should be between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60-365.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Vault/Key Defined Tags" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                             </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Example: Operations.CostCenter=01;Users.Name=user01" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+T</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o create multiple keys in the same vault, specify the key details as shown in below sample data.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vault Compartment Name</t>
+  </si>
+  <si>
+    <t>Vault Display Name</t>
+  </si>
+  <si>
+    <t>Vault type</t>
+  </si>
+  <si>
+    <t>Replica Region</t>
+  </si>
+  <si>
+    <t>Vault Defined Tags</t>
+  </si>
+  <si>
+    <t>Key Compartment Name</t>
+  </si>
+  <si>
+    <t>Key Display Name</t>
+  </si>
+  <si>
+    <t>Protection mode</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Length in bits</t>
+  </si>
+  <si>
+    <t>Curve Id</t>
+  </si>
+  <si>
+    <t>Auto rotation</t>
+  </si>
+  <si>
+    <t>Rotation interval in days</t>
+  </si>
+  <si>
+    <t>Key Defined Tags</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 "Attached To Instance"  - </t>
@@ -9404,7 +10127,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Leave it empty for new volume or enter OCID of volume|volume backup|volume replica as source for new volume.</t>
+      <t xml:space="preserve">Leave it empty for new volume or Specify if the block volume is to be created from volume or volumeBackup or blockVolumeReplica.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>volume::&lt;variable containing volume ocid under blockvolume_source_ocids&gt; (or)  volumeBackup::&lt;variable containing volume backup ocid under blockvolume_source_ocids&gt;  (or)  blockVolumeReplica::&lt;variable containing volume replica  ocid under blockvolume_source_ocid&gt;</t>
     </r>
     <r>
       <rPr>
@@ -9592,211 +10325,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>Autotune Type</t>
-  </si>
-  <si>
-    <t>Max VPUS Per GB</t>
-  </si>
-  <si>
-    <t>Block Volume Replica (Region::AD::Name)</t>
-  </si>
-  <si>
-    <t>Cross Region Replication</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
-Freeform and Defined Tags - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Enter subnet name as : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vcn-name&gt;_&lt;subnet-name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Replication Information: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Format - TargetFSSOCID::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Source Snapshot</t>
-  </si>
-  <si>
-    <t>Snapshot Policy</t>
-  </si>
-  <si>
-    <t>Replication Information</t>
-  </si>
-  <si>
-    <t>Is Anonymous Access Allowed</t>
-  </si>
-  <si>
-    <t>Allowed Auth</t>
-  </si>
-  <si>
-    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP|DNS)</t>
-  </si>
-  <si>
-    <t>Domain Name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"SDDC name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SDDC Name should match exactly the same as in SDDCs sheet.  For each SDDC Cluster in SDDCs sheet, there should be one row in this sheet defining the network for SDDC. 
-&lt;SDDC Name&gt;::&lt;Cluster Name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
 </sst>
@@ -9804,7 +10332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9948,15 +10476,6 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10401,11 +10920,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10503,8 +11022,8 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10513,16 +11032,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10531,7 +11050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10572,7 +11091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10592,7 +11111,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10601,8 +11120,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="38" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="38" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -10647,15 +11205,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -10665,47 +11214,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="39" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="39" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15916,7 +16440,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -15951,22 +16475,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>744</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
+      <c r="A1" s="100" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="100" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="102"/>
     </row>
     <row r="2" spans="1:12" s="34" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -15979,7 +16503,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -16003,7 +16527,7 @@
         <v>18</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -16045,19 +16569,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>528</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="89" t="s">
-        <v>706</v>
-      </c>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
+      <c r="A1" s="97" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="106" t="s">
+        <v>694</v>
+      </c>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -16067,25 +16591,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -16120,10 +16644,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="34" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="B1" s="88"/>
+      <c r="A1" s="97" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="105"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -16135,19 +16659,19 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B5" s="29"/>
     </row>
@@ -16187,16 +16711,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" s="34" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -16221,7 +16745,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -16271,30 +16795,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>649</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="90" t="s">
-        <v>650</v>
-      </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="A1" s="100" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:20" s="34" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -16307,10 +16831,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>11</v>
@@ -16355,7 +16879,7 @@
         <v>18</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -21208,18 +21732,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -21229,28 +21753,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>46</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="K2" s="41"/>
     </row>
@@ -21290,17 +21814,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>653</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -21328,7 +21852,7 @@
         <v>47</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -21367,25 +21891,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -21437,7 +21961,7 @@
         <v>47</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -21480,28 +22004,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -21559,10 +22083,10 @@
         <v>47</v>
       </c>
       <c r="S2" s="40" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="T2" s="40" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -21602,17 +22126,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>656</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="A1" s="97" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -21622,25 +22146,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -21932,13 +22456,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -21954,7 +22478,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -21996,19 +22520,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>663</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="A1" s="109" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -22021,28 +22545,28 @@
         <v>10</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="74" customFormat="1" x14ac:dyDescent="0.2">
@@ -22117,15 +22641,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" s="34" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -22135,7 +22659,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>66</v>
@@ -22147,7 +22671,7 @@
         <v>68</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -22198,33 +22722,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="83" t="s">
-        <v>712</v>
-      </c>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="85"/>
+      <c r="A1" s="111" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="100" t="s">
+        <v>700</v>
+      </c>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="102"/>
     </row>
     <row r="2" spans="1:23" s="34" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -22237,7 +22761,7 @@
         <v>66</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>68</v>
@@ -22252,25 +22776,25 @@
         <v>71</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>67</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="P2" s="26" t="s">
         <v>72</v>
@@ -22279,7 +22803,7 @@
         <v>73</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="S2" s="26" t="s">
         <v>74</v>
@@ -22288,10 +22812,10 @@
         <v>75</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -22332,27 +22856,27 @@
     <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="184" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="85"/>
+    <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
     </row>
     <row r="2" spans="1:18" s="34" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -22365,7 +22889,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>81</v>
@@ -22380,34 +22904,34 @@
         <v>83</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>73</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -22415,7 +22939,7 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" sqref="A3:XFD1048576 O1:XFD2 A1:J2 L1:M2 N1" xr:uid="{A635500E-EE4D-A744-A092-30D24AA5305C}"/>
+    <dataValidation allowBlank="1" sqref="A3:XFD1048576 L1:M2 O2:XFD2 A1:J2 N1:XFD1" xr:uid="{A635500E-EE4D-A744-A092-30D24AA5305C}"/>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{4D44F0E6-8DA8-6643-94F3-60D6E9B7E273}"/>
     <dataValidation type="list" sqref="K1:K2" xr:uid="{134129DE-CDBC-BC4A-9391-BD75D6E000B4}">
       <formula1>"BOTH,PERFORMANCE_BASED,DETACHED_VOLUME"</formula1>
@@ -22432,10 +22956,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22458,110 +22982,94 @@
     <col min="17" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="99"/>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="100" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="102"/>
+    </row>
+    <row r="2" spans="1:18" s="34" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" s="27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>89</v>
+        <v>504</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>751</v>
+        <v>263</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>90</v>
+        <v>734</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>91</v>
+        <v>735</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>754</v>
-      </c>
-      <c r="U2" s="27" t="s">
-        <v>755</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:V1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" sqref="A3:XFD1048576 B2:L2 A1:A2 M1:S2 U1:XFD2" xr:uid="{02462EBB-6C3D-AD4C-90E1-0F01761ACD92}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T1:T2" xr:uid="{B87E6E22-C5FB-0747-A06C-F7AA46E8316A}"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" sqref="A3:XFD1048576 A1:J2 L1:M2 O1:XFD2 N1" xr:uid="{02462EBB-6C3D-AD4C-90E1-0F01761ACD92}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{44F44AA6-F9A2-F043-9A7C-E9C593C12245}"/>
+    <dataValidation type="list" sqref="K1:K2" xr:uid="{296BAB61-C7D2-7746-8608-28C808FD0978}">
+      <formula1>"BOTH,PERFORMANCE_BASED,DETACHED_VOLUME"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22619,45 +23127,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>720</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="94" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
+      <c r="A1" s="100" t="s">
+        <v>708</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -22667,103 +23175,103 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>67</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="W2" s="27" t="s">
         <v>66</v>
       </c>
       <c r="X2" s="27" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="Y2" s="27" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="Z2" s="27" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AA2" s="27" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="AB2" s="27" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="AC2" s="27" t="s">
         <v>72</v>
       </c>
       <c r="AD2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="AF2" s="27" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="AG2" s="27" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="AH2" s="27" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="AI2" s="27" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -22809,27 +23317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>675</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>663</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -22839,55 +23347,55 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -22930,30 +23438,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>676</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="100" t="s">
+        <v>664</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="102"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -22963,64 +23471,64 @@
         <v>6</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>110</v>
-      </c>
       <c r="G2" s="30" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -23060,77 +23568,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="27" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -23174,84 +23682,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="101"/>
+      <c r="A1" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="O2" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>22</v>
@@ -23290,13 +23798,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>699</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -23309,10 +23817,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -23347,33 +23855,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>677</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88"/>
+      <c r="A1" s="97" t="s">
+        <v>665</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="E2" s="17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -23414,21 +23922,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
+      <c r="A1" s="111" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -23438,40 +23946,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>74</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>71</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
@@ -23793,19 +24301,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="A1" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -23815,34 +24323,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -23882,24 +24390,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>678</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="A1" s="100" t="s">
+        <v>666</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -23909,46 +24417,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H2" s="68" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="L2" s="43" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="M2" s="42" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O2" s="42" t="s">
         <v>74</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -24016,35 +24524,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>679</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="85"/>
+      <c r="A1" s="100" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="102"/>
     </row>
     <row r="2" spans="1:27" s="41" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
@@ -24060,73 +24568,73 @@
         <v>29</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I2" s="42" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L2" s="42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M2" s="43" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="N2" s="42" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="Q2" s="42" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="R2" s="42" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="S2" s="42" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="T2" s="42" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="U2" s="42" t="s">
         <v>72</v>
       </c>
       <c r="V2" s="42" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="W2" s="42" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="X2" s="42" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="Y2" s="42" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="Z2" s="42" t="s">
         <v>74</v>
       </c>
       <c r="AA2" s="42" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -27136,16 +27644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
+      <c r="A1" s="100" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
@@ -27155,7 +27663,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>66</v>
@@ -27164,13 +27672,13 @@
         <v>67</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -29982,29 +30490,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>681</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
-      <c r="U1" s="102"/>
+      <c r="A1" s="109" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
       <c r="V1" s="61"/>
       <c r="W1" s="61"/>
       <c r="X1" s="61"/>
@@ -30017,61 +30525,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G2" s="55" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I2" s="55" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="J2" s="55" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="K2" s="55" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="L2" s="55" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="M2" s="55" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="N2" s="55" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="O2" s="55" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="P2" s="55" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="Q2" s="55" t="s">
         <v>72</v>
       </c>
       <c r="R2" s="55" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="S2" s="63" t="s">
         <v>74</v>
       </c>
       <c r="T2" s="63" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="U2" s="62" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="V2"/>
       <c r="W2"/>
@@ -34315,26 +34823,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
-        <v>729</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
+      <c r="A1" s="117" t="s">
+        <v>717</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" spans="1:18" s="41" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
@@ -34344,52 +34852,52 @@
         <v>6</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="L2" s="79" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="M2" s="79" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="Q2" s="27" t="s">
         <v>72</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -34448,65 +34956,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
-        <v>758</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
+      <c r="A1" s="111" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
     </row>
     <row r="2" spans="1:15" s="34" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>693</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>694</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="O2" s="41"/>
     </row>
@@ -34519,7 +35027,7 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -34564,26 +35072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
-        <v>705</v>
-      </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="108"/>
+      <c r="A1" s="120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -34593,52 +35101,52 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>628</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>639</v>
-      </c>
       <c r="J2" s="26" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="P2" s="27" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -34706,37 +35214,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="34" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="A1" s="97" t="s">
+        <v>633</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="99"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -35420,6 +35928,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFDE539-E357-DC43-85F1-56944F49BA3A}">
+  <sheetPr>
+    <tabColor rgb="FF009193"/>
+  </sheetPr>
+  <dimension ref="A1:O65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="97" t="s">
+        <v>740</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="107" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+    </row>
+    <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" s="94" t="s">
+        <v>751</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>754</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="96"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="96"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="96"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:O1"/>
+  </mergeCells>
+  <dataValidations count="5">
+    <dataValidation type="list" sqref="I3:I1048576" xr:uid="{D0BA8F91-9738-AF46-992D-051C2BF37ADB}">
+      <formula1>"AES,RSA,ECDSA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="K3:K1048576" xr:uid="{33F1DA78-B244-F149-BC6A-6B32092416EC}">
+      <formula1>"NIST_P256,NIST_P384,NIST_P521"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="H3:H1048576" xr:uid="{FDF379D8-EF4D-D14B-B2C0-DAAF68E0928C}">
+      <formula1>"HSM,SOFTWARE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" sqref="D3:D1048576" xr:uid="{67F04A16-70B0-2E44-A905-6CC88BBDCD5C}">
+      <formula1>"default,virtual_private"</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A1:A2 H2:I2 K2 J2:J1048576 B2 C2:C1048576 D2:F2 L2:XFD1048576 P1:XFD1 G2:G1048576 H1" xr:uid="{43FE3EC3-D7B0-D549-840B-6C117E9E2D84}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1F6A15-066C-494D-992B-F6A4A794D67F}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
@@ -35468,124 +37168,124 @@
   <sheetData>
     <row r="1" spans="1:40" s="46" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="E1" s="54" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>402</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>449</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q1" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="R1" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="S1" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="T1" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="U1" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="V1" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="W1" s="45" t="s">
         <v>411</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="X1" s="45" t="s">
         <v>412</v>
       </c>
-      <c r="K1" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="L1" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="M1" s="54" t="s">
-        <v>461</v>
-      </c>
-      <c r="N1" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>416</v>
-      </c>
-      <c r="P1" s="54" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q1" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="R1" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="S1" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="T1" s="54" t="s">
-        <v>463</v>
-      </c>
-      <c r="U1" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="V1" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="W1" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="X1" s="45" t="s">
-        <v>424</v>
-      </c>
       <c r="Y1" s="54" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Z1" s="45" t="s">
         <v>67</v>
       </c>
       <c r="AA1" s="45" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="AB1" s="45" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AC1" s="45" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AD1" s="45" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AE1" s="45" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AF1" s="45" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AG1" s="45" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AH1" s="45" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AI1" s="45" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AJ1" s="45" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AK1" s="45" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="AL1" s="45" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AM1" s="45" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="AN1" s="45" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -35593,22 +37293,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C2" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>594</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>606</v>
       </c>
       <c r="F2" s="48" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="H2" s="48" t="s">
         <v>28</v>
@@ -35620,73 +37320,73 @@
         <v>43</v>
       </c>
       <c r="K2" s="48" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="L2" s="48" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="48" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="N2" s="48" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="O2" s="48" t="s">
         <v>63</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q2" s="48" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="R2" s="48" t="s">
         <v>42</v>
       </c>
       <c r="S2" s="48" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="T2" s="48" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="U2" s="48" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="V2" s="48" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="W2" s="48" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="X2" s="48" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="Y2" s="48" t="b">
         <v>1</v>
       </c>
       <c r="Z2" s="48" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="AA2" s="48" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="AB2" s="48" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AC2" s="48" t="s">
         <v>20</v>
       </c>
       <c r="AD2" s="48" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AE2" s="48" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AF2" s="50" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AG2" s="48" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AH2" s="48">
         <v>301</v>
@@ -35695,19 +37395,19 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="48" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="47" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="47" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="AM2" s="47" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="47" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -35715,22 +37415,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>595</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>607</v>
       </c>
       <c r="F3" s="48" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="H3" s="48" t="s">
         <v>27</v>
@@ -35739,7 +37439,7 @@
         <v>42</v>
       </c>
       <c r="J3" s="48" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="48" t="s">
@@ -35747,10 +37447,10 @@
       </c>
       <c r="M3" s="48"/>
       <c r="N3" s="48" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>64</v>
@@ -35762,47 +37462,47 @@
         <v>69</v>
       </c>
       <c r="S3" s="48" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="T3" s="48" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="U3" s="48"/>
       <c r="V3" s="48" t="s">
         <v>84</v>
       </c>
       <c r="W3" s="48" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="X3" s="48" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Y3" s="48" t="b">
         <v>0</v>
       </c>
       <c r="Z3" s="48" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AA3" s="48" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="48" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AC3" s="48" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="48" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AE3" s="48" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AF3" s="50" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AG3" s="48" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AH3" s="48">
         <v>302</v>
@@ -35811,19 +37511,19 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="48" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AK3" s="47" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="AL3" s="47" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="AM3" s="47" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="47" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -35831,20 +37531,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>596</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>599</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>608</v>
       </c>
       <c r="F4" s="48"/>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H4" s="48"/>
       <c r="I4" s="48" t="s">
@@ -35853,7 +37553,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
@@ -35868,39 +37568,39 @@
         <v>76</v>
       </c>
       <c r="S4" s="48" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="T4" s="48" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="U4" s="48"/>
       <c r="V4" s="48"/>
       <c r="W4" s="48"/>
       <c r="X4" s="48" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="Y4" s="48"/>
       <c r="Z4" s="48" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="AA4" s="48" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="AB4" s="48"/>
       <c r="AC4" s="48" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="48" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AE4" s="48" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AF4" s="50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AH4" s="48">
         <v>303</v>
@@ -35909,7 +37609,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="47" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -35917,14 +37617,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F5" s="48"/>
       <c r="G5" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="H5" s="48"/>
       <c r="I5" s="48" t="s">
@@ -35936,7 +37636,7 @@
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
       <c r="O5" s="48" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="P5" s="49"/>
       <c r="Q5" s="48"/>
@@ -35947,19 +37647,19 @@
       <c r="X5" s="48"/>
       <c r="Y5" s="48"/>
       <c r="Z5" s="48" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="AA5" s="48"/>
       <c r="AB5" s="48"/>
       <c r="AC5" s="48"/>
       <c r="AD5" s="48" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AE5" s="48" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AF5" s="50" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AG5" s="48"/>
       <c r="AH5" s="48">
@@ -35974,14 +37674,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F6" s="48"/>
       <c r="G6" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
@@ -36006,10 +37706,10 @@
       <c r="AB6" s="48"/>
       <c r="AC6" s="48"/>
       <c r="AD6" s="48" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AE6" s="48" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AF6" s="51"/>
       <c r="AG6" s="48"/>
@@ -36023,14 +37723,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
@@ -36055,10 +37755,10 @@
       <c r="AB7" s="48"/>
       <c r="AC7" s="48"/>
       <c r="AD7" s="48" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AE7" s="48" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AF7" s="51"/>
       <c r="AG7" s="48"/>
@@ -36070,14 +37770,14 @@
         <v>9</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="F8" s="48"/>
       <c r="G8" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
@@ -36102,10 +37802,10 @@
       <c r="AB8" s="48"/>
       <c r="AC8" s="48"/>
       <c r="AD8" s="48" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AE8" s="48" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AF8" s="51"/>
       <c r="AG8" s="48"/>
@@ -36117,14 +37817,14 @@
         <v>10</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F9" s="48"/>
       <c r="G9" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
@@ -36149,10 +37849,10 @@
       <c r="AB9" s="48"/>
       <c r="AC9" s="48"/>
       <c r="AD9" s="48" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AE9" s="48" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AF9" s="51"/>
       <c r="AG9" s="48"/>
@@ -36164,14 +37864,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F10" s="48"/>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
@@ -36196,10 +37896,10 @@
       <c r="AB10" s="48"/>
       <c r="AC10" s="48"/>
       <c r="AD10" s="48" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="48" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="AF10" s="51"/>
       <c r="AG10" s="48"/>
@@ -36211,14 +37911,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
@@ -36243,10 +37943,10 @@
       <c r="AB11" s="48"/>
       <c r="AC11" s="48"/>
       <c r="AD11" s="48" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="AE11" s="48" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AF11" s="51"/>
       <c r="AG11" s="48"/>
@@ -36259,7 +37959,7 @@
       </c>
       <c r="F12" s="48"/>
       <c r="G12" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
@@ -36285,7 +37985,7 @@
       <c r="AC12" s="48"/>
       <c r="AD12" s="48"/>
       <c r="AE12" s="48" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AF12" s="51"/>
       <c r="AG12" s="48"/>
@@ -36298,7 +37998,7 @@
       </c>
       <c r="F13" s="48"/>
       <c r="G13" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
@@ -36324,7 +38024,7 @@
       <c r="AC13" s="48"/>
       <c r="AD13" s="48"/>
       <c r="AE13" s="48" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AF13" s="51"/>
       <c r="AG13" s="48"/>
@@ -36337,7 +38037,7 @@
       </c>
       <c r="F14" s="48"/>
       <c r="G14" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -36363,7 +38063,7 @@
       <c r="AC14" s="48"/>
       <c r="AD14" s="48"/>
       <c r="AE14" s="48" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AF14" s="51"/>
       <c r="AG14" s="48"/>
@@ -36376,7 +38076,7 @@
       </c>
       <c r="F15" s="48"/>
       <c r="G15" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
@@ -36402,7 +38102,7 @@
       <c r="AC15" s="48"/>
       <c r="AD15" s="48"/>
       <c r="AE15" s="48" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AF15" s="51"/>
       <c r="AG15" s="48"/>
@@ -36415,7 +38115,7 @@
       </c>
       <c r="F16" s="48"/>
       <c r="G16" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
@@ -36441,7 +38141,7 @@
       <c r="AC16" s="48"/>
       <c r="AD16" s="48"/>
       <c r="AE16" s="48" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AF16" s="51"/>
       <c r="AG16" s="48"/>
@@ -36454,7 +38154,7 @@
       </c>
       <c r="F17" s="48"/>
       <c r="G17" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
@@ -36480,7 +38180,7 @@
       <c r="AC17" s="48"/>
       <c r="AD17" s="48"/>
       <c r="AE17" s="48" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="AF17" s="51"/>
       <c r="AG17" s="48"/>
@@ -36493,7 +38193,7 @@
       </c>
       <c r="F18" s="48"/>
       <c r="G18" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
@@ -36519,7 +38219,7 @@
       <c r="AC18" s="48"/>
       <c r="AD18" s="48"/>
       <c r="AE18" s="48" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AF18" s="51"/>
       <c r="AG18" s="48"/>
@@ -36532,7 +38232,7 @@
       </c>
       <c r="F19" s="48"/>
       <c r="G19" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
@@ -36558,7 +38258,7 @@
       <c r="AC19" s="48"/>
       <c r="AD19" s="48"/>
       <c r="AE19" s="48" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AF19" s="51"/>
       <c r="AG19" s="48"/>
@@ -36571,7 +38271,7 @@
       </c>
       <c r="F20" s="48"/>
       <c r="G20" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
@@ -36597,7 +38297,7 @@
       <c r="AC20" s="48"/>
       <c r="AD20" s="48"/>
       <c r="AE20" s="48" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AF20" s="51"/>
       <c r="AG20" s="48"/>
@@ -36610,7 +38310,7 @@
       </c>
       <c r="F21" s="48"/>
       <c r="G21" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
@@ -36636,7 +38336,7 @@
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
       <c r="AE21" s="48" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AF21" s="51"/>
       <c r="AG21" s="48"/>
@@ -36649,7 +38349,7 @@
       </c>
       <c r="F22" s="48"/>
       <c r="G22" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
@@ -36675,7 +38375,7 @@
       <c r="AC22" s="48"/>
       <c r="AD22" s="48"/>
       <c r="AE22" s="48" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="AF22" s="51"/>
       <c r="AG22" s="48"/>
@@ -36688,7 +38388,7 @@
       </c>
       <c r="F23" s="48"/>
       <c r="G23" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
@@ -36714,7 +38414,7 @@
       <c r="AC23" s="48"/>
       <c r="AD23" s="48"/>
       <c r="AE23" s="48" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="AF23" s="51"/>
       <c r="AG23" s="48"/>
@@ -36727,7 +38427,7 @@
       </c>
       <c r="F24" s="48"/>
       <c r="G24" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
@@ -36753,7 +38453,7 @@
       <c r="AC24" s="48"/>
       <c r="AD24" s="48"/>
       <c r="AE24" s="48" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AF24" s="51"/>
       <c r="AG24" s="48"/>
@@ -36766,7 +38466,7 @@
       </c>
       <c r="F25" s="48"/>
       <c r="G25" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
@@ -36792,7 +38492,7 @@
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
       <c r="AE25" s="48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AF25" s="51"/>
       <c r="AG25" s="48"/>
@@ -36805,7 +38505,7 @@
       </c>
       <c r="F26" s="48"/>
       <c r="G26" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -36831,7 +38531,7 @@
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
       <c r="AE26" s="48" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="AF26" s="51"/>
       <c r="AG26" s="48"/>
@@ -36844,7 +38544,7 @@
       </c>
       <c r="F27" s="48"/>
       <c r="G27" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
@@ -36870,7 +38570,7 @@
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
       <c r="AE27" s="48" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF27" s="51"/>
       <c r="AG27" s="48"/>
@@ -36883,7 +38583,7 @@
       </c>
       <c r="F28" s="48"/>
       <c r="G28" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -36909,7 +38609,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AE28" s="48" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AF28" s="51"/>
       <c r="AG28" s="48"/>
@@ -36922,7 +38622,7 @@
       </c>
       <c r="F29" s="48"/>
       <c r="G29" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
@@ -36948,7 +38648,7 @@
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
       <c r="AE29" s="48" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AF29" s="51"/>
       <c r="AG29" s="48"/>
@@ -36961,7 +38661,7 @@
       </c>
       <c r="F30" s="48"/>
       <c r="G30" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
@@ -36987,7 +38687,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AE30" s="48" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="AF30" s="51"/>
       <c r="AG30" s="48"/>
@@ -37000,7 +38700,7 @@
       </c>
       <c r="F31" s="48"/>
       <c r="G31" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
@@ -37026,7 +38726,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AE31" s="48" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="AF31" s="51"/>
       <c r="AG31" s="48"/>
@@ -37065,7 +38765,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AE32" s="48" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AF32" s="51"/>
       <c r="AG32" s="48"/>
@@ -37078,7 +38778,7 @@
       </c>
       <c r="F33" s="48"/>
       <c r="G33" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
@@ -37104,7 +38804,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AE33" s="48" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AF33" s="51"/>
       <c r="AG33" s="48"/>
@@ -37117,7 +38817,7 @@
       </c>
       <c r="F34" s="48"/>
       <c r="G34" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
@@ -37143,7 +38843,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AE34" s="48" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="AF34" s="51"/>
       <c r="AG34" s="48"/>
@@ -37156,7 +38856,7 @@
       </c>
       <c r="F35" s="48"/>
       <c r="G35" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
@@ -37182,7 +38882,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AE35" s="48" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AF35" s="51"/>
       <c r="AG35" s="48"/>
@@ -37195,7 +38895,7 @@
       </c>
       <c r="F36" s="48"/>
       <c r="G36" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
@@ -37221,7 +38921,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AE36" s="48" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF36" s="51"/>
       <c r="AG36" s="48"/>
@@ -37234,7 +38934,7 @@
       </c>
       <c r="F37" s="48"/>
       <c r="G37" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
@@ -37260,7 +38960,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AE37" s="48" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AF37" s="51"/>
       <c r="AG37" s="48"/>
@@ -37273,7 +38973,7 @@
       </c>
       <c r="F38" s="48"/>
       <c r="G38" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -37299,7 +38999,7 @@
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
       <c r="AE38" s="48" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AF38" s="51"/>
       <c r="AG38" s="48"/>
@@ -37312,7 +39012,7 @@
       </c>
       <c r="F39" s="48"/>
       <c r="G39" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H39" s="48"/>
       <c r="I39" s="48"/>
@@ -37338,7 +39038,7 @@
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
       <c r="AE39" s="48" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="AF39" s="51"/>
       <c r="AG39" s="48"/>
@@ -37351,7 +39051,7 @@
       </c>
       <c r="F40" s="48"/>
       <c r="G40" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="H40" s="48"/>
       <c r="I40" s="48"/>
@@ -37376,7 +39076,7 @@
       <c r="AC40" s="48"/>
       <c r="AD40" s="48"/>
       <c r="AE40" s="48" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AF40" s="51"/>
       <c r="AG40" s="48"/>
@@ -37388,7 +39088,7 @@
         <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="K41" s="48"/>
       <c r="M41" s="48"/>
@@ -37401,7 +39101,7 @@
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="K42" s="48"/>
       <c r="M42" s="48"/>
@@ -37413,7 +39113,7 @@
         <v>44</v>
       </c>
       <c r="G43" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="K43" s="48"/>
       <c r="M43" s="48"/>
@@ -37425,7 +39125,7 @@
         <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K44" s="48"/>
       <c r="M44" s="48"/>
@@ -37486,7 +39186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA888738-FD14-FB42-ABBC-C0E1A08096C4}">
   <dimension ref="A1:M108"/>
   <sheetViews>
@@ -37512,40 +39212,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="J1" s="57" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="K1" s="39" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M1" s="38"/>
     </row>
@@ -37554,740 +39254,740 @@
         <v>78</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I2" s="28">
         <v>80</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="K2" s="29">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G3" s="44" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I3" s="28">
         <v>40</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="K3" s="29">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D4" s="29"/>
       <c r="E4" s="29" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="F4" s="29"/>
       <c r="H4" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="L4" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F5" s="29"/>
       <c r="H5" s="29" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="L5" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D6" s="29"/>
       <c r="E6" s="29" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="F6" s="29"/>
       <c r="H6" s="29" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F7" s="29"/>
       <c r="H7" s="29" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="29" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F8" s="29"/>
       <c r="H8" s="29" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F9" s="29"/>
       <c r="H9" s="29" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="56" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F10" s="29"/>
       <c r="H10" s="29" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="56" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F11" s="29"/>
       <c r="H11" s="29" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="56" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="F12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="56" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="F13" s="29"/>
       <c r="H13" s="29" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="H14" s="29" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H15" s="29" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H16" s="29" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="29" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="29" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="29" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="29" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="29" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="29" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="29" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="29" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="29" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="29" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="29" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="29" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="29" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="29" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="29" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="29" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="29" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="29" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="29" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="29" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="29" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="29" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="29" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="29" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="29" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="29" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="29" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="29" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="29" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="29" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="29" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="29" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="29" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="29" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="29" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="29" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="29" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="29" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="29" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="29" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="29" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="29" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="29" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="29" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="29" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="29" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="29" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="29" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="29" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="29" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="29" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="29" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="29" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="29" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="29" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="29" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="29" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="29" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="29" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="29" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="29" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="29" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="29" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="29" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="29" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="29" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="29" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="29" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="29" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="29" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="29" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="29" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="29" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="29" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="29" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="29" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="29" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="29" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="29" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="29" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="29" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="29" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="29" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="29" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="29" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="29" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="29" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="29" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="29" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="29" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="29" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="29" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -38296,7 +39996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB8E8D-A5C8-594F-A88C-DAE4B19E97E0}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -38316,36 +40016,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E2" s="20">
         <v>301</v>
@@ -38356,16 +40056,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E3" s="25">
         <v>302</v>
@@ -38376,16 +40076,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E4" s="25">
         <v>303</v>
@@ -38396,13 +40096,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="25">
@@ -38414,10 +40114,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C6" s="19"/>
       <c r="E6" s="25">
@@ -38427,189 +40127,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="25" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="25" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="25" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="25" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="25" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="25" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="25" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="25" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="25" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="25" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="25" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="25" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="25" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="25" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="25" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="25" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="25" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="25" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -38621,7 +40321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88501A0A-1A58-D742-9359-905ECDDDA493}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -38637,16 +40337,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="47" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -38654,7 +40354,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -38662,7 +40362,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -38670,7 +40370,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -38678,7 +40378,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -38974,14 +40674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="34" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="A1" s="97" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -38994,13 +40694,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -40575,16 +42275,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="34" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>634</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -40609,7 +42309,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -42923,19 +44623,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86" t="s">
-        <v>647</v>
-      </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="88"/>
+      <c r="A1" s="100" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="103" t="s">
+        <v>635</v>
+      </c>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
@@ -42945,25 +44645,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -42999,29 +44699,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="34" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>731</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="97" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
-        <v>732</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>269</v>
+      <c r="D2" s="81" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -43061,74 +44761,74 @@
     <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="119" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="120" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="90" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="91" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="91" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="121" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="34" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>733</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
+      <c r="A1" s="97" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="110" t="s">
-        <v>734</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>735</v>
-      </c>
-      <c r="F2" s="111" t="s">
-        <v>736</v>
-      </c>
-      <c r="G2" s="111" t="s">
-        <v>737</v>
-      </c>
-      <c r="H2" s="112" t="s">
-        <v>738</v>
-      </c>
-      <c r="I2" s="113" t="s">
-        <v>739</v>
-      </c>
-      <c r="J2" s="113" t="s">
-        <v>740</v>
-      </c>
-      <c r="K2" s="111" t="s">
-        <v>741</v>
-      </c>
-      <c r="L2" s="111" t="s">
-        <v>742</v>
-      </c>
-      <c r="M2" s="111" t="s">
-        <v>743</v>
-      </c>
-      <c r="N2" s="114" t="s">
-        <v>269</v>
+      <c r="D2" s="81" t="s">
+        <v>721</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>722</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>723</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>724</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>725</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>726</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>727</v>
+      </c>
+      <c r="K2" s="82" t="s">
+        <v>728</v>
+      </c>
+      <c r="L2" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="M2" s="82" t="s">
+        <v>730</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -43139,9 +44839,9 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -43155,13 +44855,13 @@
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
       <c r="K4" s="28"/>
-      <c r="L4" s="117"/>
+      <c r="L4" s="88"/>
       <c r="M4" s="28"/>
-      <c r="N4" s="118"/>
+      <c r="N4" s="89"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
@@ -43171,13 +44871,13 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="118"/>
+      <c r="N5" s="89"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
@@ -43187,13 +44887,13 @@
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29"/>
       <c r="M6" s="28"/>
-      <c r="N6" s="118"/>
+      <c r="N6" s="89"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="28"/>
@@ -43203,13 +44903,13 @@
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
-      <c r="N7" s="118"/>
+      <c r="N7" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19569292-BC0A-B14D-B0E7-0CBCFE65E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE011F5-6BF6-964D-BE2C-54919FBFB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6940" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
+          <t>Mandatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
         </r>
       </text>
     </comment>
@@ -382,30 +382,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Suruchi</author>
-  </authors>
-  <commentList>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{DFA3381A-B6E3-8642-9D9B-F59DB2F382DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Mansatory for Autotune Type - PERFORMANCE_BASED or BOTH</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
@@ -650,7 +626,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Suruchi</author>
@@ -712,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="775">
   <si>
     <t>Region</t>
   </si>
@@ -10327,12 +10303,318 @@
   <si>
     <t>Matching Rule</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default value for columns if left blank: sourceCIDR- 0.0.0.0/0, Access- READ_WRITE, GID- 65534, UID- 65534, IDSquash- NONE and Require PS Port- false.
+Mount target IP will take default values from OCI if left blank.
+Resources will be created based on 'MountTarget Name' and 'FSS Name' columns.
+Below sample data shows example of  multiple FSS(FSS1 and FSS2) using single MT(MT1) , 1 FSS(FSS3) using multiple MTs(MT2 and MT3) and also 1 FSS(FSS4) using 1 MT(MT4).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onlyMT is Mount target without any FSS. onlyFSS is File System without any Mount Target or Export (used for replication)</t>
+    </r>
+  </si>
+  <si>
+    <t>MountTarget Name</t>
+  </si>
+  <si>
+    <t>MountTarget SubnetName</t>
+  </si>
+  <si>
+    <t>MountTarget IP</t>
+  </si>
+  <si>
+    <t>MountTarget Hostname</t>
+  </si>
+  <si>
+    <t>FSS Name</t>
+  </si>
+  <si>
+    <t>Source Snapshot</t>
+  </si>
+  <si>
+    <t>Snapshot Policy</t>
+  </si>
+  <si>
+    <t>Replication Information</t>
+  </si>
+  <si>
+    <t>Source CIDR</t>
+  </si>
+  <si>
+    <t>Access (READ_ONLY|READ_WRITE)</t>
+  </si>
+  <si>
+    <t>GID</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>IDSquash (NONE|ALL|ROOT)</t>
+  </si>
+  <si>
+    <t>Require PS Port (true|false)</t>
+  </si>
+  <si>
+    <t>Is Anonymous Access Allowed</t>
+  </si>
+  <si>
+    <t>Allowed Auth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+Columns: Region, Compartment Name, Availability Domain, MountTarget Name, MountTarget SubnetName, FSS name, Path are mandatory.
+Freeform and Defined Tags - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If specified, Applies to FSS object only and not to other components like Mount Target.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enter subnet name as : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">vcn-name&gt;_&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source Snapshot:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Accepts OCID of the source snapshot  or the name of the key defined under variable  fss_source_ocids in variables_&lt;region&gt;.tf file
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Snapshot Policy - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepts OCID of the snapshot policy or the name in format: &lt;snaphot_policy_compartment_name&gt;@&lt;snaphost_policy_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Replication Information: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Format - TargetFSS(OCID or Name)::ReplicationInterval::ReplicationName. Multiple replication values are seperated by newline in the same cell(\n is not supported). Ensure Target FSS for replication must not have exports created.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10658,6 +10940,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -10924,7 +11215,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11203,6 +11494,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -22837,7 +23137,7 @@
   </sheetPr>
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
@@ -22951,14 +23251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22972,8 +23272,8 @@
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" customWidth="1"/>
     <col min="15" max="15" width="15.5" customWidth="1"/>
@@ -22981,9 +23281,9 @@
     <col min="17" max="17" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>749</v>
+        <v>774</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -22995,84 +23295,99 @@
       <c r="I1" s="98"/>
       <c r="J1" s="98"/>
       <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="101"/>
-    </row>
-    <row r="2" spans="1:18" s="33" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="L1" s="101"/>
+      <c r="M1" s="113" t="s">
+        <v>757</v>
+      </c>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="115"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>81</v>
+      <c r="C2" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>759</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>66</v>
+        <v>760</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>82</v>
+        <v>761</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>503</v>
+        <v>762</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>262</v>
+        <v>763</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>725</v>
+        <v>764</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>727</v>
+        <v>85</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>728</v>
+        <v>766</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>502</v>
+        <v>767</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>73</v>
+        <v>768</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>377</v>
+        <v>769</v>
       </c>
       <c r="R2" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="V2" s="26" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:V1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" sqref="A3:XFD1048576 A1:J2 L1:M2 O1:XFD2 N1" xr:uid="{02462EBB-6C3D-AD4C-90E1-0F01761ACD92}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{44F44AA6-F9A2-F043-9A7C-E9C593C12245}"/>
-    <dataValidation type="list" sqref="K1:K2" xr:uid="{296BAB61-C7D2-7746-8608-28C808FD0978}">
-      <formula1>"BOTH,PERFORMANCE_BASED,DETACHED_VOLUME"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" sqref="A3:XFD1048576 U1:XFD2 B2:L2 M1:S2 A1:A2" xr:uid="{02462EBB-6C3D-AD4C-90E1-0F01761ACD92}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="T1:T2" xr:uid="{7A2F3F2A-4835-1545-9D47-36E98CCE349F}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -23695,15 +24010,15 @@
       <c r="J1" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="114"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -31388,26 +31703,26 @@
       <c r="A1" s="108" t="s">
         <v>663</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
       <c r="V1" s="60"/>
       <c r="W1" s="60"/>
       <c r="X1" s="60"/>
@@ -35718,26 +36033,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="118"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -35967,26 +36282,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="261" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>687</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="124"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE011F5-6BF6-964D-BE2C-54919FBFB3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB637C2C-B53B-494C-AA72-9F0D821894C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -8418,265 +8418,6 @@
     <t>Quota Policy</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Home Region only</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Scope" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compartment or Tag</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Target" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compartment Name or {tagNamespace}.{tagKey}.{tagValue}. Note- It should be a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cost Tracking Tag.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Schedule" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MONTH or  SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Amount" - T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Start Day" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Budget Start Date"/"Budget End Date" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Rules" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Alert Recipients": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> comma seperated email addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -10595,6 +10336,254 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home Region only</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Scope" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment or Tag</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Target" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compartment Name or {tagNamespace}.{tagKey}.{tagValue}.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Schedule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MONTH or  SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Amount" - T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he amount of the budget expressed as a whole number in the currency of the customer’s rate card</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Start Day" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The number of days offset from the first day of the month, at which the budget processing period starts. eg. 18. Mandatory for schedule type - MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Budget Start Date"/"Budget End Date" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg. 2024-05-20. Mandatory for schedule type - SINGLE_USE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Rules" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ACTUAL/FORECAST&gt;::&lt;Threshold value %/Threshold Amount&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Alert Recipients": </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comma seperated email addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Defined Tags"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -16739,7 +16728,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -16775,7 +16764,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -23157,7 +23146,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -23209,16 +23198,16 @@
         <v>262</v>
       </c>
       <c r="K2" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>725</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>726</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>727</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>728</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>502</v>
@@ -23283,7 +23272,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -23297,7 +23286,7 @@
       <c r="K1" s="98"/>
       <c r="L1" s="101"/>
       <c r="M1" s="113" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N1" s="114"/>
       <c r="O1" s="114"/>
@@ -23320,58 +23309,58 @@
         <v>66</v>
       </c>
       <c r="D2" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>759</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>760</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>761</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>74</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>762</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>764</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>765</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>766</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>769</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="S2" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="T2" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="U2" s="26" t="s">
         <v>772</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>773</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>258</v>
@@ -24114,7 +24103,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="33" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -24132,7 +24121,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>258</v>
@@ -25545,10 +25534,10 @@
         <v>513</v>
       </c>
       <c r="G2" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>729</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>730</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>102</v>
@@ -36167,7 +36156,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -36426,7 +36415,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="33" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="97" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -36443,16 +36432,16 @@
         <v>609</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>754</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>258</v>
@@ -37396,7 +37385,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -37405,7 +37394,7 @@
       <c r="F1" s="96"/>
       <c r="G1" s="96"/>
       <c r="H1" s="106" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="96"/>
       <c r="J1" s="96"/>
@@ -37420,46 +37409,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="D2" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>741</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="J2" s="93" t="s">
+        <v>743</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="M2" s="94" t="s">
+        <v>746</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>740</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>741</v>
-      </c>
-      <c r="H2" s="67" t="s">
-        <v>742</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="J2" s="93" t="s">
-        <v>744</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>745</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>746</v>
-      </c>
-      <c r="M2" s="94" t="s">
+      <c r="O2" s="16" t="s">
         <v>747</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -46209,7 +46198,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="33" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>713</v>
+        <v>774</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -46236,34 +46225,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="80" t="s">
+        <v>713</v>
+      </c>
+      <c r="E2" s="81" t="s">
         <v>714</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="F2" s="81" t="s">
         <v>715</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="81" t="s">
         <v>716</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="82" t="s">
         <v>717</v>
       </c>
-      <c r="H2" s="82" t="s">
+      <c r="I2" s="83" t="s">
         <v>718</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="83" t="s">
         <v>719</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="K2" s="81" t="s">
         <v>720</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="L2" s="81" t="s">
         <v>721</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="M2" s="81" t="s">
         <v>722</v>
-      </c>
-      <c r="M2" s="81" t="s">
-        <v>723</v>
       </c>
       <c r="N2" s="84" t="s">
         <v>258</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62626BD-3037-C149-AE13-3DED4F39E581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C9CFB-37FE-B544-BFED-C52E67530D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="760" windowWidth="29840" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38401,9 +38401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1F6A15-066C-494D-992B-F6A4A794D67F}">
   <dimension ref="A1:AN50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0C9CFB-37FE-B544-BFED-C52E67530D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8470B37-D490-B341-933C-40851AAB8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="29840" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="1360" windowWidth="29840" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="774">
   <si>
     <t>Region</t>
   </si>
@@ -6998,273 +6998,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"User Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"First Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is a mandatory field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"User email" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an optional field.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Group Names" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comma Separated groups assigned to user</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Disable Capabilities" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify comma seperated list of capabilities to be disabled for user. For ex: can_use_api_keys, can_use_console_password, can_use_auth_tokens, can_use_customer_secret_keys, can_use_db_credentials, can_use_oauth2client_credentials, can_use_smtp_credentials. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>By default all these capabilities are enabled for a user.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(can_use_db_credentials, can_use_oauth2client_credentials cannot be disabled through CD3. It is currently not supported by terraform)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <t>User Description</t>
-  </si>
-  <si>
-    <t>User email</t>
-  </si>
-  <si>
-    <t>Group Names</t>
-  </si>
-  <si>
-    <t>Disable Capabilities</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-"Name" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Group  Name) is a mandatory field.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Matching Rule" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Region" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify your tenancy's Home Region for creating Groups.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Defined Tags"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
-                              </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
     <t>Matching Rule</t>
   </si>
   <si>
@@ -10614,6 +10347,318 @@
       </rPr>
       <t xml:space="preserve">											</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Group  Name) is a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mandatory for IDCS tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Domain Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name of the identity domain where group resides. Leave empty for 'default'  identity domain or IDCS tenancies. It should be in the format of &lt;compartment_name&gt;@&lt;custom_domain_name&gt; for IAM tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Members" -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comma seperated usernames. Leave empty if no member needs to be added to the group.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Matching Rule" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the matching rule for creating Dynamic Groups; else leave it empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Region" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify your tenancy's Home Region for creating Groups.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pecify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
+"User Name" - i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s a mandatory field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Family Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a mandatory field for IAM tenancies</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Description" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is a mandatory field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"User Email" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is an optional field.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Domain Name" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name of the identity domain where user resides. Leave empty for 'default'  identity domain or IDCS tenancies. It should be in the format of &lt;compartment_name&gt;@&lt;custom_domain_name&gt; for IAM tenancies.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Enable Capabilities" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify comma seperated list of capabilities to be enabled for user. For ex: api_keys, console_password, auth_tokens, customer_secret_keys, db_credentials, oauth2client_credentials, smtp_credentials.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>Family Name</t>
+  </si>
+  <si>
+    <t>User Email</t>
+  </si>
+  <si>
+    <t>Enable Capabilities</t>
   </si>
 </sst>
 </file>
@@ -11219,7 +11264,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11515,6 +11560,12 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -16723,7 +16774,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -16767,7 +16818,7 @@
       <c r="E1" s="93"/>
       <c r="F1" s="96"/>
       <c r="G1" s="92" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
@@ -16928,7 +16979,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B1" s="99"/>
     </row>
@@ -16995,7 +17046,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -23016,7 +23067,7 @@
       <c r="G1" s="106"/>
       <c r="H1" s="107"/>
       <c r="I1" s="92" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="J1" s="93"/>
       <c r="K1" s="93"/>
@@ -23049,7 +23100,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>69</v>
@@ -23266,7 +23317,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -23280,7 +23331,7 @@
       <c r="K1" s="93"/>
       <c r="L1" s="96"/>
       <c r="M1" s="108" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="N1" s="109"/>
       <c r="O1" s="109"/>
@@ -23303,58 +23354,58 @@
         <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>731</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>732</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>735</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="T2" s="25" t="s">
         <v>737</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>738</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>742</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>744</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>255</v>
@@ -23425,7 +23476,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -23442,7 +23493,7 @@
       <c r="N1" s="93"/>
       <c r="O1" s="96"/>
       <c r="P1" s="105" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="Q1" s="106"/>
       <c r="R1" s="106"/>
@@ -23487,10 +23538,10 @@
         <v>519</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>520</v>
@@ -23505,7 +23556,7 @@
         <v>523</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="O2" s="25" t="s">
         <v>524</v>
@@ -23529,7 +23580,7 @@
         <v>526</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>65</v>
@@ -23544,7 +23595,7 @@
         <v>528</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="AB2" s="25" t="s">
         <v>529</v>
@@ -23615,7 +23666,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -23656,7 +23707,7 @@
         <v>386</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>88</v>
@@ -23736,7 +23787,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -23866,7 +23917,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -24079,10 +24130,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24091,728 +24142,737 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="6" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="30" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>727</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="1" spans="1:7" s="30" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="119" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>728</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="74" t="s">
+        <v>705</v>
+      </c>
+      <c r="E2" s="120" t="s">
+        <v>769</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>722</v>
+      </c>
+      <c r="G2" s="72" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="121"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="121"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="121"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="121"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="121"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="121"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="121"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="121"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="121"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="121"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="121"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="121"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="121"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="121"/>
     </row>
     <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="121"/>
     </row>
     <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="121"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="E19" s="121"/>
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="121"/>
     </row>
     <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="121"/>
     </row>
     <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="121"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="121"/>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="121"/>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="E25" s="121"/>
     </row>
     <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="E26" s="121"/>
     </row>
     <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="E27" s="121"/>
     </row>
     <row r="28" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="E28" s="121"/>
     </row>
     <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="121"/>
     </row>
     <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="E31" s="121"/>
     </row>
     <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="121"/>
     </row>
     <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="121"/>
     </row>
     <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="E34" s="121"/>
     </row>
     <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="E35" s="121"/>
     </row>
     <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="E36" s="121"/>
     </row>
     <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="E37" s="121"/>
     </row>
     <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="E38" s="121"/>
     </row>
     <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="E39" s="121"/>
     </row>
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="E40" s="121"/>
     </row>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="E41" s="121"/>
     </row>
     <row r="42" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="E42" s="121"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="E43" s="121"/>
     </row>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="E44" s="121"/>
     </row>
     <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="E45" s="121"/>
     </row>
     <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="E46" s="121"/>
     </row>
     <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="E47" s="121"/>
     </row>
     <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="E48" s="121"/>
     </row>
     <row r="49" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="E49" s="121"/>
     </row>
     <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="E50" s="121"/>
     </row>
     <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="E51" s="121"/>
     </row>
     <row r="52" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="E52" s="121"/>
     </row>
     <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="E53" s="121"/>
     </row>
     <row r="54" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="E54" s="121"/>
     </row>
     <row r="55" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="E55" s="121"/>
     </row>
     <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="E56" s="121"/>
     </row>
     <row r="57" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="E57" s="121"/>
     </row>
     <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="E58" s="121"/>
     </row>
     <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="E59" s="121"/>
     </row>
     <row r="60" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="E60" s="121"/>
     </row>
     <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="E61" s="121"/>
     </row>
     <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="E62" s="121"/>
     </row>
     <row r="63" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="E63" s="121"/>
     </row>
     <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="E64" s="121"/>
     </row>
     <row r="65" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="E65" s="121"/>
     </row>
     <row r="66" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="E66" s="121"/>
     </row>
     <row r="67" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="E67" s="121"/>
     </row>
     <row r="68" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="E68" s="121"/>
     </row>
     <row r="69" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="E69" s="121"/>
     </row>
     <row r="70" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="E70" s="121"/>
     </row>
     <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
+      <c r="E71" s="121"/>
     </row>
     <row r="72" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
+      <c r="E72" s="121"/>
     </row>
     <row r="73" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
+      <c r="E73" s="121"/>
     </row>
     <row r="74" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
+      <c r="E74" s="121"/>
     </row>
     <row r="75" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
+      <c r="E75" s="121"/>
     </row>
     <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
+      <c r="E76" s="121"/>
     </row>
     <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
+      <c r="E77" s="121"/>
     </row>
     <row r="78" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
+      <c r="E78" s="121"/>
     </row>
     <row r="79" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
+      <c r="E79" s="121"/>
     </row>
     <row r="80" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
+      <c r="E80" s="121"/>
     </row>
     <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
+      <c r="E81" s="121"/>
     </row>
     <row r="82" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+      <c r="E82" s="121"/>
     </row>
     <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
+      <c r="E83" s="121"/>
     </row>
     <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
+      <c r="E84" s="121"/>
     </row>
     <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
+      <c r="E85" s="121"/>
     </row>
     <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
+      <c r="E86" s="121"/>
     </row>
     <row r="87" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
+      <c r="E87" s="121"/>
     </row>
     <row r="88" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
+      <c r="E88" s="121"/>
     </row>
     <row r="89" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
+      <c r="E89" s="121"/>
     </row>
     <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
+      <c r="E90" s="121"/>
     </row>
     <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
+      <c r="E91" s="121"/>
     </row>
     <row r="92" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
+      <c r="E92" s="121"/>
     </row>
     <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
+      <c r="E93" s="121"/>
     </row>
     <row r="94" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
+      <c r="E94" s="121"/>
     </row>
     <row r="95" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
+      <c r="E95" s="121"/>
     </row>
     <row r="96" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
+      <c r="E96" s="121"/>
     </row>
     <row r="97" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
+      <c r="E97" s="121"/>
     </row>
     <row r="98" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
+      <c r="E98" s="121"/>
     </row>
     <row r="99" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
+      <c r="E99" s="121"/>
     </row>
     <row r="100" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
+      <c r="E100" s="121"/>
     </row>
     <row r="101" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
+      <c r="E101" s="121"/>
     </row>
     <row r="102" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24820,10 +24880,10 @@
     <row r="105" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:E1 B3:XFD1048576" xr:uid="{502C3392-9B29-BD4E-AE0C-BB66BD1B2815}"/>
+    <dataValidation allowBlank="1" sqref="B3:XFD1048576" xr:uid="{502C3392-9B29-BD4E-AE0C-BB66BD1B2815}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24908,7 +24968,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="101" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -24922,7 +24982,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>639</v>
@@ -24997,7 +25057,7 @@
         <v>501</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>502</v>
@@ -25440,7 +25500,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -25469,7 +25529,7 @@
         <v>509</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>510</v>
@@ -25574,7 +25634,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -25614,7 +25674,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>448</v>
@@ -31540,7 +31600,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B1" s="106"/>
       <c r="C1" s="106"/>
@@ -31580,10 +31640,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>450</v>
@@ -35874,7 +35934,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="113" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -36007,7 +36067,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="105" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -36031,7 +36091,7 @@
         <v>646</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>657</v>
@@ -36093,10 +36153,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36107,21 +36167,22 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
     <col min="5" max="6" width="23.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>722</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="91" t="s">
+        <v>770</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -36129,146 +36190,149 @@
         <v>598</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>723</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>724</v>
+        <v>771</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>725</v>
+        <v>772</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="G2" s="24" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>705</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="121"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="121"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="121"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="121"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="121"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="121"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="121"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="121"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="121"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="121"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="121"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="121"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="121"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -36277,7 +36341,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="121"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -36286,7 +36350,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="121"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
@@ -36295,7 +36359,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
@@ -36304,7 +36368,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="121"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
@@ -36313,7 +36377,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="G21" s="121"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
@@ -36322,7 +36386,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
@@ -36331,7 +36395,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="G23" s="121"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
@@ -36340,7 +36404,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="G24" s="121"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
@@ -36349,7 +36413,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="121"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
@@ -36358,7 +36422,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="121"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -36367,7 +36431,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="121"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
@@ -36376,7 +36440,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="121"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
@@ -36385,7 +36449,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="121"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
@@ -36394,7 +36458,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
@@ -36403,7 +36467,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="G31" s="121"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -36412,7 +36476,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="G32" s="121"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
@@ -36421,7 +36485,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="G33" s="121"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
@@ -36430,7 +36494,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="G34" s="121"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
@@ -36439,7 +36503,7 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="G35" s="121"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
@@ -36448,7 +36512,7 @@
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="G36" s="121"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
@@ -36457,7 +36521,7 @@
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="G37" s="121"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
@@ -36466,7 +36530,7 @@
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="G38" s="121"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
@@ -36475,7 +36539,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="121"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
@@ -36484,7 +36548,7 @@
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="G40" s="121"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
@@ -36493,7 +36557,7 @@
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="G41" s="121"/>
     </row>
     <row r="42" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
@@ -36502,7 +36566,7 @@
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="G42" s="121"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
@@ -36511,7 +36575,7 @@
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="G43" s="121"/>
     </row>
     <row r="44" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
@@ -36520,7 +36584,7 @@
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="G44" s="121"/>
     </row>
     <row r="45" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
@@ -36529,7 +36593,7 @@
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
+      <c r="G45" s="121"/>
     </row>
     <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
@@ -36538,7 +36602,7 @@
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
+      <c r="G46" s="121"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
@@ -36547,7 +36611,7 @@
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="G47" s="121"/>
     </row>
     <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
@@ -36556,7 +36620,7 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="G48" s="121"/>
     </row>
     <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
@@ -36565,7 +36629,7 @@
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
@@ -36574,7 +36638,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
+      <c r="G50" s="121"/>
     </row>
     <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
@@ -36583,7 +36647,7 @@
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="G51" s="121"/>
     </row>
     <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
@@ -36592,7 +36656,7 @@
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
+      <c r="G52" s="121"/>
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
@@ -36601,7 +36665,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="G53" s="121"/>
     </row>
     <row r="54" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
@@ -36610,7 +36674,7 @@
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
+      <c r="G54" s="121"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
@@ -36619,7 +36683,7 @@
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="G55" s="121"/>
     </row>
     <row r="56" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
@@ -36628,7 +36692,7 @@
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
+      <c r="G56" s="121"/>
     </row>
     <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
@@ -36637,7 +36701,7 @@
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="G57" s="121"/>
     </row>
     <row r="58" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
@@ -36646,7 +36710,7 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="G58" s="121"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
@@ -36655,7 +36719,7 @@
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
+      <c r="G59" s="121"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -36664,7 +36728,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="G60" s="121"/>
     </row>
     <row r="61" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
@@ -36673,7 +36737,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="G61" s="121"/>
     </row>
     <row r="62" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
@@ -36682,7 +36746,7 @@
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="G62" s="121"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
@@ -36691,7 +36755,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="G63" s="121"/>
     </row>
     <row r="64" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
@@ -36700,7 +36764,7 @@
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="G64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
@@ -36709,7 +36773,7 @@
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="G65" s="121"/>
     </row>
     <row r="66" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
@@ -36718,7 +36782,7 @@
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="G66" s="121"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
@@ -36727,7 +36791,7 @@
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="G67" s="121"/>
     </row>
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
@@ -36736,7 +36800,7 @@
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="G68" s="121"/>
     </row>
     <row r="69" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
@@ -36745,7 +36809,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="G69" s="121"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
@@ -36754,7 +36818,7 @@
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="G70" s="121"/>
     </row>
     <row r="71" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
@@ -36763,7 +36827,7 @@
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="G71" s="121"/>
     </row>
     <row r="72" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
@@ -36772,7 +36836,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="G72" s="121"/>
     </row>
     <row r="73" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
@@ -36781,7 +36845,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="G73" s="121"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
@@ -36790,7 +36854,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="G74" s="121"/>
     </row>
     <row r="75" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
@@ -36799,7 +36863,7 @@
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
+      <c r="G75" s="121"/>
     </row>
     <row r="76" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
@@ -36808,7 +36872,7 @@
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
+      <c r="G76" s="121"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
@@ -36817,7 +36881,7 @@
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
+      <c r="G77" s="121"/>
     </row>
     <row r="78" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
@@ -36826,7 +36890,7 @@
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="G78" s="121"/>
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
@@ -36835,7 +36899,7 @@
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="G79" s="121"/>
     </row>
     <row r="80" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
@@ -36844,7 +36908,7 @@
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="G80" s="121"/>
     </row>
     <row r="81" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
@@ -36853,7 +36917,7 @@
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
+      <c r="G81" s="121"/>
     </row>
     <row r="82" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
@@ -36862,7 +36926,7 @@
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
+      <c r="G82" s="121"/>
     </row>
     <row r="83" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
@@ -36871,7 +36935,7 @@
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
+      <c r="G83" s="121"/>
     </row>
     <row r="84" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
@@ -36880,7 +36944,7 @@
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
+      <c r="G84" s="121"/>
     </row>
     <row r="85" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
@@ -36889,7 +36953,7 @@
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
+      <c r="G85" s="121"/>
     </row>
     <row r="86" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
@@ -36898,7 +36962,7 @@
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+      <c r="G86" s="121"/>
     </row>
     <row r="87" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
@@ -36907,7 +36971,7 @@
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="G87" s="121"/>
     </row>
     <row r="88" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
@@ -36916,7 +36980,7 @@
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
+      <c r="G88" s="121"/>
     </row>
     <row r="89" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
@@ -36925,7 +36989,7 @@
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="G89" s="121"/>
     </row>
     <row r="90" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
@@ -36934,7 +36998,7 @@
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
+      <c r="G90" s="121"/>
     </row>
     <row r="91" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
@@ -36943,7 +37007,7 @@
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="G91" s="121"/>
     </row>
     <row r="92" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
@@ -36952,7 +37016,7 @@
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
+      <c r="G92" s="121"/>
     </row>
     <row r="93" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
@@ -36961,7 +37025,7 @@
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="G93" s="121"/>
     </row>
     <row r="94" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
@@ -36970,7 +37034,7 @@
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="G94" s="121"/>
     </row>
     <row r="95" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
@@ -36979,7 +37043,7 @@
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="G95" s="121"/>
     </row>
     <row r="96" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
@@ -36988,7 +37052,7 @@
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
+      <c r="G96" s="121"/>
     </row>
     <row r="97" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
@@ -36997,7 +37061,7 @@
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="G97" s="121"/>
     </row>
     <row r="98" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
@@ -37006,7 +37070,7 @@
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
+      <c r="G98" s="121"/>
     </row>
     <row r="99" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
@@ -37015,7 +37079,7 @@
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
+      <c r="G99" s="121"/>
     </row>
     <row r="100" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
@@ -37024,7 +37088,7 @@
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
+      <c r="G100" s="121"/>
     </row>
     <row r="101" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
@@ -37033,7 +37097,7 @@
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
+      <c r="G101" s="121"/>
     </row>
     <row r="102" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37041,10 +37105,10 @@
     <row r="105" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="H1:XFD1048576 B2:G1048576 A1:A2" xr:uid="{9D88765A-6C4E-B147-BB01-66BBC78D7777}"/>
+    <dataValidation allowBlank="1" sqref="I1:XFD1048576 B3:H1048576" xr:uid="{9D88765A-6C4E-B147-BB01-66BBC78D7777}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -37245,7 +37309,7 @@
       <c r="F1" s="91"/>
       <c r="G1" s="91"/>
       <c r="H1" s="97" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="I1" s="111"/>
       <c r="J1" s="111"/>
@@ -41951,7 +42015,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -46047,7 +46111,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="91" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8470B37-D490-B341-933C-40851AAB8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465F854D-8A08-6940-BC9C-29F538AC6060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1360" windowWidth="29840" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="780" windowWidth="29840" windowHeight="17420" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -2993,9 +2993,6 @@
     <t>Shape(10Mbps|100Mbps|400Mbps|8000Mbps|flexible)</t>
   </si>
   <si>
-    <t>Backend ServerComp&amp;ServerName:Port</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -10659,6 +10656,9 @@
   </si>
   <si>
     <t>Enable Capabilities</t>
+  </si>
+  <si>
+    <t>Backend ServerComp@ServerName:Port</t>
   </si>
 </sst>
 </file>
@@ -11488,17 +11488,23 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -11560,12 +11566,6 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -16774,7 +16774,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
   </sheetData>
@@ -16809,22 +16809,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>699</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="96"/>
+      <c r="A1" s="98" t="s">
+        <v>698</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="98" t="s">
+        <v>742</v>
+      </c>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:12" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -16903,19 +16903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>508</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="100" t="s">
-        <v>669</v>
-      </c>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="A1" s="94" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="104" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -16931,7 +16931,7 @@
         <v>379</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>380</v>
@@ -16978,10 +16978,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>744</v>
-      </c>
-      <c r="B1" s="99"/>
+      <c r="A1" s="94" t="s">
+        <v>743</v>
+      </c>
+      <c r="B1" s="103"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -17045,16 +17045,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="30" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -17129,30 +17129,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="105" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="101" t="s">
-        <v>620</v>
-      </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
     </row>
     <row r="2" spans="1:20" s="30" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -17168,7 +17168,7 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>11</v>
@@ -22066,18 +22066,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>622</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -22148,17 +22148,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>623</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -22225,25 +22225,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>624</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>623</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -22338,28 +22338,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>625</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -22460,17 +22460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>626</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="94" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -22480,22 +22480,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>631</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>632</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>255</v>
@@ -22790,13 +22790,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>616</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>615</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -22854,19 +22854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
-        <v>633</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
+      <c r="A1" s="107" t="s">
+        <v>632</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
     </row>
     <row r="2" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -22882,22 +22882,22 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>638</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>639</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>255</v>
@@ -22975,15 +22975,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>640</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="30" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -23056,32 +23056,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="92" t="s">
-        <v>746</v>
-      </c>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="96"/>
+      <c r="A1" s="109" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="98" t="s">
+        <v>745</v>
+      </c>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="2" spans="1:22" s="30" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -23100,7 +23100,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>69</v>
@@ -23115,19 +23115,19 @@
         <v>66</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>492</v>
-      </c>
       <c r="M2" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>495</v>
-      </c>
       <c r="O2" s="25" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>71</v>
@@ -23145,7 +23145,7 @@
         <v>74</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="V2" s="24" t="s">
         <v>255</v>
@@ -23190,26 +23190,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>721</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="96"/>
+      <c r="A1" s="98" t="s">
+        <v>720</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18" s="30" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -23222,7 +23222,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>80</v>
@@ -23237,25 +23237,25 @@
         <v>82</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>258</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>700</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>701</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>702</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>703</v>
-      </c>
       <c r="O2" s="25" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>72</v>
@@ -23316,32 +23316,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="108" t="s">
-        <v>723</v>
-      </c>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="A1" s="98" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="112" t="s">
+        <v>722</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="114"/>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -23354,58 +23354,58 @@
         <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>725</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>726</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>726</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>729</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>730</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>730</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>733</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>734</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>735</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>736</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>737</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>738</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>255</v>
@@ -23432,7 +23432,7 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
@@ -23475,45 +23475,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>749</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="105" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
+      <c r="A1" s="98" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="109" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
     </row>
     <row r="2" spans="1:35" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -23523,82 +23523,82 @@
         <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>750</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="K2" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>752</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>524</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>525</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>66</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>258</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Y2" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z2" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB2" s="25" t="s">
         <v>528</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>754</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>529</v>
       </c>
       <c r="AC2" s="25" t="s">
         <v>71</v>
@@ -23607,19 +23607,19 @@
         <v>255</v>
       </c>
       <c r="AE2" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF2" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="AF2" s="25" t="s">
-        <v>531</v>
-      </c>
       <c r="AG2" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="AH2" s="25" t="s">
         <v>683</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="25" t="s">
         <v>684</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -23665,27 +23665,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -23707,7 +23707,7 @@
         <v>386</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>88</v>
@@ -23716,7 +23716,7 @@
         <v>73</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>89</v>
@@ -23786,30 +23786,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>756</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="96"/>
+      <c r="A1" s="98" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="100"/>
     </row>
     <row r="2" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -23822,16 +23822,16 @@
         <v>87</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>490</v>
+        <v>773</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>98</v>
@@ -23916,25 +23916,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>757</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -23959,10 +23959,10 @@
         <v>152</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>153</v>
@@ -24030,29 +24030,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="97" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="112"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="116"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -24148,15 +24148,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="119" t="s">
-        <v>768</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="95"/>
+      <c r="A1" s="95" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -24169,13 +24169,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>705</v>
-      </c>
-      <c r="E2" s="120" t="s">
-        <v>769</v>
+        <v>704</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>768</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>255</v>
@@ -24186,693 +24186,693 @@
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
-      <c r="E3" s="121"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="121"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="121"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="121"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="121"/>
+      <c r="E7" s="92"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="121"/>
+      <c r="E8" s="92"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="121"/>
+      <c r="E9" s="92"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
-      <c r="E10" s="121"/>
+      <c r="E10" s="92"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="121"/>
+      <c r="E11" s="92"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
-      <c r="E12" s="121"/>
+      <c r="E12" s="92"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
-      <c r="E13" s="121"/>
+      <c r="E13" s="92"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
-      <c r="E14" s="121"/>
+      <c r="E14" s="92"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
-      <c r="E15" s="121"/>
+      <c r="E15" s="92"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
-      <c r="E16" s="121"/>
+      <c r="E16" s="92"/>
     </row>
     <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
-      <c r="E17" s="121"/>
+      <c r="E17" s="92"/>
     </row>
     <row r="18" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="121"/>
+      <c r="E18" s="92"/>
     </row>
     <row r="19" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="121"/>
+      <c r="E19" s="92"/>
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="121"/>
+      <c r="E20" s="92"/>
     </row>
     <row r="21" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
-      <c r="E21" s="121"/>
+      <c r="E21" s="92"/>
     </row>
     <row r="22" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="121"/>
+      <c r="E22" s="92"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="121"/>
+      <c r="E23" s="92"/>
     </row>
     <row r="24" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
-      <c r="E24" s="121"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="121"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="26" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
-      <c r="E26" s="121"/>
+      <c r="E26" s="92"/>
     </row>
     <row r="27" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="121"/>
+      <c r="E27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="121"/>
+      <c r="E28" s="92"/>
     </row>
     <row r="29" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="121"/>
+      <c r="E29" s="92"/>
     </row>
     <row r="30" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
-      <c r="E30" s="121"/>
+      <c r="E30" s="92"/>
     </row>
     <row r="31" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="121"/>
+      <c r="E31" s="92"/>
     </row>
     <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
-      <c r="E32" s="121"/>
+      <c r="E32" s="92"/>
     </row>
     <row r="33" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="121"/>
+      <c r="E33" s="92"/>
     </row>
     <row r="34" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
-      <c r="E34" s="121"/>
+      <c r="E34" s="92"/>
     </row>
     <row r="35" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="121"/>
+      <c r="E35" s="92"/>
     </row>
     <row r="36" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
-      <c r="E36" s="121"/>
+      <c r="E36" s="92"/>
     </row>
     <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
-      <c r="E37" s="121"/>
+      <c r="E37" s="92"/>
     </row>
     <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
-      <c r="E38" s="121"/>
+      <c r="E38" s="92"/>
     </row>
     <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="121"/>
+      <c r="E39" s="92"/>
     </row>
     <row r="40" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
-      <c r="E40" s="121"/>
+      <c r="E40" s="92"/>
     </row>
     <row r="41" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
-      <c r="E41" s="121"/>
+      <c r="E41" s="92"/>
     </row>
     <row r="42" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
-      <c r="E42" s="121"/>
+      <c r="E42" s="92"/>
     </row>
     <row r="43" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
-      <c r="E43" s="121"/>
+      <c r="E43" s="92"/>
     </row>
     <row r="44" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
-      <c r="E44" s="121"/>
+      <c r="E44" s="92"/>
     </row>
     <row r="45" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
-      <c r="E45" s="121"/>
+      <c r="E45" s="92"/>
     </row>
     <row r="46" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
-      <c r="E46" s="121"/>
+      <c r="E46" s="92"/>
     </row>
     <row r="47" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
-      <c r="E47" s="121"/>
+      <c r="E47" s="92"/>
     </row>
     <row r="48" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
-      <c r="E48" s="121"/>
+      <c r="E48" s="92"/>
     </row>
     <row r="49" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
-      <c r="E49" s="121"/>
+      <c r="E49" s="92"/>
     </row>
     <row r="50" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
-      <c r="E50" s="121"/>
+      <c r="E50" s="92"/>
     </row>
     <row r="51" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
-      <c r="E51" s="121"/>
+      <c r="E51" s="92"/>
     </row>
     <row r="52" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
-      <c r="E52" s="121"/>
+      <c r="E52" s="92"/>
     </row>
     <row r="53" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
-      <c r="E53" s="121"/>
+      <c r="E53" s="92"/>
     </row>
     <row r="54" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
-      <c r="E54" s="121"/>
+      <c r="E54" s="92"/>
     </row>
     <row r="55" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="121"/>
+      <c r="E55" s="92"/>
     </row>
     <row r="56" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="121"/>
+      <c r="E56" s="92"/>
     </row>
     <row r="57" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="121"/>
+      <c r="E57" s="92"/>
     </row>
     <row r="58" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="121"/>
+      <c r="E58" s="92"/>
     </row>
     <row r="59" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
-      <c r="E59" s="121"/>
+      <c r="E59" s="92"/>
     </row>
     <row r="60" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
-      <c r="E60" s="121"/>
+      <c r="E60" s="92"/>
     </row>
     <row r="61" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
-      <c r="E61" s="121"/>
+      <c r="E61" s="92"/>
     </row>
     <row r="62" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
-      <c r="E62" s="121"/>
+      <c r="E62" s="92"/>
     </row>
     <row r="63" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
-      <c r="E63" s="121"/>
+      <c r="E63" s="92"/>
     </row>
     <row r="64" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
-      <c r="E64" s="121"/>
+      <c r="E64" s="92"/>
     </row>
     <row r="65" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="E65" s="121"/>
+      <c r="E65" s="92"/>
     </row>
     <row r="66" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
-      <c r="E66" s="121"/>
+      <c r="E66" s="92"/>
     </row>
     <row r="67" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
-      <c r="E67" s="121"/>
+      <c r="E67" s="92"/>
     </row>
     <row r="68" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
-      <c r="E68" s="121"/>
+      <c r="E68" s="92"/>
     </row>
     <row r="69" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
-      <c r="E69" s="121"/>
+      <c r="E69" s="92"/>
     </row>
     <row r="70" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
-      <c r="E70" s="121"/>
+      <c r="E70" s="92"/>
     </row>
     <row r="71" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="121"/>
+      <c r="E71" s="92"/>
     </row>
     <row r="72" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
-      <c r="E72" s="121"/>
+      <c r="E72" s="92"/>
     </row>
     <row r="73" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
-      <c r="E73" s="121"/>
+      <c r="E73" s="92"/>
     </row>
     <row r="74" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
-      <c r="E74" s="121"/>
+      <c r="E74" s="92"/>
     </row>
     <row r="75" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
-      <c r="E75" s="121"/>
+      <c r="E75" s="92"/>
     </row>
     <row r="76" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
-      <c r="E76" s="121"/>
+      <c r="E76" s="92"/>
     </row>
     <row r="77" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
-      <c r="E77" s="121"/>
+      <c r="E77" s="92"/>
     </row>
     <row r="78" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
-      <c r="E78" s="121"/>
+      <c r="E78" s="92"/>
     </row>
     <row r="79" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
-      <c r="E79" s="121"/>
+      <c r="E79" s="92"/>
     </row>
     <row r="80" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
-      <c r="E80" s="121"/>
+      <c r="E80" s="92"/>
     </row>
     <row r="81" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
-      <c r="E81" s="121"/>
+      <c r="E81" s="92"/>
     </row>
     <row r="82" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
-      <c r="E82" s="121"/>
+      <c r="E82" s="92"/>
     </row>
     <row r="83" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
-      <c r="E83" s="121"/>
+      <c r="E83" s="92"/>
     </row>
     <row r="84" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
-      <c r="E84" s="121"/>
+      <c r="E84" s="92"/>
     </row>
     <row r="85" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
-      <c r="E85" s="121"/>
+      <c r="E85" s="92"/>
     </row>
     <row r="86" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
-      <c r="E86" s="121"/>
+      <c r="E86" s="92"/>
     </row>
     <row r="87" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
-      <c r="E87" s="121"/>
+      <c r="E87" s="92"/>
     </row>
     <row r="88" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
-      <c r="E88" s="121"/>
+      <c r="E88" s="92"/>
     </row>
     <row r="89" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
-      <c r="E89" s="121"/>
+      <c r="E89" s="92"/>
     </row>
     <row r="90" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
-      <c r="E90" s="121"/>
+      <c r="E90" s="92"/>
     </row>
     <row r="91" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
-      <c r="E91" s="121"/>
+      <c r="E91" s="92"/>
     </row>
     <row r="92" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
-      <c r="E92" s="121"/>
+      <c r="E92" s="92"/>
     </row>
     <row r="93" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
-      <c r="E93" s="121"/>
+      <c r="E93" s="92"/>
     </row>
     <row r="94" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
-      <c r="E94" s="121"/>
+      <c r="E94" s="92"/>
     </row>
     <row r="95" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
-      <c r="E95" s="121"/>
+      <c r="E95" s="92"/>
     </row>
     <row r="96" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
-      <c r="E96" s="121"/>
+      <c r="E96" s="92"/>
     </row>
     <row r="97" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
-      <c r="E97" s="121"/>
+      <c r="E97" s="92"/>
     </row>
     <row r="98" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
-      <c r="E98" s="121"/>
+      <c r="E98" s="92"/>
     </row>
     <row r="99" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
-      <c r="E99" s="121"/>
+      <c r="E99" s="92"/>
     </row>
     <row r="100" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
-      <c r="E100" s="121"/>
+      <c r="E100" s="92"/>
     </row>
     <row r="101" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
-      <c r="E101" s="121"/>
+      <c r="E101" s="92"/>
     </row>
     <row r="102" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24910,14 +24910,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="A1" s="94" t="s">
+        <v>643</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="103"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -24967,12 +24967,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
-        <v>758</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95"/>
+      <c r="A1" s="105" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="97"/>
     </row>
     <row r="2" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -24982,10 +24982,10 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25029,22 +25029,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="A1" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
     </row>
     <row r="2" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -25054,13 +25054,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>501</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>747</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>502</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>73</v>
@@ -25072,7 +25072,7 @@
         <v>70</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>153</v>
@@ -25081,7 +25081,7 @@
         <v>97</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>154</v>
@@ -25405,24 +25405,25 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="10" width="12.5" customWidth="1"/>
     <col min="11" max="11" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>500</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="A1" s="109" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -25432,22 +25433,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>506</v>
-      </c>
       <c r="G2" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>704</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>705</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>100</v>
@@ -25459,7 +25460,7 @@
         <v>266</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>490</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -25499,24 +25500,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>760</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
+      <c r="A1" s="98" t="s">
+        <v>759</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -25526,13 +25527,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>510</v>
       </c>
       <c r="F2" s="15" t="s">
         <v>204</v>
@@ -25547,10 +25548,10 @@
         <v>450</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="L2" s="39" t="s">
         <v>455</v>
@@ -25633,35 +25634,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>761</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="96"/>
+      <c r="A1" s="98" t="s">
+        <v>760</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="100"/>
     </row>
     <row r="2" spans="1:27" s="37" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -25674,7 +25675,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>448</v>
@@ -28753,16 +28754,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
+      <c r="A1" s="98" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -31599,29 +31600,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>762</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
+      <c r="A1" s="109" t="s">
+        <v>761</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
       <c r="V1" s="55"/>
       <c r="W1" s="55"/>
       <c r="X1" s="55"/>
@@ -31640,10 +31641,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>762</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>763</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>764</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>450</v>
@@ -31658,16 +31659,16 @@
         <v>472</v>
       </c>
       <c r="K2" s="38" t="s">
+        <v>672</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="M2" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>675</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>676</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>473</v>
@@ -35933,26 +35934,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>765</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="115"/>
+      <c r="A1" s="117" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="119"/>
     </row>
     <row r="2" spans="1:18" s="37" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -35962,46 +35963,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>685</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>686</v>
-      </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>647</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="56" t="s">
         <v>649</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="71" t="s">
+        <v>676</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>677</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="L2" s="71" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>655</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>656</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>71</v>
@@ -36066,65 +36067,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>766</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
+      <c r="A1" s="109" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="2" spans="1:15" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>664</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>665</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>666</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>667</v>
       </c>
       <c r="O2" s="37"/>
     </row>
@@ -36137,7 +36138,7 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -36171,38 +36172,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>770</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
+      <c r="A1" s="94" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="G2" s="122" t="s">
-        <v>705</v>
+      <c r="G2" s="93" t="s">
+        <v>704</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -36215,7 +36216,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
-      <c r="G3" s="121"/>
+      <c r="G3" s="92"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
@@ -36224,7 +36225,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="121"/>
+      <c r="G4" s="92"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
@@ -36233,7 +36234,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="121"/>
+      <c r="G5" s="92"/>
     </row>
     <row r="6" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
@@ -36242,7 +36243,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="121"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
@@ -36251,7 +36252,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="121"/>
+      <c r="G7" s="92"/>
     </row>
     <row r="8" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
@@ -36260,7 +36261,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="121"/>
+      <c r="G8" s="92"/>
     </row>
     <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
@@ -36269,7 +36270,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
-      <c r="G9" s="121"/>
+      <c r="G9" s="92"/>
     </row>
     <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
@@ -36278,7 +36279,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="121"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
@@ -36287,7 +36288,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
-      <c r="G11" s="121"/>
+      <c r="G11" s="92"/>
     </row>
     <row r="12" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
@@ -36296,7 +36297,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="121"/>
+      <c r="G12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
@@ -36305,7 +36306,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
-      <c r="G13" s="121"/>
+      <c r="G13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
@@ -36314,7 +36315,7 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="121"/>
+      <c r="G14" s="92"/>
     </row>
     <row r="15" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
@@ -36323,7 +36324,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="121"/>
+      <c r="G15" s="92"/>
     </row>
     <row r="16" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
@@ -36332,7 +36333,7 @@
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="121"/>
+      <c r="G16" s="92"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -36341,7 +36342,7 @@
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="121"/>
+      <c r="G17" s="92"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -36350,7 +36351,7 @@
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="121"/>
+      <c r="G18" s="92"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
@@ -36359,7 +36360,7 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="121"/>
+      <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
@@ -36368,7 +36369,7 @@
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="121"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
@@ -36377,7 +36378,7 @@
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="121"/>
+      <c r="G21" s="92"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
@@ -36386,7 +36387,7 @@
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="121"/>
+      <c r="G22" s="92"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
@@ -36395,7 +36396,7 @@
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="121"/>
+      <c r="G23" s="92"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
@@ -36404,7 +36405,7 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="121"/>
+      <c r="G24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
@@ -36413,7 +36414,7 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="121"/>
+      <c r="G25" s="92"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
@@ -36422,7 +36423,7 @@
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="121"/>
+      <c r="G26" s="92"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
@@ -36431,7 +36432,7 @@
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="121"/>
+      <c r="G27" s="92"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
@@ -36440,7 +36441,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="121"/>
+      <c r="G28" s="92"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
@@ -36449,7 +36450,7 @@
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="121"/>
+      <c r="G29" s="92"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
@@ -36458,7 +36459,7 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="121"/>
+      <c r="G30" s="92"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
@@ -36467,7 +36468,7 @@
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="121"/>
+      <c r="G31" s="92"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
@@ -36476,7 +36477,7 @@
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="121"/>
+      <c r="G32" s="92"/>
     </row>
     <row r="33" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
@@ -36485,7 +36486,7 @@
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="121"/>
+      <c r="G33" s="92"/>
     </row>
     <row r="34" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
@@ -36494,7 +36495,7 @@
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="121"/>
+      <c r="G34" s="92"/>
     </row>
     <row r="35" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
@@ -36503,7 +36504,7 @@
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="121"/>
+      <c r="G35" s="92"/>
     </row>
     <row r="36" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
@@ -36512,7 +36513,7 @@
       <c r="D36" s="27"/>
       <c r="E36" s="27"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="121"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
@@ -36521,7 +36522,7 @@
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="121"/>
+      <c r="G37" s="92"/>
     </row>
     <row r="38" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
@@ -36530,7 +36531,7 @@
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="121"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
@@ -36539,7 +36540,7 @@
       <c r="D39" s="27"/>
       <c r="E39" s="27"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="121"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
@@ -36548,7 +36549,7 @@
       <c r="D40" s="27"/>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
-      <c r="G40" s="121"/>
+      <c r="G40" s="92"/>
     </row>
     <row r="41" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
@@ -36557,7 +36558,7 @@
       <c r="D41" s="27"/>
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="121"/>
+      <c r="G41" s="92"/>
     </row>
     <row r="42" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
@@ -36566,7 +36567,7 @@
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="121"/>
+      <c r="G42" s="92"/>
     </row>
     <row r="43" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
@@ -36575,7 +36576,7 @@
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="121"/>
+      <c r="G43" s="92"/>
     </row>
     <row r="44" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
@@ -36584,7 +36585,7 @@
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="121"/>
+      <c r="G44" s="92"/>
     </row>
     <row r="45" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
@@ -36593,7 +36594,7 @@
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="121"/>
+      <c r="G45" s="92"/>
     </row>
     <row r="46" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
@@ -36602,7 +36603,7 @@
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="121"/>
+      <c r="G46" s="92"/>
     </row>
     <row r="47" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
@@ -36611,7 +36612,7 @@
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="121"/>
+      <c r="G47" s="92"/>
     </row>
     <row r="48" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
@@ -36620,7 +36621,7 @@
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="121"/>
+      <c r="G48" s="92"/>
     </row>
     <row r="49" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
@@ -36629,7 +36630,7 @@
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="121"/>
+      <c r="G49" s="92"/>
     </row>
     <row r="50" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
@@ -36638,7 +36639,7 @@
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="121"/>
+      <c r="G50" s="92"/>
     </row>
     <row r="51" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
@@ -36647,7 +36648,7 @@
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="121"/>
+      <c r="G51" s="92"/>
     </row>
     <row r="52" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
@@ -36656,7 +36657,7 @@
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="121"/>
+      <c r="G52" s="92"/>
     </row>
     <row r="53" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
@@ -36665,7 +36666,7 @@
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="121"/>
+      <c r="G53" s="92"/>
     </row>
     <row r="54" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
@@ -36674,7 +36675,7 @@
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="121"/>
+      <c r="G54" s="92"/>
     </row>
     <row r="55" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
@@ -36683,7 +36684,7 @@
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="121"/>
+      <c r="G55" s="92"/>
     </row>
     <row r="56" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
@@ -36692,7 +36693,7 @@
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="121"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="57" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
@@ -36701,7 +36702,7 @@
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="121"/>
+      <c r="G57" s="92"/>
     </row>
     <row r="58" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
@@ -36710,7 +36711,7 @@
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="121"/>
+      <c r="G58" s="92"/>
     </row>
     <row r="59" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
@@ -36719,7 +36720,7 @@
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="121"/>
+      <c r="G59" s="92"/>
     </row>
     <row r="60" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
@@ -36728,7 +36729,7 @@
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="121"/>
+      <c r="G60" s="92"/>
     </row>
     <row r="61" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
@@ -36737,7 +36738,7 @@
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="121"/>
+      <c r="G61" s="92"/>
     </row>
     <row r="62" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
@@ -36746,7 +36747,7 @@
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="121"/>
+      <c r="G62" s="92"/>
     </row>
     <row r="63" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
@@ -36755,7 +36756,7 @@
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
-      <c r="G63" s="121"/>
+      <c r="G63" s="92"/>
     </row>
     <row r="64" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
@@ -36764,7 +36765,7 @@
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="121"/>
+      <c r="G64" s="92"/>
     </row>
     <row r="65" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
@@ -36773,7 +36774,7 @@
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="121"/>
+      <c r="G65" s="92"/>
     </row>
     <row r="66" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
@@ -36782,7 +36783,7 @@
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="27"/>
-      <c r="G66" s="121"/>
+      <c r="G66" s="92"/>
     </row>
     <row r="67" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
@@ -36791,7 +36792,7 @@
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="27"/>
-      <c r="G67" s="121"/>
+      <c r="G67" s="92"/>
     </row>
     <row r="68" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
@@ -36800,7 +36801,7 @@
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="27"/>
-      <c r="G68" s="121"/>
+      <c r="G68" s="92"/>
     </row>
     <row r="69" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
@@ -36809,7 +36810,7 @@
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="27"/>
-      <c r="G69" s="121"/>
+      <c r="G69" s="92"/>
     </row>
     <row r="70" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
@@ -36818,7 +36819,7 @@
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="27"/>
-      <c r="G70" s="121"/>
+      <c r="G70" s="92"/>
     </row>
     <row r="71" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
@@ -36827,7 +36828,7 @@
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="27"/>
-      <c r="G71" s="121"/>
+      <c r="G71" s="92"/>
     </row>
     <row r="72" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
@@ -36836,7 +36837,7 @@
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="27"/>
-      <c r="G72" s="121"/>
+      <c r="G72" s="92"/>
     </row>
     <row r="73" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
@@ -36845,7 +36846,7 @@
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="27"/>
-      <c r="G73" s="121"/>
+      <c r="G73" s="92"/>
     </row>
     <row r="74" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
@@ -36854,7 +36855,7 @@
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="27"/>
-      <c r="G74" s="121"/>
+      <c r="G74" s="92"/>
     </row>
     <row r="75" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
@@ -36863,7 +36864,7 @@
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="27"/>
-      <c r="G75" s="121"/>
+      <c r="G75" s="92"/>
     </row>
     <row r="76" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
@@ -36872,7 +36873,7 @@
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="27"/>
-      <c r="G76" s="121"/>
+      <c r="G76" s="92"/>
     </row>
     <row r="77" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
@@ -36881,7 +36882,7 @@
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="27"/>
-      <c r="G77" s="121"/>
+      <c r="G77" s="92"/>
     </row>
     <row r="78" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
@@ -36890,7 +36891,7 @@
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="27"/>
-      <c r="G78" s="121"/>
+      <c r="G78" s="92"/>
     </row>
     <row r="79" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
@@ -36899,7 +36900,7 @@
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
       <c r="F79" s="27"/>
-      <c r="G79" s="121"/>
+      <c r="G79" s="92"/>
     </row>
     <row r="80" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
@@ -36908,7 +36909,7 @@
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="27"/>
-      <c r="G80" s="121"/>
+      <c r="G80" s="92"/>
     </row>
     <row r="81" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
@@ -36917,7 +36918,7 @@
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
-      <c r="G81" s="121"/>
+      <c r="G81" s="92"/>
     </row>
     <row r="82" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
@@ -36926,7 +36927,7 @@
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
       <c r="F82" s="27"/>
-      <c r="G82" s="121"/>
+      <c r="G82" s="92"/>
     </row>
     <row r="83" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
@@ -36935,7 +36936,7 @@
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
       <c r="F83" s="27"/>
-      <c r="G83" s="121"/>
+      <c r="G83" s="92"/>
     </row>
     <row r="84" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
@@ -36944,7 +36945,7 @@
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
       <c r="F84" s="27"/>
-      <c r="G84" s="121"/>
+      <c r="G84" s="92"/>
     </row>
     <row r="85" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
@@ -36953,7 +36954,7 @@
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
       <c r="F85" s="27"/>
-      <c r="G85" s="121"/>
+      <c r="G85" s="92"/>
     </row>
     <row r="86" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
@@ -36962,7 +36963,7 @@
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
       <c r="F86" s="27"/>
-      <c r="G86" s="121"/>
+      <c r="G86" s="92"/>
     </row>
     <row r="87" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
@@ -36971,7 +36972,7 @@
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
       <c r="F87" s="27"/>
-      <c r="G87" s="121"/>
+      <c r="G87" s="92"/>
     </row>
     <row r="88" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
@@ -36980,7 +36981,7 @@
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
       <c r="F88" s="27"/>
-      <c r="G88" s="121"/>
+      <c r="G88" s="92"/>
     </row>
     <row r="89" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
@@ -36989,7 +36990,7 @@
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
       <c r="F89" s="27"/>
-      <c r="G89" s="121"/>
+      <c r="G89" s="92"/>
     </row>
     <row r="90" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
@@ -36998,7 +36999,7 @@
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
       <c r="F90" s="27"/>
-      <c r="G90" s="121"/>
+      <c r="G90" s="92"/>
     </row>
     <row r="91" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
@@ -37007,7 +37008,7 @@
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
       <c r="F91" s="27"/>
-      <c r="G91" s="121"/>
+      <c r="G91" s="92"/>
     </row>
     <row r="92" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
@@ -37016,7 +37017,7 @@
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
       <c r="F92" s="27"/>
-      <c r="G92" s="121"/>
+      <c r="G92" s="92"/>
     </row>
     <row r="93" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
@@ -37025,7 +37026,7 @@
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
       <c r="F93" s="27"/>
-      <c r="G93" s="121"/>
+      <c r="G93" s="92"/>
     </row>
     <row r="94" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
@@ -37034,7 +37035,7 @@
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
       <c r="F94" s="27"/>
-      <c r="G94" s="121"/>
+      <c r="G94" s="92"/>
     </row>
     <row r="95" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
@@ -37043,7 +37044,7 @@
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
       <c r="F95" s="27"/>
-      <c r="G95" s="121"/>
+      <c r="G95" s="92"/>
     </row>
     <row r="96" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
@@ -37052,7 +37053,7 @@
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
       <c r="F96" s="27"/>
-      <c r="G96" s="121"/>
+      <c r="G96" s="92"/>
     </row>
     <row r="97" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
@@ -37061,7 +37062,7 @@
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
       <c r="F97" s="27"/>
-      <c r="G97" s="121"/>
+      <c r="G97" s="92"/>
     </row>
     <row r="98" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
@@ -37070,7 +37071,7 @@
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
       <c r="F98" s="27"/>
-      <c r="G98" s="121"/>
+      <c r="G98" s="92"/>
     </row>
     <row r="99" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
@@ -37079,7 +37080,7 @@
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="121"/>
+      <c r="G99" s="92"/>
     </row>
     <row r="100" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
@@ -37088,7 +37089,7 @@
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
-      <c r="G100" s="121"/>
+      <c r="G100" s="92"/>
     </row>
     <row r="101" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
@@ -37097,7 +37098,7 @@
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
-      <c r="G101" s="121"/>
+      <c r="G101" s="92"/>
     </row>
     <row r="102" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="103" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37149,26 +37150,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="270" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>668</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="118"/>
+      <c r="A1" s="120" t="s">
+        <v>667</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -37178,49 +37179,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="K2" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>604</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>609</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>605</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>255</v>
@@ -37299,71 +37300,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>706</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="97" t="s">
-        <v>740</v>
-      </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="112"/>
+      <c r="A1" s="94" t="s">
+        <v>705</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="101" t="s">
+        <v>739</v>
+      </c>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="116"/>
     </row>
     <row r="2" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>707</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="D2" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>713</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>715</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>718</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>716</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="M2" s="87" t="s">
+      <c r="O2" s="15" t="s">
         <v>719</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -38619,13 +38620,13 @@
         <v>206</v>
       </c>
       <c r="AL1" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM1" s="41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AN1" s="41" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -38633,22 +38634,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>28</v>
@@ -38660,13 +38661,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N2" s="44" t="s">
         <v>376</v>
@@ -38687,10 +38688,10 @@
         <v>237</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="V2" s="44" t="s">
         <v>414</v>
@@ -38741,13 +38742,13 @@
         <v>208</v>
       </c>
       <c r="AL2" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AM2" s="43" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -38755,16 +38756,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -38805,7 +38806,7 @@
         <v>417</v>
       </c>
       <c r="T3" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="U3" s="44"/>
       <c r="V3" s="44" t="s">
@@ -38857,13 +38858,13 @@
         <v>209</v>
       </c>
       <c r="AL3" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM3" s="43" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -38871,16 +38872,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" t="s">
@@ -38911,7 +38912,7 @@
         <v>421</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
@@ -38949,7 +38950,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -38957,14 +38958,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44" t="s">
@@ -39014,14 +39015,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -39063,10 +39064,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" t="s">
@@ -39110,10 +39111,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" t="s">
@@ -39157,10 +39158,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" t="s">
@@ -39204,14 +39205,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -39251,14 +39252,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -39299,7 +39300,7 @@
       </c>
       <c r="F12" s="44"/>
       <c r="G12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -39338,7 +39339,7 @@
       </c>
       <c r="F13" s="44"/>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
@@ -39377,7 +39378,7 @@
       </c>
       <c r="F14" s="44"/>
       <c r="G14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
@@ -39494,7 +39495,7 @@
       </c>
       <c r="F17" s="44"/>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -39533,7 +39534,7 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -39572,7 +39573,7 @@
       </c>
       <c r="F19" s="44"/>
       <c r="G19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -39611,7 +39612,7 @@
       </c>
       <c r="F20" s="44"/>
       <c r="G20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -39689,7 +39690,7 @@
       </c>
       <c r="F22" s="44"/>
       <c r="G22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -39728,7 +39729,7 @@
       </c>
       <c r="F23" s="44"/>
       <c r="G23" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -39767,7 +39768,7 @@
       </c>
       <c r="F24" s="44"/>
       <c r="G24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
@@ -39845,7 +39846,7 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
@@ -39962,7 +39963,7 @@
       </c>
       <c r="F29" s="44"/>
       <c r="G29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -40040,7 +40041,7 @@
       </c>
       <c r="F31" s="44"/>
       <c r="G31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -40118,7 +40119,7 @@
       </c>
       <c r="F33" s="44"/>
       <c r="G33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -40157,7 +40158,7 @@
       </c>
       <c r="F34" s="44"/>
       <c r="G34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
@@ -40235,7 +40236,7 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
@@ -40313,7 +40314,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -40352,7 +40353,7 @@
       </c>
       <c r="F39" s="44"/>
       <c r="G39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
@@ -40585,7 +40586,7 @@
         <v>449</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M1" s="34"/>
     </row>
@@ -40684,7 +40685,7 @@
         <v>268</v>
       </c>
       <c r="L4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -40706,7 +40707,7 @@
         <v>269</v>
       </c>
       <c r="L5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -40821,7 +40822,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F12" s="27"/>
       <c r="H12" s="27" t="s">
@@ -40838,7 +40839,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F13" s="27"/>
       <c r="H13" s="27" t="s">
@@ -41694,7 +41695,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -41702,7 +41703,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -41710,7 +41711,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -41718,7 +41719,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -42014,14 +42015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>742</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
+      <c r="A1" s="94" t="s">
+        <v>741</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
@@ -42034,10 +42035,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>255</v>
@@ -43615,16 +43616,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>617</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>616</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -45963,19 +45964,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="169" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97" t="s">
-        <v>618</v>
-      </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" s="102"/>
+      <c r="I1" s="103"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -46003,7 +46004,7 @@
         <v>202</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -46039,13 +46040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>687</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
+      <c r="A1" s="94" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -46058,7 +46059,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>255</v>
@@ -46110,22 +46111,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
-        <v>739</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="95"/>
+      <c r="A1" s="94" t="s">
+        <v>738</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
     </row>
     <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -46138,34 +46139,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>688</v>
+      </c>
+      <c r="E2" s="74" t="s">
         <v>689</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="F2" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="G2" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>692</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="76" t="s">
         <v>693</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="J2" s="76" t="s">
         <v>694</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="K2" s="74" t="s">
         <v>695</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="L2" s="74" t="s">
         <v>696</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="M2" s="74" t="s">
         <v>697</v>
-      </c>
-      <c r="M2" s="74" t="s">
-        <v>698</v>
       </c>
       <c r="N2" s="77" t="s">
         <v>255</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F5F34-0EB6-C04E-AFDD-C47520B25E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96238EC-EEFD-6441-9101-2FBA2FAA7E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1100" windowWidth="26580" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="1140" windowWidth="26580" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -295,7 +295,7 @@
     <definedName name="workload_drop" localSheetId="3">#REF!</definedName>
     <definedName name="workload_drop">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5810,493 +5810,6 @@
     <t>Domain Name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Display Name(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Vault Type(mandatory)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Valid values are</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "default</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">".
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Replica Region(optional)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid only for vault type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"virtual_private"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Can't be same as the primary vault region.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-If a key/keys have to be created, enter below </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fields:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Key Compartment Name" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Key Display Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Protection Mode" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"HSM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SOFTWARE".</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Algorithm" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values are </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Length in bits" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Valid values for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"AES"  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>128, 192, 256</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"RSA" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2048, 3072, 4096</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                                          "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ECDSA"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   -  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>256, 384, 521</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Vault Compartment Name</t>
   </si>
   <si>
@@ -10448,51 +9961,6 @@
       <t xml:space="preserve">
 ** Management and Workload block volumes are needed only if SDDC is of Standard Shape.
 ** Standard shapes aren't compatible with Monthly billing interval commitment and advanced HCX license types.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2024.4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Modified description for VCNs, DRGs, BlockVolumes, SDDCs Tabs. Added a note in Exa-VMClusters Tab.</t>
     </r>
   </si>
   <si>
@@ -10773,6 +10241,559 @@
       </rPr>
       <t xml:space="preserve">
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Display Name(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Vault Type(mandatory)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Valid values are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Replica Region(optional)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid for both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"virtual_private"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" vault types. Can't be same as the primary vault region.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Key details can be left empty if no keys have to be created in the specified vault.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If a key/keys have to be created, enter below </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fields:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Key Compartment Name" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-  can be same as the Vault compartment or a different compartment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Key Display Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Should Not be more than 100 characters and should contain only Alpha-Numeric Characters, underscores, hyphens
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Protection Mode" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"HSM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SOFTWARE".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Algorithm" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES", "RSA", "ECDSA". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Length in bits" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Valid values for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"AES"  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 192, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"RSA" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2048, 3072, 4096</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                                          "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ECDSA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256, 384, 521</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2024.4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
   </si>
 </sst>
@@ -16913,7 +16934,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -16957,7 +16978,7 @@
       <c r="E1" s="100"/>
       <c r="F1" s="101"/>
       <c r="G1" s="99" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H1" s="100"/>
       <c r="I1" s="100"/>
@@ -17043,7 +17064,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -17118,7 +17139,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B1" s="104"/>
     </row>
@@ -17185,7 +17206,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -23196,7 +23217,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -23206,7 +23227,7 @@
       <c r="G1" s="111"/>
       <c r="H1" s="112"/>
       <c r="I1" s="99" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J1" s="100"/>
       <c r="K1" s="100"/>
@@ -23239,7 +23260,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>69</v>
@@ -23330,7 +23351,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -23456,7 +23477,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -23470,7 +23491,7 @@
       <c r="K1" s="100"/>
       <c r="L1" s="101"/>
       <c r="M1" s="113" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N1" s="114"/>
       <c r="O1" s="114"/>
@@ -23493,58 +23514,58 @@
         <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>718</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>739</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>719</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>740</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>720</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>721</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>721</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>723</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>724</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>725</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>725</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>731</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>732</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>733</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>255</v>
@@ -23615,7 +23636,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -23632,7 +23653,7 @@
       <c r="N1" s="100"/>
       <c r="O1" s="101"/>
       <c r="P1" s="110" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="Q1" s="111"/>
       <c r="R1" s="111"/>
@@ -23677,10 +23698,10 @@
         <v>517</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>742</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>743</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>744</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>518</v>
@@ -23695,7 +23716,7 @@
         <v>521</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O2" s="25" t="s">
         <v>522</v>
@@ -23719,7 +23740,7 @@
         <v>524</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>65</v>
@@ -23734,7 +23755,7 @@
         <v>526</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AB2" s="25" t="s">
         <v>527</v>
@@ -23805,7 +23826,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -23846,7 +23867,7 @@
         <v>386</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>88</v>
@@ -23926,7 +23947,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -23970,7 +23991,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>98</v>
@@ -24056,7 +24077,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -24288,7 +24309,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -24311,10 +24332,10 @@
         <v>701</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>255</v>
@@ -25107,7 +25128,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="106" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -25121,7 +25142,7 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>636</v>
@@ -25196,7 +25217,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>501</v>
@@ -25599,7 +25620,7 @@
         <v>266</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -25640,7 +25661,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -25669,7 +25690,7 @@
         <v>507</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>508</v>
@@ -25774,7 +25795,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1" s="100"/>
       <c r="C1" s="100"/>
@@ -25814,7 +25835,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>448</v>
@@ -31740,7 +31761,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -31780,10 +31801,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>755</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>756</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>757</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>450</v>
@@ -36075,7 +36096,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -36208,7 +36229,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -36232,7 +36253,7 @@
         <v>643</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>654</v>
@@ -36313,7 +36334,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -36331,16 +36352,16 @@
         <v>596</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>763</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>764</v>
       </c>
       <c r="G2" s="93" t="s">
         <v>701</v>
@@ -37441,7 +37462,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -37450,7 +37471,7 @@
       <c r="F1" s="95"/>
       <c r="G1" s="95"/>
       <c r="H1" s="102" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I1" s="116"/>
       <c r="J1" s="116"/>
@@ -37465,46 +37486,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>703</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="D2" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>709</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>711</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>714</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>710</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="M2" s="87" t="s">
+      <c r="O2" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -42156,7 +42177,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>
@@ -43757,7 +43778,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -46252,7 +46273,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B1" s="97"/>
       <c r="C1" s="97"/>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96238EC-EEFD-6441-9101-2FBA2FAA7E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B09B020-5AB5-164E-9D43-55CFE6631EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="1140" windowWidth="26580" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="860" windowWidth="26580" windowHeight="17300" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -36177,9 +36177,7 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" sqref="H3:H1048576" xr:uid="{89BA7024-AC40-C54B-96AA-4FB1476BE9A7}">
-      <formula1>"AD1,AD2,AD3,multi-AD"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" sqref="H3:H1048576" xr:uid="{89BA7024-AC40-C54B-96AA-4FB1476BE9A7}"/>
     <dataValidation type="list" allowBlank="1" sqref="G3:G1048576" xr:uid="{A0359C5C-7BD6-EA4B-8F45-D40E7142A750}">
       <formula1>"HOUR,MONTH,ONE_YEAR,THREE_YEARS"</formula1>
     </dataValidation>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263BE640-A49C-C143-9D56-2DE14628165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AFC42-23F2-2648-8A88-88D76E536C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="799">
   <si>
     <t>Region</t>
   </si>
@@ -3331,9 +3331,6 @@
     <t>Saopaulo</t>
   </si>
   <si>
-    <t>Singapore</t>
-  </si>
-  <si>
     <t>Stockholm</t>
   </si>
   <si>
@@ -11364,6 +11361,12 @@
   </si>
   <si>
     <t>users_variable_value</t>
+  </si>
+  <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -17532,7 +17535,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -17572,7 +17575,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -17580,7 +17583,7 @@
       <c r="E1" s="104"/>
       <c r="F1" s="105"/>
       <c r="G1" s="103" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1" s="104"/>
       <c r="I1" s="104"/>
@@ -17670,7 +17673,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -17678,7 +17681,7 @@
       <c r="E1" s="99"/>
       <c r="F1" s="99"/>
       <c r="G1" s="109" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
@@ -17697,7 +17700,7 @@
         <v>379</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>380</v>
@@ -17749,7 +17752,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1" s="108"/>
     </row>
@@ -17820,7 +17823,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -17908,7 +17911,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -17919,7 +17922,7 @@
       <c r="H1" s="104"/>
       <c r="I1" s="105"/>
       <c r="J1" s="110" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1" s="110"/>
       <c r="L1" s="110"/>
@@ -17946,7 +17949,7 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>11</v>
@@ -22849,7 +22852,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -22935,7 +22938,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23016,7 +23019,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23133,7 +23136,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23259,7 +23262,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -23278,22 +23281,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>628</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>629</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>255</v>
@@ -23593,7 +23596,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23661,7 +23664,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -23688,22 +23691,22 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>635</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>636</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>255</v>
@@ -23786,7 +23789,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23871,7 +23874,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -23881,7 +23884,7 @@
       <c r="G1" s="115"/>
       <c r="H1" s="116"/>
       <c r="I1" s="103" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
@@ -23914,7 +23917,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>69</v>
@@ -23941,7 +23944,7 @@
         <v>494</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>71</v>
@@ -23959,7 +23962,7 @@
         <v>74</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V2" s="24" t="s">
         <v>255</v>
@@ -24009,7 +24012,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24040,7 +24043,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>80</v>
@@ -24061,16 +24064,16 @@
         <v>258</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>697</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>698</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>699</v>
       </c>
       <c r="O2" s="25" t="s">
         <v>495</v>
@@ -24139,7 +24142,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24153,7 +24156,7 @@
       <c r="K1" s="104"/>
       <c r="L1" s="105"/>
       <c r="M1" s="117" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N1" s="118"/>
       <c r="O1" s="118"/>
@@ -24176,58 +24179,58 @@
         <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>717</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>738</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>718</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>739</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>719</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>720</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>720</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>722</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>723</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>724</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>724</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>731</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>732</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>255</v>
@@ -24302,7 +24305,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24319,7 +24322,7 @@
       <c r="N1" s="104"/>
       <c r="O1" s="105"/>
       <c r="P1" s="114" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q1" s="115"/>
       <c r="R1" s="115"/>
@@ -24352,7 +24355,7 @@
         <v>514</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>515</v>
@@ -24364,10 +24367,10 @@
         <v>517</v>
       </c>
       <c r="H2" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="I2" s="25" t="s">
         <v>742</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>743</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>518</v>
@@ -24382,7 +24385,7 @@
         <v>521</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O2" s="25" t="s">
         <v>522</v>
@@ -24406,13 +24409,13 @@
         <v>524</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Y2" s="25" t="s">
         <v>525</v>
@@ -24421,7 +24424,7 @@
         <v>526</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AB2" s="25" t="s">
         <v>527</v>
@@ -24439,13 +24442,13 @@
         <v>529</v>
       </c>
       <c r="AG2" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="AH2" s="25" t="s">
         <v>679</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="25" t="s">
         <v>680</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -24496,7 +24499,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -24537,7 +24540,7 @@
         <v>386</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>88</v>
@@ -24621,7 +24624,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24665,7 +24668,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>98</v>
@@ -24755,7 +24758,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -24995,7 +24998,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -25015,13 +25018,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>255</v>
@@ -25761,7 +25764,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -25822,7 +25825,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -25836,10 +25839,10 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25915,7 +25918,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>501</v>
@@ -26307,10 +26310,10 @@
         <v>505</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>700</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>701</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>100</v>
@@ -26322,7 +26325,7 @@
         <v>266</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -26367,7 +26370,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -26396,7 +26399,7 @@
         <v>507</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>508</v>
@@ -26505,7 +26508,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -26545,7 +26548,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>448</v>
@@ -29629,7 +29632,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -32479,7 +32482,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -32519,10 +32522,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="F2" s="38" t="s">
         <v>755</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>756</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>450</v>
@@ -32537,16 +32540,16 @@
         <v>472</v>
       </c>
       <c r="K2" s="94" t="s">
+        <v>669</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>670</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="M2" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>672</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>673</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>473</v>
@@ -36818,7 +36821,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -36846,46 +36849,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>682</v>
-      </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>644</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="56" t="s">
         <v>646</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="71" t="s">
+        <v>673</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>674</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="L2" s="71" t="s">
-        <v>674</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>675</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>652</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>653</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>71</v>
@@ -36953,7 +36956,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -36974,43 +36977,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>662</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>663</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>664</v>
       </c>
       <c r="O2" s="37"/>
     </row>
@@ -37023,7 +37026,7 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -37062,7 +37065,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -37077,22 +37080,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>763</v>
-      </c>
       <c r="G2" s="93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -38044,7 +38047,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -38072,49 +38075,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="K2" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>607</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>603</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>255</v>
@@ -38198,7 +38201,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -38207,7 +38210,7 @@
       <c r="F1" s="99"/>
       <c r="G1" s="99"/>
       <c r="H1" s="106" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I1" s="120"/>
       <c r="J1" s="120"/>
@@ -38222,46 +38225,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="D2" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>710</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>713</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>709</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>711</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="M2" s="87" t="s">
+      <c r="O2" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -39407,7 +39410,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -39417,7 +39420,7 @@
       <c r="G1" s="123"/>
       <c r="H1" s="124"/>
       <c r="I1" s="114" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
@@ -39454,10 +39457,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="96" t="s">
+        <v>775</v>
+      </c>
+      <c r="F2" s="95" t="s">
         <v>776</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>777</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>65</v>
@@ -39466,64 +39469,64 @@
         <v>67</v>
       </c>
       <c r="I2" s="96" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J2" s="95" t="s">
         <v>66</v>
       </c>
       <c r="K2" s="95" t="s">
+        <v>777</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>778</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>779</v>
       </c>
       <c r="M2" s="96" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="96" t="s">
+        <v>779</v>
+      </c>
+      <c r="O2" s="96" t="s">
         <v>780</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="P2" s="96" t="s">
         <v>781</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="Q2" s="96" t="s">
         <v>782</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="R2" s="96" t="s">
         <v>783</v>
       </c>
-      <c r="R2" s="96" t="s">
+      <c r="S2" s="96" t="s">
         <v>784</v>
       </c>
-      <c r="S2" s="96" t="s">
+      <c r="T2" s="96" t="s">
         <v>785</v>
       </c>
-      <c r="T2" s="96" t="s">
+      <c r="U2" s="96" t="s">
         <v>786</v>
       </c>
-      <c r="U2" s="96" t="s">
+      <c r="V2" s="96" t="s">
         <v>787</v>
       </c>
-      <c r="V2" s="96" t="s">
+      <c r="W2" s="96" t="s">
         <v>788</v>
       </c>
-      <c r="W2" s="96" t="s">
+      <c r="X2" s="96" t="s">
         <v>789</v>
       </c>
-      <c r="X2" s="96" t="s">
+      <c r="Y2" s="96" t="s">
         <v>790</v>
       </c>
-      <c r="Y2" s="96" t="s">
+      <c r="Z2" s="96" t="s">
         <v>791</v>
-      </c>
-      <c r="Z2" s="96" t="s">
-        <v>792</v>
       </c>
       <c r="AA2" s="96" t="s">
         <v>61</v>
       </c>
       <c r="AB2" s="96" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AC2" s="95" t="s">
         <v>255</v>
@@ -45562,7 +45565,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -45588,13 +45591,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>795</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>796</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>797</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -46847,9 +46850,11 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1F6A15-066C-494D-992B-F6A4A794D67F}">
-  <dimension ref="A1:AN50"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47017,16 +47022,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>19</v>
@@ -47044,13 +47049,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N2" s="44" t="s">
         <v>376</v>
@@ -47071,10 +47076,10 @@
         <v>237</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="V2" s="44" t="s">
         <v>414</v>
@@ -47139,16 +47144,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -47189,7 +47194,7 @@
         <v>417</v>
       </c>
       <c r="T3" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U3" s="44"/>
       <c r="V3" s="44" t="s">
@@ -47255,16 +47260,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" t="s">
@@ -47295,7 +47300,7 @@
         <v>421</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
@@ -47341,10 +47346,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" t="s">
@@ -47398,10 +47403,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" t="s">
@@ -47450,7 +47455,7 @@
         <v>533</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" t="s">
@@ -47494,10 +47499,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" t="s">
@@ -47541,10 +47546,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" t="s">
@@ -47588,10 +47593,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" t="s">
@@ -47635,10 +47640,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" t="s">
@@ -47956,7 +47961,7 @@
       </c>
       <c r="F19" s="44"/>
       <c r="G19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -48346,7 +48351,7 @@
       </c>
       <c r="F29" s="44"/>
       <c r="G29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -48697,7 +48702,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" t="s">
-        <v>559</v>
+        <v>797</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -48731,12 +48736,9 @@
       <c r="AI38" s="44"/>
     </row>
     <row r="39" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43">
-        <v>40</v>
-      </c>
       <c r="F39" s="44"/>
       <c r="G39" t="s">
-        <v>560</v>
+        <v>798</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
@@ -48761,9 +48763,7 @@
       <c r="AB39" s="44"/>
       <c r="AC39" s="44"/>
       <c r="AD39" s="44"/>
-      <c r="AE39" s="44" t="s">
-        <v>195</v>
-      </c>
+      <c r="AE39" s="44"/>
       <c r="AF39" s="47"/>
       <c r="AG39" s="44"/>
       <c r="AH39" s="44"/>
@@ -48771,11 +48771,11 @@
     </row>
     <row r="40" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -48797,10 +48797,11 @@
       <c r="Y40" s="44"/>
       <c r="Z40" s="44"/>
       <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
       <c r="AC40" s="44"/>
       <c r="AD40" s="44"/>
       <c r="AE40" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF40" s="47"/>
       <c r="AG40" s="44"/>
@@ -48809,35 +48810,61 @@
     </row>
     <row r="41" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="43">
-        <v>42</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F41" s="44"/>
       <c r="G41" t="s">
-        <v>438</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
       <c r="T41" s="44"/>
       <c r="U41" s="44"/>
-      <c r="AF41" s="48"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF41" s="47"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
     </row>
     <row r="42" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K42" s="44"/>
       <c r="M42" s="44"/>
       <c r="T42" s="44"/>
       <c r="U42" s="44"/>
+      <c r="AF42" s="48"/>
     </row>
     <row r="43" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K43" s="44"/>
       <c r="M43" s="44"/>
@@ -48846,10 +48873,10 @@
     </row>
     <row r="44" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="43">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K44" s="44"/>
       <c r="M44" s="44"/>
@@ -48858,7 +48885,10 @@
     </row>
     <row r="45" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>441</v>
       </c>
       <c r="K45" s="44"/>
       <c r="M45" s="44"/>
@@ -48867,7 +48897,7 @@
     </row>
     <row r="46" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="43">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46" s="44"/>
       <c r="M46" s="44"/>
@@ -48876,7 +48906,7 @@
     </row>
     <row r="47" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47" s="44"/>
       <c r="M47" s="44"/>
@@ -48885,7 +48915,7 @@
     </row>
     <row r="48" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="43">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48" s="44"/>
       <c r="M48" s="44"/>
@@ -48894,7 +48924,7 @@
     </row>
     <row r="49" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="43">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K49" s="44"/>
       <c r="M49" s="44"/>
@@ -48902,7 +48932,16 @@
       <c r="U49" s="44"/>
     </row>
     <row r="50" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="AB50" s="49"/>
+      <c r="A50" s="43">
+        <v>50</v>
+      </c>
+      <c r="K50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+    </row>
+    <row r="51" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB51" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50090,7 +50129,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -50098,7 +50137,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -50106,7 +50145,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -50114,7 +50153,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -50415,7 +50454,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -50434,10 +50473,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>255</v>
@@ -52020,7 +52059,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -54380,7 +54419,7 @@
       <c r="E1" s="104"/>
       <c r="F1" s="105"/>
       <c r="G1" s="106" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1" s="107"/>
       <c r="I1" s="108"/>
@@ -54452,7 +54491,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -54470,7 +54509,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>255</v>
@@ -54527,7 +54566,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -54554,34 +54593,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="F2" s="74" t="s">
         <v>686</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="G2" s="74" t="s">
         <v>687</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>688</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="J2" s="76" t="s">
         <v>690</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="K2" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="L2" s="74" t="s">
         <v>692</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="M2" s="74" t="s">
         <v>693</v>
-      </c>
-      <c r="M2" s="74" t="s">
-        <v>694</v>
       </c>
       <c r="N2" s="77" t="s">
         <v>255</v>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AFC42-23F2-2648-8A88-88D76E536C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4759B9-83AB-E946-90B2-EA5EF59804DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10551,51 +10551,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release - v2025.1.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- Added MySQL sheets,  Added Firewall-Policy-TunnelInspect sheet for tunnel inspection</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
@@ -11367,6 +11322,51 @@
   </si>
   <si>
     <t>Singapore-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release - v2025.1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Updated Region column - added support for multiple data centers in one region like Singapore</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17535,7 +17535,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -23874,7 +23874,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -39410,7 +39410,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -39420,7 +39420,7 @@
       <c r="G1" s="123"/>
       <c r="H1" s="124"/>
       <c r="I1" s="114" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
@@ -39457,10 +39457,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="96" t="s">
+        <v>774</v>
+      </c>
+      <c r="F2" s="95" t="s">
         <v>775</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>776</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>65</v>
@@ -39475,58 +39475,58 @@
         <v>66</v>
       </c>
       <c r="K2" s="95" t="s">
+        <v>776</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>777</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>778</v>
       </c>
       <c r="M2" s="96" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="96" t="s">
+        <v>778</v>
+      </c>
+      <c r="O2" s="96" t="s">
         <v>779</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="P2" s="96" t="s">
         <v>780</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="Q2" s="96" t="s">
         <v>781</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="R2" s="96" t="s">
         <v>782</v>
       </c>
-      <c r="R2" s="96" t="s">
+      <c r="S2" s="96" t="s">
         <v>783</v>
       </c>
-      <c r="S2" s="96" t="s">
+      <c r="T2" s="96" t="s">
         <v>784</v>
       </c>
-      <c r="T2" s="96" t="s">
+      <c r="U2" s="96" t="s">
         <v>785</v>
       </c>
-      <c r="U2" s="96" t="s">
+      <c r="V2" s="96" t="s">
         <v>786</v>
       </c>
-      <c r="V2" s="96" t="s">
+      <c r="W2" s="96" t="s">
         <v>787</v>
       </c>
-      <c r="W2" s="96" t="s">
+      <c r="X2" s="96" t="s">
         <v>788</v>
       </c>
-      <c r="X2" s="96" t="s">
+      <c r="Y2" s="96" t="s">
         <v>789</v>
       </c>
-      <c r="Y2" s="96" t="s">
+      <c r="Z2" s="96" t="s">
         <v>790</v>
-      </c>
-      <c r="Z2" s="96" t="s">
-        <v>791</v>
       </c>
       <c r="AA2" s="96" t="s">
         <v>61</v>
       </c>
       <c r="AB2" s="96" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AC2" s="95" t="s">
         <v>255</v>
@@ -45565,7 +45565,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -45591,13 +45591,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>794</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>795</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>796</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -48702,7 +48702,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -48738,7 +48738,7 @@
     <row r="39" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F39" s="44"/>
       <c r="G39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>

--- a/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-Blank-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop1/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4759B9-83AB-E946-90B2-EA5EF59804DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF558CF2-22C7-C644-BF37-9285823665BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="1080" windowWidth="30240" windowHeight="17480" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="807">
   <si>
     <t>Region</t>
   </si>
@@ -3181,9 +3181,6 @@
     <t>Whitelisted IP Addresses</t>
   </si>
   <si>
-    <t>Data Storage Size in TB</t>
-  </si>
-  <si>
     <t>Database Workload</t>
   </si>
   <si>
@@ -8295,190 +8292,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-"DB Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Should Not be more than 14 character and should contain only Alpha-Numeric Characters.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Admin Password" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Password must be 9 to 30 characters and contain at least 2 uppercase, 2 lowercase, 2 special, and 2 numeric 
-                                  characters. The special characters must be _, #, or -.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Database Edition"-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This field should be provided only for BYOL license model. Leave empty for License_Included
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Whitelisted IP Addresses" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Provide comma seperated IP addresses to restrict access to specified IP addresses
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Provide this detail to restrict access to a private endpoint within an OCI VCN in the format &lt;network-compartment-name&gt;@&lt;vcn-name&gt;::&lt;subnet-name&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Network Details" and "NSGs"- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">These fields should only be provided for private access
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Defined Tags" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                            </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 </t>
     </r>
@@ -11354,7 +11167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2025.1.2</t>
+      <t>Release - v2025.2.0</t>
     </r>
     <r>
       <rPr>
@@ -11365,8 +11178,263 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Updated Region column - added support for multiple data centers in one region like Singapore</t>
-    </r>
+Updated ADB sheet, VCNs sheet</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle GUA IPv6 Enabled</t>
+  </si>
+  <si>
+    <t>ULA IPv6 CIDR</t>
+  </si>
+  <si>
+    <t>BYOIP IPv6 Details</t>
+  </si>
+  <si>
+    <t>IPv6CIDR Block</t>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+"DB Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Should Not be more than 14 character and should contain only Alpha-Numeric Characters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Admin Password" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Password must be 9 to 30 characters and contain at least 2 uppercase, 2 lowercase, 2 special, and 2 numeric 
+                                  characters. The special characters must be _, #, or -. You can also provide vault secret ocid in case password is stored in a vault.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Database Edition"-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This field should be provided only for BYOL license model. Leave empty for License_Included
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Whitelisted IP Addresses" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provide comma seperated IP addresses to restrict access to specified IP addresses
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Provide this detail to restrict access to a private endpoint within an OCI VCN in the format &lt;network-compartment-name&gt;@&lt;vcn-name&gt;::&lt;subnet-name&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Network Details" and "NSGs"- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">These fields should only be provided for private access
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"CPU Detail" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;model&gt;::&lt;core_count&gt; eg ECPU::1 or OCPU::1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Data Storage Size" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eg TB::1 or GB::1045
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Defined Tags" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                             Multiple Tag Key , Values can be specified using semi colon (;) as the delimiter. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                            </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: Operations.CostCenter=01;Users.Name=user01</t>
+    </r>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>CPU Detail</t>
+  </si>
+  <si>
+    <t>Private Endpoint IP</t>
+  </si>
+  <si>
+    <t>Is Auto Scaling Enabled</t>
+  </si>
+  <si>
+    <t>Data Storage Size</t>
   </si>
 </sst>
 </file>
@@ -17535,7 +17603,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -17553,45 +17621,48 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L1"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="26.5" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="4" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+    <col min="14" max="14" width="26.5" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="247" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="247" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
       <c r="D1" s="104"/>
       <c r="E1" s="104"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="103" t="s">
-        <v>768</v>
-      </c>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
       <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="103" t="s">
+        <v>766</v>
+      </c>
       <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
-    </row>
-    <row r="2" spans="1:12" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="105"/>
+    </row>
+    <row r="2" spans="1:15" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -17604,38 +17675,47 @@
       <c r="D2" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="O2" s="24" t="s">
         <v>255</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:O1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:XFD1048576" xr:uid="{3472EE15-4A01-9346-B37E-597C1ED420B5}"/>
+    <dataValidation allowBlank="1" sqref="A1:D1048576 H1:XFD1048576 E1:G1 E3:G1048576" xr:uid="{3472EE15-4A01-9346-B37E-597C1ED420B5}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17673,7 +17753,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -17681,7 +17761,7 @@
       <c r="E1" s="99"/>
       <c r="F1" s="99"/>
       <c r="G1" s="109" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
@@ -17700,7 +17780,7 @@
         <v>379</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>380</v>
@@ -17752,7 +17832,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="30" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B1" s="108"/>
     </row>
@@ -17823,7 +17903,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -17880,10 +17960,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T483"/>
+  <dimension ref="A1:U483"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17892,26 +17972,26 @@
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" customWidth="1"/>
-    <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="24.1640625" customWidth="1"/>
+    <col min="5" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="192.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -17920,11 +18000,11 @@
       <c r="F1" s="104"/>
       <c r="G1" s="104"/>
       <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="110" t="s">
-        <v>616</v>
-      </c>
-      <c r="K1" s="110"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="110" t="s">
+        <v>615</v>
+      </c>
       <c r="L1" s="110"/>
       <c r="M1" s="110"/>
       <c r="N1" s="110"/>
@@ -17934,8 +18014,9 @@
       <c r="R1" s="110"/>
       <c r="S1" s="110"/>
       <c r="T1" s="110"/>
-    </row>
-    <row r="2" spans="1:20" s="30" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="110"/>
+    </row>
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -17949,4871 +18030,4874 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O50" si="0">IF(H3="public","n",IF(H3="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P50" si="1">IF(H3="public","y",IF(H3="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O4" t="str">
+        <f t="shared" ref="P3:P50" si="0">IF(I3="public","n",IF(I3="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q50" si="1">IF(I3="public","y",IF(I3="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O5" t="str">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O6" t="str">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P6" t="str">
+      <c r="Q6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O7" t="str">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P7" t="str">
+      <c r="Q7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O8" t="str">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P8" t="str">
+      <c r="Q8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O9" t="str">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O10" t="str">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O11" t="str">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O12" t="str">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O13" t="str">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O14" t="str">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O15" t="str">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O16" t="str">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O17" t="str">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O18" t="str">
+    <row r="18" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O19" t="str">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O20" t="str">
+    <row r="20" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O21" t="str">
+    <row r="21" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O22" t="str">
+    <row r="22" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O23" t="str">
+    <row r="23" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O24" t="str">
+    <row r="24" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P24" t="str">
+      <c r="Q24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O25" t="str">
+    <row r="25" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O26" t="str">
+    <row r="26" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O27" t="str">
+    <row r="27" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P27" t="str">
+      <c r="Q27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O28" t="str">
+    <row r="28" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O29" t="str">
+    <row r="29" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O30" t="str">
+    <row r="30" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O31" t="str">
+    <row r="31" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O32" t="str">
+    <row r="32" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O33" t="str">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P33" t="str">
+      <c r="Q33" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O34" t="str">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O35" t="str">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O36" t="str">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P36" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O37" t="str">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O38" t="str">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O39" t="str">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O40" t="str">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O41" t="str">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O42" t="str">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P42" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O43" t="str">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P43" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O44" t="str">
+    <row r="44" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O45" t="str">
+    <row r="45" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O46" t="str">
+    <row r="46" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O47" t="str">
+    <row r="47" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O48" t="str">
+    <row r="48" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P48" t="str">
+      <c r="Q48" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O49" t="str">
+    <row r="49" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O50" t="str">
+    <row r="50" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P50" t="str">
+      <c r="Q50" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O51" t="str">
-        <f t="shared" ref="O51:O114" si="2">IF(H51="public","n",IF(H51="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="51" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P51" t="str">
-        <f t="shared" ref="P51:P114" si="3">IF(H51="public","y",IF(H51="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O52" t="str">
+        <f t="shared" ref="P51:P114" si="2">IF(I51="public","n",IF(I51="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51:Q114" si="3">IF(I51="public","y",IF(I51="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P52" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P52" t="str">
+      <c r="Q52" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O53" t="str">
+    <row r="53" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P53" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O54" t="str">
+    <row r="54" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P54" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O55" t="str">
+    <row r="55" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P55" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P55" t="str">
+      <c r="Q55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O56" t="str">
+    <row r="56" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P56" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P56" t="str">
+      <c r="Q56" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O57" t="str">
+    <row r="57" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P57" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P57" t="str">
+      <c r="Q57" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O58" t="str">
+    <row r="58" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P58" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P58" t="str">
+      <c r="Q58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O59" t="str">
+    <row r="59" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P59" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O60" t="str">
+    <row r="60" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P60" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P60" t="str">
+      <c r="Q60" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O61" t="str">
+    <row r="61" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P61" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P61" t="str">
+      <c r="Q61" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O62" t="str">
+    <row r="62" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P62" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O63" t="str">
+    <row r="63" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P63" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O64" t="str">
+    <row r="64" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P64" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P64" t="str">
+      <c r="Q64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" t="str">
+    <row r="65" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" t="str">
+    <row r="66" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P66" t="str">
+      <c r="Q66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" t="str">
+    <row r="67" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P67" t="str">
+      <c r="Q67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" t="str">
+    <row r="68" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P68" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P68" t="str">
+      <c r="Q68" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" t="str">
+    <row r="69" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P69" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P69" t="str">
+      <c r="Q69" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" t="str">
+    <row r="70" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P70" t="str">
+      <c r="Q70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" t="str">
+    <row r="71" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P71" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P71" t="str">
+      <c r="Q71" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" t="str">
+    <row r="72" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P72" t="str">
+      <c r="Q72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" t="str">
+    <row r="73" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P73" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P73" t="str">
+      <c r="Q73" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" t="str">
+    <row r="74" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P74" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P74" t="str">
+      <c r="Q74" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" t="str">
+    <row r="75" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P75" t="str">
+      <c r="Q75" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" t="str">
+    <row r="76" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P76" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P76" t="str">
+      <c r="Q76" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" t="str">
+    <row r="77" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P77" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P77" t="str">
+      <c r="Q77" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" t="str">
+    <row r="78" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P78" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P78" t="str">
+      <c r="Q78" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" t="str">
+    <row r="79" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P79" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P79" t="str">
+      <c r="Q79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" t="str">
+    <row r="80" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P80" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P80" t="str">
+      <c r="Q80" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" t="str">
+    <row r="81" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P81" t="str">
+      <c r="Q81" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" t="str">
+    <row r="82" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P82" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P82" t="str">
+      <c r="Q82" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" t="str">
+    <row r="83" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P83" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P83" t="str">
+      <c r="Q83" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" t="str">
+    <row r="84" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P84" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P84" t="str">
+      <c r="Q84" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" t="str">
+    <row r="85" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P85" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P85" t="str">
+      <c r="Q85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" t="str">
+    <row r="86" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P86" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P86" t="str">
+      <c r="Q86" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" t="str">
+    <row r="87" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P87" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P87" t="str">
+      <c r="Q87" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" t="str">
+    <row r="88" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P88" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P88" t="str">
+      <c r="Q88" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" t="str">
+    <row r="89" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P89" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P89" t="str">
+      <c r="Q89" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" t="str">
+    <row r="90" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P90" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P90" t="str">
+      <c r="Q90" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" t="str">
+    <row r="91" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P91" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P91" t="str">
+      <c r="Q91" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" t="str">
+    <row r="92" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P92" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P92" t="str">
+      <c r="Q92" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" t="str">
+    <row r="93" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P93" t="str">
+      <c r="Q93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" t="str">
+    <row r="94" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P94" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P94" t="str">
+      <c r="Q94" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" t="str">
+    <row r="95" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P95" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P95" t="str">
+      <c r="Q95" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" t="str">
+    <row r="96" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P96" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P96" t="str">
+      <c r="Q96" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" t="str">
+    <row r="97" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P97" t="str">
+      <c r="Q97" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" t="str">
+    <row r="98" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P98" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P98" t="str">
+      <c r="Q98" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" t="str">
+    <row r="99" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P99" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P99" t="str">
+      <c r="Q99" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" t="str">
+    <row r="100" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P100" t="str">
+      <c r="Q100" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" t="str">
+    <row r="101" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P101" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P101" t="str">
+      <c r="Q101" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" t="str">
+    <row r="102" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P102" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P102" t="str">
+      <c r="Q102" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" t="str">
+    <row r="103" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P103" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P103" t="str">
+      <c r="Q103" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" t="str">
+    <row r="104" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P104" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P104" t="str">
+      <c r="Q104" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" t="str">
+    <row r="105" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P105" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P105" t="str">
+      <c r="Q105" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" t="str">
+    <row r="106" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P106" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P106" t="str">
+      <c r="Q106" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" t="str">
+    <row r="107" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P107" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P107" t="str">
+      <c r="Q107" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" t="str">
+    <row r="108" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P108" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P108" t="str">
+      <c r="Q108" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" t="str">
+    <row r="109" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P109" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P109" t="str">
+      <c r="Q109" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" t="str">
+    <row r="110" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P110" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P110" t="str">
+      <c r="Q110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O111" t="str">
+    <row r="111" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P111" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P111" t="str">
+      <c r="Q111" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O112" t="str">
+    <row r="112" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P112" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P112" t="str">
+      <c r="Q112" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O113" t="str">
+    <row r="113" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P113" t="str">
+      <c r="Q113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O114" t="str">
+    <row r="114" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="P114" t="str">
+      <c r="Q114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O115" t="str">
-        <f t="shared" ref="O115:O178" si="4">IF(H115="public","n",IF(H115="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="115" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P115" t="str">
-        <f t="shared" ref="P115:P178" si="5">IF(H115="public","y",IF(H115="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O116" t="str">
+        <f t="shared" ref="P115:P178" si="4">IF(I115="public","n",IF(I115="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q115" t="str">
+        <f t="shared" ref="Q115:Q178" si="5">IF(I115="public","y",IF(I115="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P116" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P116" t="str">
+      <c r="Q116" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O117" t="str">
+    <row r="117" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P117" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P117" t="str">
+      <c r="Q117" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O118" t="str">
+    <row r="118" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P118" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P118" t="str">
+      <c r="Q118" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O119" t="str">
+    <row r="119" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P119" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P119" t="str">
+      <c r="Q119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O120" t="str">
+    <row r="120" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P120" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P120" t="str">
+      <c r="Q120" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O121" t="str">
+    <row r="121" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P121" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P121" t="str">
+      <c r="Q121" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O122" t="str">
+    <row r="122" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P122" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P122" t="str">
+      <c r="Q122" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O123" t="str">
+    <row r="123" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P123" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P123" t="str">
+      <c r="Q123" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O124" t="str">
+    <row r="124" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P124" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P124" t="str">
+      <c r="Q124" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O125" t="str">
+    <row r="125" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P125" t="str">
+      <c r="Q125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O126" t="str">
+    <row r="126" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P126" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P126" t="str">
+      <c r="Q126" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O127" t="str">
+    <row r="127" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P127" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P127" t="str">
+      <c r="Q127" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O128" t="str">
+    <row r="128" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P128" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P128" t="str">
+      <c r="Q128" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O129" t="str">
+    <row r="129" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P129" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P129" t="str">
+      <c r="Q129" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O130" t="str">
+    <row r="130" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P130" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P130" t="str">
+      <c r="Q130" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O131" t="str">
+    <row r="131" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P131" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P131" t="str">
+      <c r="Q131" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O132" t="str">
+    <row r="132" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P132" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P132" t="str">
+      <c r="Q132" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O133" t="str">
+    <row r="133" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P133" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P133" t="str">
+      <c r="Q133" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O134" t="str">
+    <row r="134" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P134" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P134" t="str">
+      <c r="Q134" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O135" t="str">
+    <row r="135" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P135" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P135" t="str">
+      <c r="Q135" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O136" t="str">
+    <row r="136" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P136" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P136" t="str">
+      <c r="Q136" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O137" t="str">
+    <row r="137" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P137" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P137" t="str">
+      <c r="Q137" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O138" t="str">
+    <row r="138" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P138" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P138" t="str">
+      <c r="Q138" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O139" t="str">
+    <row r="139" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P139" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P139" t="str">
+      <c r="Q139" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O140" t="str">
+    <row r="140" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P140" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P140" t="str">
+      <c r="Q140" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O141" t="str">
+    <row r="141" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P141" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P141" t="str">
+      <c r="Q141" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O142" t="str">
+    <row r="142" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P142" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P142" t="str">
+      <c r="Q142" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O143" t="str">
+    <row r="143" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P143" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P143" t="str">
+      <c r="Q143" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O144" t="str">
+    <row r="144" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P144" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P144" t="str">
+      <c r="Q144" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O145" t="str">
+    <row r="145" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P145" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P145" t="str">
+      <c r="Q145" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O146" t="str">
+    <row r="146" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P146" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P146" t="str">
+      <c r="Q146" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O147" t="str">
+    <row r="147" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P147" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P147" t="str">
+      <c r="Q147" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O148" t="str">
+    <row r="148" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P148" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P148" t="str">
+      <c r="Q148" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O149" t="str">
+    <row r="149" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P149" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P149" t="str">
+      <c r="Q149" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O150" t="str">
+    <row r="150" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P150" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P150" t="str">
+      <c r="Q150" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O151" t="str">
+    <row r="151" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P151" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P151" t="str">
+      <c r="Q151" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O152" t="str">
+    <row r="152" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P152" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P152" t="str">
+      <c r="Q152" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O153" t="str">
+    <row r="153" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P153" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P153" t="str">
+      <c r="Q153" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O154" t="str">
+    <row r="154" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P154" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P154" t="str">
+      <c r="Q154" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O155" t="str">
+    <row r="155" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P155" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P155" t="str">
+      <c r="Q155" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O156" t="str">
+    <row r="156" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P156" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P156" t="str">
+      <c r="Q156" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O157" t="str">
+    <row r="157" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P157" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P157" t="str">
+      <c r="Q157" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O158" t="str">
+    <row r="158" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P158" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P158" t="str">
+      <c r="Q158" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O159" t="str">
+    <row r="159" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P159" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P159" t="str">
+      <c r="Q159" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O160" t="str">
+    <row r="160" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P160" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P160" t="str">
+      <c r="Q160" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O161" t="str">
+    <row r="161" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P161" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P161" t="str">
+      <c r="Q161" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O162" t="str">
+    <row r="162" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P162" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P162" t="str">
+      <c r="Q162" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O163" t="str">
+    <row r="163" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P163" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P163" t="str">
+      <c r="Q163" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O164" t="str">
+    <row r="164" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P164" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P164" t="str">
+      <c r="Q164" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O165" t="str">
+    <row r="165" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P165" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P165" t="str">
+      <c r="Q165" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O166" t="str">
+    <row r="166" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P166" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P166" t="str">
+      <c r="Q166" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O167" t="str">
+    <row r="167" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P167" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P167" t="str">
+      <c r="Q167" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O168" t="str">
+    <row r="168" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P168" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P168" t="str">
+      <c r="Q168" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O169" t="str">
+    <row r="169" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P169" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P169" t="str">
+      <c r="Q169" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O170" t="str">
+    <row r="170" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P170" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P170" t="str">
+      <c r="Q170" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O171" t="str">
+    <row r="171" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P171" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P171" t="str">
+      <c r="Q171" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O172" t="str">
+    <row r="172" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P172" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P172" t="str">
+      <c r="Q172" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O173" t="str">
+    <row r="173" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P173" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P173" t="str">
+      <c r="Q173" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O174" t="str">
+    <row r="174" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P174" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P174" t="str">
+      <c r="Q174" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O175" t="str">
+    <row r="175" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P175" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P175" t="str">
+      <c r="Q175" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O176" t="str">
+    <row r="176" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P176" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P176" t="str">
+      <c r="Q176" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O177" t="str">
+    <row r="177" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P177" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P177" t="str">
+      <c r="Q177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O178" t="str">
+    <row r="178" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P178" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="P178" t="str">
+      <c r="Q178" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O179" t="str">
-        <f t="shared" ref="O179:O242" si="6">IF(H179="public","n",IF(H179="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="179" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P179" t="str">
-        <f t="shared" ref="P179:P242" si="7">IF(H179="public","y",IF(H179="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O180" t="str">
+        <f t="shared" ref="P179:P242" si="6">IF(I179="public","n",IF(I179="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q179" t="str">
+        <f t="shared" ref="Q179:Q242" si="7">IF(I179="public","y",IF(I179="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P180" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P180" t="str">
+      <c r="Q180" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O181" t="str">
+    <row r="181" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P181" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P181" t="str">
+      <c r="Q181" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O182" t="str">
+    <row r="182" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P182" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P182" t="str">
+      <c r="Q182" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O183" t="str">
+    <row r="183" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P183" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P183" t="str">
+      <c r="Q183" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O184" t="str">
+    <row r="184" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P184" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P184" t="str">
+      <c r="Q184" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O185" t="str">
+    <row r="185" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P185" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P185" t="str">
+      <c r="Q185" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O186" t="str">
+    <row r="186" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P186" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P186" t="str">
+      <c r="Q186" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O187" t="str">
+    <row r="187" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P187" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P187" t="str">
+      <c r="Q187" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O188" t="str">
+    <row r="188" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P188" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P188" t="str">
+      <c r="Q188" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O189" t="str">
+    <row r="189" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P189" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P189" t="str">
+      <c r="Q189" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O190" t="str">
+    <row r="190" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P190" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P190" t="str">
+      <c r="Q190" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O191" t="str">
+    <row r="191" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P191" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P191" t="str">
+      <c r="Q191" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O192" t="str">
+    <row r="192" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P192" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P192" t="str">
+      <c r="Q192" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O193" t="str">
+    <row r="193" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P193" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P193" t="str">
+      <c r="Q193" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O194" t="str">
+    <row r="194" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P194" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P194" t="str">
+      <c r="Q194" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O195" t="str">
+    <row r="195" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P195" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P195" t="str">
+      <c r="Q195" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O196" t="str">
+    <row r="196" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P196" t="str">
+      <c r="Q196" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O197" t="str">
+    <row r="197" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P197" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P197" t="str">
+      <c r="Q197" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O198" t="str">
+    <row r="198" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P198" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P198" t="str">
+      <c r="Q198" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O199" t="str">
+    <row r="199" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P199" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P199" t="str">
+      <c r="Q199" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O200" t="str">
+    <row r="200" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P200" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P200" t="str">
+      <c r="Q200" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O201" t="str">
+    <row r="201" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P201" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P201" t="str">
+      <c r="Q201" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O202" t="str">
+    <row r="202" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P202" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P202" t="str">
+      <c r="Q202" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O203" t="str">
+    <row r="203" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P203" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P203" t="str">
+      <c r="Q203" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O204" t="str">
+    <row r="204" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P204" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P204" t="str">
+      <c r="Q204" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O205" t="str">
+    <row r="205" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P205" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P205" t="str">
+      <c r="Q205" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O206" t="str">
+    <row r="206" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P206" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P206" t="str">
+      <c r="Q206" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O207" t="str">
+    <row r="207" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P207" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P207" t="str">
+      <c r="Q207" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O208" t="str">
+    <row r="208" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P208" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P208" t="str">
+      <c r="Q208" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O209" t="str">
+    <row r="209" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P209" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P209" t="str">
+      <c r="Q209" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O210" t="str">
+    <row r="210" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P210" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P210" t="str">
+      <c r="Q210" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O211" t="str">
+    <row r="211" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P211" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P211" t="str">
+      <c r="Q211" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O212" t="str">
+    <row r="212" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P212" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P212" t="str">
+      <c r="Q212" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O213" t="str">
+    <row r="213" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P213" t="str">
+      <c r="Q213" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O214" t="str">
+    <row r="214" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P214" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P214" t="str">
+      <c r="Q214" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O215" t="str">
+    <row r="215" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P215" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P215" t="str">
+      <c r="Q215" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O216" t="str">
+    <row r="216" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P216" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P216" t="str">
+      <c r="Q216" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O217" t="str">
+    <row r="217" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P217" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P217" t="str">
+      <c r="Q217" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O218" t="str">
+    <row r="218" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P218" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P218" t="str">
+      <c r="Q218" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O219" t="str">
+    <row r="219" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P219" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P219" t="str">
+      <c r="Q219" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O220" t="str">
+    <row r="220" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P220" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P220" t="str">
+      <c r="Q220" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O221" t="str">
+    <row r="221" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P221" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P221" t="str">
+      <c r="Q221" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O222" t="str">
+    <row r="222" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P222" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P222" t="str">
+      <c r="Q222" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O223" t="str">
+    <row r="223" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P223" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P223" t="str">
+      <c r="Q223" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O224" t="str">
+    <row r="224" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P224" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P224" t="str">
+      <c r="Q224" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O225" t="str">
+    <row r="225" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P225" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P225" t="str">
+      <c r="Q225" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O226" t="str">
+    <row r="226" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P226" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P226" t="str">
+      <c r="Q226" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O227" t="str">
+    <row r="227" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P227" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P227" t="str">
+      <c r="Q227" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O228" t="str">
+    <row r="228" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P228" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P228" t="str">
+      <c r="Q228" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O229" t="str">
+    <row r="229" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P229" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P229" t="str">
+      <c r="Q229" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O230" t="str">
+    <row r="230" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P230" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P230" t="str">
+      <c r="Q230" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O231" t="str">
+    <row r="231" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P231" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P231" t="str">
+      <c r="Q231" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O232" t="str">
+    <row r="232" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P232" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P232" t="str">
+      <c r="Q232" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O233" t="str">
+    <row r="233" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P233" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P233" t="str">
+      <c r="Q233" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O234" t="str">
+    <row r="234" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P234" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P234" t="str">
+      <c r="Q234" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O235" t="str">
+    <row r="235" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P235" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P235" t="str">
+      <c r="Q235" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O236" t="str">
+    <row r="236" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P236" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P236" t="str">
+      <c r="Q236" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O237" t="str">
+    <row r="237" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P237" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P237" t="str">
+      <c r="Q237" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O238" t="str">
+    <row r="238" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P238" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P238" t="str">
+      <c r="Q238" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O239" t="str">
+    <row r="239" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P239" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P239" t="str">
+      <c r="Q239" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O240" t="str">
+    <row r="240" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P240" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P240" t="str">
+      <c r="Q240" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O241" t="str">
+    <row r="241" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P241" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P241" t="str">
+      <c r="Q241" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O242" t="str">
+    <row r="242" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P242" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P242" t="str">
+      <c r="Q242" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O243" t="str">
-        <f t="shared" ref="O243:O306" si="8">IF(H243="public","n",IF(H243="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="243" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P243" t="str">
-        <f t="shared" ref="P243:P306" si="9">IF(H243="public","y",IF(H243="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O244" t="str">
+        <f t="shared" ref="P243:P306" si="8">IF(I243="public","n",IF(I243="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q243" t="str">
+        <f t="shared" ref="Q243:Q306" si="9">IF(I243="public","y",IF(I243="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P244" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P244" t="str">
+      <c r="Q244" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O245" t="str">
+    <row r="245" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P245" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P245" t="str">
+      <c r="Q245" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O246" t="str">
+    <row r="246" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P246" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P246" t="str">
+      <c r="Q246" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O247" t="str">
+    <row r="247" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P247" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P247" t="str">
+      <c r="Q247" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O248" t="str">
+    <row r="248" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P248" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P248" t="str">
+      <c r="Q248" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O249" t="str">
+    <row r="249" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P249" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P249" t="str">
+      <c r="Q249" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O250" t="str">
+    <row r="250" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P250" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P250" t="str">
+      <c r="Q250" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O251" t="str">
+    <row r="251" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P251" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P251" t="str">
+      <c r="Q251" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O252" t="str">
+    <row r="252" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P252" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P252" t="str">
+      <c r="Q252" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O253" t="str">
+    <row r="253" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P253" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P253" t="str">
+      <c r="Q253" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O254" t="str">
+    <row r="254" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P254" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P254" t="str">
+      <c r="Q254" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O255" t="str">
+    <row r="255" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P255" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P255" t="str">
+      <c r="Q255" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O256" t="str">
+    <row r="256" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P256" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P256" t="str">
+      <c r="Q256" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O257" t="str">
+    <row r="257" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P257" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P257" t="str">
+      <c r="Q257" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O258" t="str">
+    <row r="258" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P258" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P258" t="str">
+      <c r="Q258" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="259" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O259" t="str">
+    <row r="259" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P259" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P259" t="str">
+      <c r="Q259" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O260" t="str">
+    <row r="260" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P260" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P260" t="str">
+      <c r="Q260" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O261" t="str">
+    <row r="261" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P261" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P261" t="str">
+      <c r="Q261" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O262" t="str">
+    <row r="262" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P262" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P262" t="str">
+      <c r="Q262" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O263" t="str">
+    <row r="263" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P263" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P263" t="str">
+      <c r="Q263" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O264" t="str">
+    <row r="264" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P264" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P264" t="str">
+      <c r="Q264" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O265" t="str">
+    <row r="265" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P265" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P265" t="str">
+      <c r="Q265" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O266" t="str">
+    <row r="266" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P266" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P266" t="str">
+      <c r="Q266" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O267" t="str">
+    <row r="267" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P267" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P267" t="str">
+      <c r="Q267" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O268" t="str">
+    <row r="268" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P268" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P268" t="str">
+      <c r="Q268" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O269" t="str">
+    <row r="269" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P269" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P269" t="str">
+      <c r="Q269" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O270" t="str">
+    <row r="270" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P270" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P270" t="str">
+      <c r="Q270" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O271" t="str">
+    <row r="271" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P271" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P271" t="str">
+      <c r="Q271" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O272" t="str">
+    <row r="272" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P272" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P272" t="str">
+      <c r="Q272" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O273" t="str">
+    <row r="273" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P273" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P273" t="str">
+      <c r="Q273" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O274" t="str">
+    <row r="274" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P274" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P274" t="str">
+      <c r="Q274" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O275" t="str">
+    <row r="275" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P275" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P275" t="str">
+      <c r="Q275" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O276" t="str">
+    <row r="276" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P276" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P276" t="str">
+      <c r="Q276" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O277" t="str">
+    <row r="277" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P277" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P277" t="str">
+      <c r="Q277" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O278" t="str">
+    <row r="278" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P278" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P278" t="str">
+      <c r="Q278" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O279" t="str">
+    <row r="279" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P279" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P279" t="str">
+      <c r="Q279" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O280" t="str">
+    <row r="280" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P280" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P280" t="str">
+      <c r="Q280" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O281" t="str">
+    <row r="281" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P281" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P281" t="str">
+      <c r="Q281" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O282" t="str">
+    <row r="282" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P282" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P282" t="str">
+      <c r="Q282" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O283" t="str">
+    <row r="283" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P283" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P283" t="str">
+      <c r="Q283" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O284" t="str">
+    <row r="284" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P284" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P284" t="str">
+      <c r="Q284" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O285" t="str">
+    <row r="285" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P285" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P285" t="str">
+      <c r="Q285" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O286" t="str">
+    <row r="286" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P286" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P286" t="str">
+      <c r="Q286" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O287" t="str">
+    <row r="287" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P287" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P287" t="str">
+      <c r="Q287" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O288" t="str">
+    <row r="288" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P288" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P288" t="str">
+      <c r="Q288" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O289" t="str">
+    <row r="289" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P289" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P289" t="str">
+      <c r="Q289" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O290" t="str">
+    <row r="290" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P290" t="str">
+      <c r="Q290" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O291" t="str">
+    <row r="291" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P291" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P291" t="str">
+      <c r="Q291" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O292" t="str">
+    <row r="292" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P292" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P292" t="str">
+      <c r="Q292" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O293" t="str">
+    <row r="293" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P293" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P293" t="str">
+      <c r="Q293" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O294" t="str">
+    <row r="294" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P294" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P294" t="str">
+      <c r="Q294" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O295" t="str">
+    <row r="295" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P295" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P295" t="str">
+      <c r="Q295" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O296" t="str">
+    <row r="296" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P296" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P296" t="str">
+      <c r="Q296" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O297" t="str">
+    <row r="297" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P297" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P297" t="str">
+      <c r="Q297" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O298" t="str">
+    <row r="298" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P298" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P298" t="str">
+      <c r="Q298" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O299" t="str">
+    <row r="299" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P299" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P299" t="str">
+      <c r="Q299" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O300" t="str">
+    <row r="300" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P300" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P300" t="str">
+      <c r="Q300" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O301" t="str">
+    <row r="301" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P301" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P301" t="str">
+      <c r="Q301" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O302" t="str">
+    <row r="302" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P302" t="str">
+      <c r="Q302" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O303" t="str">
+    <row r="303" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P303" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P303" t="str">
+      <c r="Q303" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O304" t="str">
+    <row r="304" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P304" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P304" t="str">
+      <c r="Q304" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O305" t="str">
+    <row r="305" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P305" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P305" t="str">
+      <c r="Q305" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O306" t="str">
+    <row r="306" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P306" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="P306" t="str">
+      <c r="Q306" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O307" t="str">
-        <f t="shared" ref="O307:O370" si="10">IF(H307="public","n",IF(H307="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="307" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P307" t="str">
-        <f t="shared" ref="P307:P370" si="11">IF(H307="public","y",IF(H307="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O308" t="str">
+        <f t="shared" ref="P307:P370" si="10">IF(I307="public","n",IF(I307="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q307" t="str">
+        <f t="shared" ref="Q307:Q370" si="11">IF(I307="public","y",IF(I307="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P308" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P308" t="str">
+      <c r="Q308" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O309" t="str">
+    <row r="309" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P309" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P309" t="str">
+      <c r="Q309" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O310" t="str">
+    <row r="310" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P310" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P310" t="str">
+      <c r="Q310" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O311" t="str">
+    <row r="311" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P311" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P311" t="str">
+      <c r="Q311" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O312" t="str">
+    <row r="312" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P312" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P312" t="str">
+      <c r="Q312" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O313" t="str">
+    <row r="313" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P313" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P313" t="str">
+      <c r="Q313" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O314" t="str">
+    <row r="314" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P314" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P314" t="str">
+      <c r="Q314" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O315" t="str">
+    <row r="315" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P315" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P315" t="str">
+      <c r="Q315" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O316" t="str">
+    <row r="316" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P316" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P316" t="str">
+      <c r="Q316" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O317" t="str">
+    <row r="317" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P317" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P317" t="str">
+      <c r="Q317" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O318" t="str">
+    <row r="318" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P318" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P318" t="str">
+      <c r="Q318" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O319" t="str">
+    <row r="319" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P319" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P319" t="str">
+      <c r="Q319" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O320" t="str">
+    <row r="320" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P320" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P320" t="str">
+      <c r="Q320" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O321" t="str">
+    <row r="321" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P321" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P321" t="str">
+      <c r="Q321" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O322" t="str">
+    <row r="322" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P322" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P322" t="str">
+      <c r="Q322" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="323" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O323" t="str">
+    <row r="323" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P323" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P323" t="str">
+      <c r="Q323" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O324" t="str">
+    <row r="324" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P324" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P324" t="str">
+      <c r="Q324" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O325" t="str">
+    <row r="325" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P325" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P325" t="str">
+      <c r="Q325" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O326" t="str">
+    <row r="326" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P326" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P326" t="str">
+      <c r="Q326" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O327" t="str">
+    <row r="327" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P327" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P327" t="str">
+      <c r="Q327" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O328" t="str">
+    <row r="328" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P328" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P328" t="str">
+      <c r="Q328" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O329" t="str">
+    <row r="329" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P329" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P329" t="str">
+      <c r="Q329" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O330" t="str">
+    <row r="330" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P330" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P330" t="str">
+      <c r="Q330" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O331" t="str">
+    <row r="331" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P331" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P331" t="str">
+      <c r="Q331" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O332" t="str">
+    <row r="332" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P332" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P332" t="str">
+      <c r="Q332" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O333" t="str">
+    <row r="333" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P333" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P333" t="str">
+      <c r="Q333" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O334" t="str">
+    <row r="334" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P334" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P334" t="str">
+      <c r="Q334" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O335" t="str">
+    <row r="335" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P335" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P335" t="str">
+      <c r="Q335" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O336" t="str">
+    <row r="336" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P336" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P336" t="str">
+      <c r="Q336" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O337" t="str">
+    <row r="337" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P337" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P337" t="str">
+      <c r="Q337" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O338" t="str">
+    <row r="338" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P338" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P338" t="str">
+      <c r="Q338" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O339" t="str">
+    <row r="339" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P339" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P339" t="str">
+      <c r="Q339" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O340" t="str">
+    <row r="340" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P340" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P340" t="str">
+      <c r="Q340" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O341" t="str">
+    <row r="341" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P341" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P341" t="str">
+      <c r="Q341" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O342" t="str">
+    <row r="342" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P342" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P342" t="str">
+      <c r="Q342" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O343" t="str">
+    <row r="343" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P343" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P343" t="str">
+      <c r="Q343" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O344" t="str">
+    <row r="344" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P344" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P344" t="str">
+      <c r="Q344" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O345" t="str">
+    <row r="345" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P345" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P345" t="str">
+      <c r="Q345" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O346" t="str">
+    <row r="346" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P346" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P346" t="str">
+      <c r="Q346" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O347" t="str">
+    <row r="347" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P347" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P347" t="str">
+      <c r="Q347" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O348" t="str">
+    <row r="348" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P348" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P348" t="str">
+      <c r="Q348" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O349" t="str">
+    <row r="349" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P349" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P349" t="str">
+      <c r="Q349" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O350" t="str">
+    <row r="350" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P350" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P350" t="str">
+      <c r="Q350" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O351" t="str">
+    <row r="351" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P351" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P351" t="str">
+      <c r="Q351" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O352" t="str">
+    <row r="352" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P352" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P352" t="str">
+      <c r="Q352" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O353" t="str">
+    <row r="353" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P353" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P353" t="str">
+      <c r="Q353" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O354" t="str">
+    <row r="354" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P354" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P354" t="str">
+      <c r="Q354" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O355" t="str">
+    <row r="355" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P355" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P355" t="str">
+      <c r="Q355" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O356" t="str">
+    <row r="356" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P356" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P356" t="str">
+      <c r="Q356" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O357" t="str">
+    <row r="357" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P357" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P357" t="str">
+      <c r="Q357" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O358" t="str">
+    <row r="358" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P358" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P358" t="str">
+      <c r="Q358" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O359" t="str">
+    <row r="359" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P359" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P359" t="str">
+      <c r="Q359" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O360" t="str">
+    <row r="360" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P360" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P360" t="str">
+      <c r="Q360" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O361" t="str">
+    <row r="361" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P361" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P361" t="str">
+      <c r="Q361" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O362" t="str">
+    <row r="362" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P362" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P362" t="str">
+      <c r="Q362" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O363" t="str">
+    <row r="363" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P363" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P363" t="str">
+      <c r="Q363" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O364" t="str">
+    <row r="364" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P364" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P364" t="str">
+      <c r="Q364" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O365" t="str">
+    <row r="365" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P365" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P365" t="str">
+      <c r="Q365" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O366" t="str">
+    <row r="366" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P366" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P366" t="str">
+      <c r="Q366" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O367" t="str">
+    <row r="367" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P367" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P367" t="str">
+      <c r="Q367" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O368" t="str">
+    <row r="368" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P368" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P368" t="str">
+      <c r="Q368" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O369" t="str">
+    <row r="369" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P369" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P369" t="str">
+      <c r="Q369" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O370" t="str">
+    <row r="370" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P370" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="P370" t="str">
+      <c r="Q370" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O371" t="str">
-        <f t="shared" ref="O371:O434" si="12">IF(H371="public","n",IF(H371="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="371" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P371" t="str">
-        <f t="shared" ref="P371:P434" si="13">IF(H371="public","y",IF(H371="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O372" t="str">
+        <f t="shared" ref="P371:P434" si="12">IF(I371="public","n",IF(I371="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q371" t="str">
+        <f t="shared" ref="Q371:Q434" si="13">IF(I371="public","y",IF(I371="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P372" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P372" t="str">
+      <c r="Q372" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O373" t="str">
+    <row r="373" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P373" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P373" t="str">
+      <c r="Q373" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O374" t="str">
+    <row r="374" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P374" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P374" t="str">
+      <c r="Q374" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O375" t="str">
+    <row r="375" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P375" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P375" t="str">
+      <c r="Q375" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O376" t="str">
+    <row r="376" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P376" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P376" t="str">
+      <c r="Q376" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O377" t="str">
+    <row r="377" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P377" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P377" t="str">
+      <c r="Q377" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O378" t="str">
+    <row r="378" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P378" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P378" t="str">
+      <c r="Q378" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O379" t="str">
+    <row r="379" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P379" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P379" t="str">
+      <c r="Q379" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O380" t="str">
+    <row r="380" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P380" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P380" t="str">
+      <c r="Q380" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O381" t="str">
+    <row r="381" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P381" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P381" t="str">
+      <c r="Q381" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O382" t="str">
+    <row r="382" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P382" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P382" t="str">
+      <c r="Q382" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O383" t="str">
+    <row r="383" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P383" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P383" t="str">
+      <c r="Q383" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O384" t="str">
+    <row r="384" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P384" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P384" t="str">
+      <c r="Q384" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O385" t="str">
+    <row r="385" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P385" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P385" t="str">
+      <c r="Q385" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O386" t="str">
+    <row r="386" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P386" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P386" t="str">
+      <c r="Q386" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="387" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O387" t="str">
+    <row r="387" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P387" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P387" t="str">
+      <c r="Q387" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O388" t="str">
+    <row r="388" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P388" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P388" t="str">
+      <c r="Q388" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O389" t="str">
+    <row r="389" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P389" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P389" t="str">
+      <c r="Q389" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O390" t="str">
+    <row r="390" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P390" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P390" t="str">
+      <c r="Q390" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O391" t="str">
+    <row r="391" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P391" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P391" t="str">
+      <c r="Q391" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O392" t="str">
+    <row r="392" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P392" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P392" t="str">
+      <c r="Q392" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O393" t="str">
+    <row r="393" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P393" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P393" t="str">
+      <c r="Q393" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O394" t="str">
+    <row r="394" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P394" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P394" t="str">
+      <c r="Q394" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O395" t="str">
+    <row r="395" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P395" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P395" t="str">
+      <c r="Q395" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O396" t="str">
+    <row r="396" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P396" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P396" t="str">
+      <c r="Q396" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O397" t="str">
+    <row r="397" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P397" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P397" t="str">
+      <c r="Q397" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O398" t="str">
+    <row r="398" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P398" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P398" t="str">
+      <c r="Q398" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O399" t="str">
+    <row r="399" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P399" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P399" t="str">
+      <c r="Q399" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O400" t="str">
+    <row r="400" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P400" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P400" t="str">
+      <c r="Q400" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O401" t="str">
+    <row r="401" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P401" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P401" t="str">
+      <c r="Q401" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O402" t="str">
+    <row r="402" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P402" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P402" t="str">
+      <c r="Q402" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O403" t="str">
+    <row r="403" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P403" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P403" t="str">
+      <c r="Q403" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O404" t="str">
+    <row r="404" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P404" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P404" t="str">
+      <c r="Q404" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O405" t="str">
+    <row r="405" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P405" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P405" t="str">
+      <c r="Q405" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O406" t="str">
+    <row r="406" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P406" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P406" t="str">
+      <c r="Q406" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O407" t="str">
+    <row r="407" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P407" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P407" t="str">
+      <c r="Q407" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O408" t="str">
+    <row r="408" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P408" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P408" t="str">
+      <c r="Q408" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O409" t="str">
+    <row r="409" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P409" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P409" t="str">
+      <c r="Q409" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O410" t="str">
+    <row r="410" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P410" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P410" t="str">
+      <c r="Q410" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O411" t="str">
+    <row r="411" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P411" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P411" t="str">
+      <c r="Q411" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O412" t="str">
+    <row r="412" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P412" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P412" t="str">
+      <c r="Q412" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O413" t="str">
+    <row r="413" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P413" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P413" t="str">
+      <c r="Q413" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O414" t="str">
+    <row r="414" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P414" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P414" t="str">
+      <c r="Q414" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O415" t="str">
+    <row r="415" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P415" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P415" t="str">
+      <c r="Q415" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O416" t="str">
+    <row r="416" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P416" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P416" t="str">
+      <c r="Q416" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O417" t="str">
+    <row r="417" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P417" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P417" t="str">
+      <c r="Q417" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O418" t="str">
+    <row r="418" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P418" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P418" t="str">
+      <c r="Q418" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O419" t="str">
+    <row r="419" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P419" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P419" t="str">
+      <c r="Q419" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O420" t="str">
+    <row r="420" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P420" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P420" t="str">
+      <c r="Q420" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O421" t="str">
+    <row r="421" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P421" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P421" t="str">
+      <c r="Q421" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O422" t="str">
+    <row r="422" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P422" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P422" t="str">
+      <c r="Q422" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O423" t="str">
+    <row r="423" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P423" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P423" t="str">
+      <c r="Q423" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O424" t="str">
+    <row r="424" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P424" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P424" t="str">
+      <c r="Q424" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O425" t="str">
+    <row r="425" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P425" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P425" t="str">
+      <c r="Q425" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O426" t="str">
+    <row r="426" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P426" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P426" t="str">
+      <c r="Q426" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O427" t="str">
+    <row r="427" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P427" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P427" t="str">
+      <c r="Q427" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O428" t="str">
+    <row r="428" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P428" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P428" t="str">
+      <c r="Q428" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O429" t="str">
+    <row r="429" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P429" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P429" t="str">
+      <c r="Q429" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O430" t="str">
+    <row r="430" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P430" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P430" t="str">
+      <c r="Q430" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O431" t="str">
+    <row r="431" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P431" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P431" t="str">
+      <c r="Q431" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O432" t="str">
+    <row r="432" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P432" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P432" t="str">
+      <c r="Q432" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O433" t="str">
+    <row r="433" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P433" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P433" t="str">
+      <c r="Q433" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O434" t="str">
+    <row r="434" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P434" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="P434" t="str">
+      <c r="Q434" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O435" t="str">
-        <f t="shared" ref="O435:O483" si="14">IF(H435="public","n",IF(H435="private","y",""))</f>
-        <v/>
-      </c>
+    <row r="435" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P435" t="str">
-        <f t="shared" ref="P435:P483" si="15">IF(H435="public","y",IF(H435="private","n",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="436" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O436" t="str">
+        <f t="shared" ref="P435:P483" si="14">IF(I435="public","n",IF(I435="private","y",""))</f>
+        <v/>
+      </c>
+      <c r="Q435" t="str">
+        <f t="shared" ref="Q435:Q483" si="15">IF(I435="public","y",IF(I435="private","n",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P436" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P436" t="str">
+      <c r="Q436" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O437" t="str">
+    <row r="437" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P437" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P437" t="str">
+      <c r="Q437" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O438" t="str">
+    <row r="438" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P438" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P438" t="str">
+      <c r="Q438" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O439" t="str">
+    <row r="439" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P439" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P439" t="str">
+      <c r="Q439" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O440" t="str">
+    <row r="440" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P440" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P440" t="str">
+      <c r="Q440" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O441" t="str">
+    <row r="441" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P441" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P441" t="str">
+      <c r="Q441" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O442" t="str">
+    <row r="442" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P442" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P442" t="str">
+      <c r="Q442" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O443" t="str">
+    <row r="443" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P443" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P443" t="str">
+      <c r="Q443" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O444" t="str">
+    <row r="444" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P444" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P444" t="str">
+      <c r="Q444" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O445" t="str">
+    <row r="445" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P445" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P445" t="str">
+      <c r="Q445" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O446" t="str">
+    <row r="446" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P446" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P446" t="str">
+      <c r="Q446" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O447" t="str">
+    <row r="447" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P447" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P447" t="str">
+      <c r="Q447" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O448" t="str">
+    <row r="448" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P448" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P448" t="str">
+      <c r="Q448" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O449" t="str">
+    <row r="449" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P449" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P449" t="str">
+      <c r="Q449" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O450" t="str">
+    <row r="450" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P450" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P450" t="str">
+      <c r="Q450" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="451" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O451" t="str">
+    <row r="451" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P451" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P451" t="str">
+      <c r="Q451" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O452" t="str">
+    <row r="452" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P452" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P452" t="str">
+      <c r="Q452" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O453" t="str">
+    <row r="453" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P453" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P453" t="str">
+      <c r="Q453" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O454" t="str">
+    <row r="454" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P454" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P454" t="str">
+      <c r="Q454" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O455" t="str">
+    <row r="455" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P455" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P455" t="str">
+      <c r="Q455" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O456" t="str">
+    <row r="456" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P456" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P456" t="str">
+      <c r="Q456" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O457" t="str">
+    <row r="457" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P457" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P457" t="str">
+      <c r="Q457" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O458" t="str">
+    <row r="458" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P458" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P458" t="str">
+      <c r="Q458" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O459" t="str">
+    <row r="459" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P459" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P459" t="str">
+      <c r="Q459" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O460" t="str">
+    <row r="460" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P460" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P460" t="str">
+      <c r="Q460" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O461" t="str">
+    <row r="461" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P461" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P461" t="str">
+      <c r="Q461" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O462" t="str">
+    <row r="462" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P462" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P462" t="str">
+      <c r="Q462" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O463" t="str">
+    <row r="463" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P463" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P463" t="str">
+      <c r="Q463" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O464" t="str">
+    <row r="464" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P464" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P464" t="str">
+      <c r="Q464" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O465" t="str">
+    <row r="465" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P465" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P465" t="str">
+      <c r="Q465" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O466" t="str">
+    <row r="466" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P466" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P466" t="str">
+      <c r="Q466" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O467" t="str">
+    <row r="467" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P467" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P467" t="str">
+      <c r="Q467" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O468" t="str">
+    <row r="468" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P468" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P468" t="str">
+      <c r="Q468" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O469" t="str">
+    <row r="469" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P469" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P469" t="str">
+      <c r="Q469" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O470" t="str">
+    <row r="470" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P470" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P470" t="str">
+      <c r="Q470" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O471" t="str">
+    <row r="471" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P471" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P471" t="str">
+      <c r="Q471" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O472" t="str">
+    <row r="472" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P472" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P472" t="str">
+      <c r="Q472" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O473" t="str">
+    <row r="473" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P473" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P473" t="str">
+      <c r="Q473" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O474" t="str">
+    <row r="474" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P474" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P474" t="str">
+      <c r="Q474" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O475" t="str">
+    <row r="475" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P475" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P475" t="str">
+      <c r="Q475" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O476" t="str">
+    <row r="476" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P476" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P476" t="str">
+      <c r="Q476" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O477" t="str">
+    <row r="477" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P477" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P477" t="str">
+      <c r="Q477" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O478" t="str">
+    <row r="478" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P478" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P478" t="str">
+      <c r="Q478" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O479" t="str">
+    <row r="479" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P479" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P479" t="str">
+      <c r="Q479" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O480" t="str">
+    <row r="480" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P480" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P480" t="str">
+      <c r="Q480" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O481" t="str">
+    <row r="481" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P481" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P481" t="str">
+      <c r="Q481" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O482" t="str">
+    <row r="482" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P482" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P482" t="str">
+      <c r="Q482" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O483" t="str">
+    <row r="483" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P483" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="P483" t="str">
+      <c r="Q483" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:U1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="K2:T1048576 A1:D2 E1:F1048576 D3:D1048576 H1:I1048576 G1:G2 U1:XFD1048576 J2 J1:T1" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
+    <dataValidation allowBlank="1" sqref="L2:U1048576 A1:D2 K1:U1 D3:D1048576 I1:J1048576 H1:H2 V1:XFD1048576 K2 E1:F1048576 G1 G3:G1048576" xr:uid="{D688D620-62F0-BE47-974F-EC66AADBCA24}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22852,7 +22936,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -22938,7 +23022,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23019,7 +23103,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23136,7 +23220,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23262,7 +23346,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="179.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -23281,22 +23365,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>627</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>628</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>255</v>
@@ -23596,7 +23680,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23664,7 +23748,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="112" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -23691,22 +23775,22 @@
         <v>203</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>634</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>635</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>255</v>
@@ -23789,7 +23873,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -23874,7 +23958,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -23884,7 +23968,7 @@
       <c r="G1" s="115"/>
       <c r="H1" s="116"/>
       <c r="I1" s="103" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J1" s="104"/>
       <c r="K1" s="104"/>
@@ -23917,7 +24001,7 @@
         <v>67</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>69</v>
@@ -23944,7 +24028,7 @@
         <v>494</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="P2" s="24" t="s">
         <v>71</v>
@@ -23962,7 +24046,7 @@
         <v>74</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V2" s="24" t="s">
         <v>255</v>
@@ -24012,7 +24096,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="201" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24043,7 +24127,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>80</v>
@@ -24064,16 +24148,16 @@
         <v>258</v>
       </c>
       <c r="K2" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>695</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>696</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>697</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>698</v>
       </c>
       <c r="O2" s="25" t="s">
         <v>495</v>
@@ -24142,7 +24226,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="169" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24156,7 +24240,7 @@
       <c r="K1" s="104"/>
       <c r="L1" s="105"/>
       <c r="M1" s="117" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N1" s="118"/>
       <c r="O1" s="118"/>
@@ -24179,58 +24263,58 @@
         <v>65</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>738</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>718</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>719</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>719</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>720</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>721</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>722</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>723</v>
       </c>
       <c r="M2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="N2" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>725</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>726</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>727</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>728</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>729</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>730</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>731</v>
       </c>
       <c r="V2" s="25" t="s">
         <v>255</v>
@@ -24305,7 +24389,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="145" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24322,7 +24406,7 @@
       <c r="N1" s="104"/>
       <c r="O1" s="105"/>
       <c r="P1" s="114" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="Q1" s="115"/>
       <c r="R1" s="115"/>
@@ -24352,46 +24436,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>675</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>676</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
+        <v>740</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>741</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="I2" s="25" t="s">
+      <c r="K2" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>742</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="N2" s="25" t="s">
-        <v>743</v>
-      </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>522</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>523</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>66</v>
@@ -24406,28 +24490,28 @@
         <v>491</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V2" s="25" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>65</v>
       </c>
       <c r="X2" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Y2" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z2" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AA2" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="AB2" s="25" t="s">
         <v>526</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>745</v>
-      </c>
-      <c r="AB2" s="25" t="s">
-        <v>527</v>
       </c>
       <c r="AC2" s="25" t="s">
         <v>71</v>
@@ -24436,19 +24520,19 @@
         <v>255</v>
       </c>
       <c r="AE2" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF2" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="AF2" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="AG2" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="AH2" s="25" t="s">
         <v>678</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AI2" s="25" t="s">
         <v>679</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -24499,7 +24583,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -24540,7 +24624,7 @@
         <v>386</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>88</v>
@@ -24624,7 +24708,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -24668,7 +24752,7 @@
         <v>97</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>98</v>
@@ -24758,7 +24842,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -24998,7 +25082,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="30" customFormat="1" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="100" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -25018,13 +25102,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G2" s="72" t="s">
         <v>255</v>
@@ -25764,7 +25848,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -25825,7 +25909,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="110" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -25839,10 +25923,10 @@
         <v>87</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25918,7 +26002,7 @@
         <v>500</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>501</v>
@@ -26310,10 +26394,10 @@
         <v>505</v>
       </c>
       <c r="G2" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>699</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>700</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>100</v>
@@ -26325,7 +26409,7 @@
         <v>266</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -26349,10 +26433,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26368,27 +26452,31 @@
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="103" t="s">
-        <v>751</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-    </row>
-    <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="99" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+    </row>
+    <row r="2" spans="1:20" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -26398,47 +26486,59 @@
       <c r="C2" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>738</v>
+      <c r="D2" s="39" t="s">
+        <v>802</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="38" t="s">
         <v>451</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="I2" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>450</v>
-      </c>
       <c r="J2" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="L2" s="39" t="s">
+      <c r="O2" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="Q2" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="R2" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="S2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
@@ -26460,10 +26560,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" sqref="A1:XFD1048576" xr:uid="{A0FCBEB1-5646-4C4C-B2CC-6DA29E67C231}"/>
+    <dataValidation allowBlank="1" sqref="A3:XFD1048576 A1:A2 U1:XFD2 B2:T2" xr:uid="{A0FCBEB1-5646-4C4C-B2CC-6DA29E67C231}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26508,7 +26608,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -26548,7 +26648,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E2" s="89" t="s">
         <v>448</v>
@@ -29632,7 +29732,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="103" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
@@ -32482,7 +32582,7 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>
@@ -32522,10 +32622,10 @@
         <v>471</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>450</v>
@@ -32540,16 +32640,16 @@
         <v>472</v>
       </c>
       <c r="K2" s="94" t="s">
+        <v>668</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>669</v>
       </c>
-      <c r="L2" s="94" t="s">
+      <c r="M2" s="38" t="s">
         <v>670</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="N2" s="38" t="s">
         <v>671</v>
-      </c>
-      <c r="N2" s="38" t="s">
-        <v>672</v>
       </c>
       <c r="O2" s="38" t="s">
         <v>473</v>
@@ -36821,7 +36921,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="122" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -36849,46 +36949,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>681</v>
-      </c>
-      <c r="E2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="25" t="s">
         <v>644</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="56" t="s">
         <v>645</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="25" t="s">
         <v>646</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>647</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="71" t="s">
+        <v>672</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>673</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="L2" s="71" t="s">
-        <v>673</v>
-      </c>
-      <c r="M2" s="71" t="s">
-        <v>674</v>
-      </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>652</v>
       </c>
       <c r="Q2" s="25" t="s">
         <v>71</v>
@@ -36956,7 +37056,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -36977,43 +37077,43 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D2" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>657</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>660</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="M2" s="25" t="s">
         <v>661</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>662</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>663</v>
       </c>
       <c r="O2" s="37"/>
     </row>
@@ -37026,7 +37126,7 @@
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -37065,7 +37165,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -37080,22 +37180,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G2" s="93" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -38047,7 +38147,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="125" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -38075,49 +38175,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="J2" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="K2" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>600</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>606</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="O2" s="25" t="s">
-        <v>604</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>602</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>255</v>
@@ -38201,7 +38301,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -38210,7 +38310,7 @@
       <c r="F1" s="99"/>
       <c r="G1" s="99"/>
       <c r="H1" s="106" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I1" s="120"/>
       <c r="J1" s="120"/>
@@ -38225,46 +38325,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="D2" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>707</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>709</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="M2" s="87" t="s">
+        <v>712</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>704</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>708</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>709</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>710</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="M2" s="87" t="s">
+      <c r="O2" s="15" t="s">
         <v>713</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -39410,7 +39510,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="212" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -39420,7 +39520,7 @@
       <c r="G1" s="123"/>
       <c r="H1" s="124"/>
       <c r="I1" s="114" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J1" s="115"/>
       <c r="K1" s="115"/>
@@ -39457,10 +39557,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>65</v>
@@ -39469,64 +39569,64 @@
         <v>67</v>
       </c>
       <c r="I2" s="96" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J2" s="95" t="s">
         <v>66</v>
       </c>
       <c r="K2" s="95" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L2" s="95" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M2" s="96" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="96" t="s">
+        <v>776</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>777</v>
+      </c>
+      <c r="P2" s="96" t="s">
         <v>778</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="Q2" s="96" t="s">
         <v>779</v>
       </c>
-      <c r="P2" s="96" t="s">
+      <c r="R2" s="96" t="s">
         <v>780</v>
       </c>
-      <c r="Q2" s="96" t="s">
+      <c r="S2" s="96" t="s">
         <v>781</v>
       </c>
-      <c r="R2" s="96" t="s">
+      <c r="T2" s="96" t="s">
         <v>782</v>
       </c>
-      <c r="S2" s="96" t="s">
+      <c r="U2" s="96" t="s">
         <v>783</v>
       </c>
-      <c r="T2" s="96" t="s">
+      <c r="V2" s="96" t="s">
         <v>784</v>
       </c>
-      <c r="U2" s="96" t="s">
+      <c r="W2" s="96" t="s">
         <v>785</v>
       </c>
-      <c r="V2" s="96" t="s">
+      <c r="X2" s="96" t="s">
         <v>786</v>
       </c>
-      <c r="W2" s="96" t="s">
+      <c r="Y2" s="96" t="s">
         <v>787</v>
       </c>
-      <c r="X2" s="96" t="s">
+      <c r="Z2" s="96" t="s">
         <v>788</v>
-      </c>
-      <c r="Y2" s="96" t="s">
-        <v>789</v>
-      </c>
-      <c r="Z2" s="96" t="s">
-        <v>790</v>
       </c>
       <c r="AA2" s="96" t="s">
         <v>61</v>
       </c>
       <c r="AB2" s="96" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AC2" s="95" t="s">
         <v>255</v>
@@ -45565,7 +45665,7 @@
   <sheetData>
     <row r="1" spans="1:81" ht="185" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -45591,13 +45691,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>791</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>792</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>793</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>795</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>255</v>
@@ -47008,13 +47108,13 @@
         <v>206</v>
       </c>
       <c r="AL1" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM1" s="41" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN1" s="41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -47022,22 +47122,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F2" s="44" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H2" s="44" t="s">
         <v>28</v>
@@ -47049,13 +47149,13 @@
         <v>42</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L2" s="44" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N2" s="44" t="s">
         <v>376</v>
@@ -47076,10 +47176,10 @@
         <v>237</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="U2" s="44" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="V2" s="44" t="s">
         <v>414</v>
@@ -47130,13 +47230,13 @@
         <v>208</v>
       </c>
       <c r="AL2" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AM2" s="43" t="b">
         <v>0</v>
       </c>
       <c r="AN2" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -47144,16 +47244,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F3" s="44" t="s">
         <v>20</v>
@@ -47194,7 +47294,7 @@
         <v>417</v>
       </c>
       <c r="T3" s="44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="U3" s="44"/>
       <c r="V3" s="44" t="s">
@@ -47246,13 +47346,13 @@
         <v>209</v>
       </c>
       <c r="AL3" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM3" s="43" t="b">
         <v>1</v>
       </c>
       <c r="AN3" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -47260,16 +47360,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" t="s">
@@ -47300,7 +47400,7 @@
         <v>421</v>
       </c>
       <c r="T4" s="44" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U4" s="44"/>
       <c r="V4" s="44"/>
@@ -47338,7 +47438,7 @@
         <v>32</v>
       </c>
       <c r="AN4" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="43" customFormat="1" x14ac:dyDescent="0.2">
@@ -47346,14 +47446,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H5" s="44"/>
       <c r="I5" s="44" t="s">
@@ -47403,14 +47503,14 @@
         <v>7</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
@@ -47452,10 +47552,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" t="s">
@@ -47499,10 +47599,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" t="s">
@@ -47546,10 +47646,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" t="s">
@@ -47593,14 +47693,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -47640,14 +47740,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F11" s="44"/>
       <c r="G11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -47688,7 +47788,7 @@
       </c>
       <c r="F12" s="44"/>
       <c r="G12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -47727,7 +47827,7 @@
       </c>
       <c r="F13" s="44"/>
       <c r="G13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H13" s="44"/>
       <c r="I13" s="44"/>
@@ -47766,7 +47866,7 @@
       </c>
       <c r="F14" s="44"/>
       <c r="G14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
@@ -47883,7 +47983,7 @@
       </c>
       <c r="F17" s="44"/>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -47922,7 +48022,7 @@
       </c>
       <c r="F18" s="44"/>
       <c r="G18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -47961,7 +48061,7 @@
       </c>
       <c r="F19" s="44"/>
       <c r="G19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -48000,7 +48100,7 @@
       </c>
       <c r="F20" s="44"/>
       <c r="G20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -48078,7 +48178,7 @@
       </c>
       <c r="F22" s="44"/>
       <c r="G22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
@@ -48117,7 +48217,7 @@
       </c>
       <c r="F23" s="44"/>
       <c r="G23" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
@@ -48156,7 +48256,7 @@
       </c>
       <c r="F24" s="44"/>
       <c r="G24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
@@ -48234,7 +48334,7 @@
       </c>
       <c r="F26" s="44"/>
       <c r="G26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H26" s="44"/>
       <c r="I26" s="44"/>
@@ -48351,7 +48451,7 @@
       </c>
       <c r="F29" s="44"/>
       <c r="G29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H29" s="44"/>
       <c r="I29" s="44"/>
@@ -48429,7 +48529,7 @@
       </c>
       <c r="F31" s="44"/>
       <c r="G31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -48507,7 +48607,7 @@
       </c>
       <c r="F33" s="44"/>
       <c r="G33" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -48546,7 +48646,7 @@
       </c>
       <c r="F34" s="44"/>
       <c r="G34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
@@ -48624,7 +48724,7 @@
       </c>
       <c r="F36" s="44"/>
       <c r="G36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H36" s="44"/>
       <c r="I36" s="44"/>
@@ -48702,7 +48802,7 @@
       </c>
       <c r="F38" s="44"/>
       <c r="G38" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
@@ -48738,7 +48838,7 @@
     <row r="39" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F39" s="44"/>
       <c r="G39" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H39" s="44"/>
       <c r="I39" s="44"/>
@@ -48775,7 +48875,7 @@
       </c>
       <c r="F40" s="44"/>
       <c r="G40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H40" s="44"/>
       <c r="I40" s="44"/>
@@ -49012,7 +49112,7 @@
         <v>449</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M1" s="34"/>
     </row>
@@ -49111,7 +49211,7 @@
         <v>268</v>
       </c>
       <c r="L4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -49133,7 +49233,7 @@
         <v>269</v>
       </c>
       <c r="L5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -49248,7 +49348,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F12" s="27"/>
       <c r="H12" s="27" t="s">
@@ -49265,7 +49365,7 @@
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F13" s="27"/>
       <c r="H13" s="27" t="s">
@@ -50129,7 +50229,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -50137,7 +50237,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -50145,7 +50245,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -50153,7 +50253,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -50454,7 +50554,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="30" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -50473,10 +50573,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>255</v>
@@ -52059,7 +52159,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="30" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -54419,7 +54519,7 @@
       <c r="E1" s="104"/>
       <c r="F1" s="105"/>
       <c r="G1" s="106" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1" s="107"/>
       <c r="I1" s="108"/>
@@ -54491,7 +54591,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="30" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -54509,7 +54609,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E2" s="74" t="s">
         <v>255</v>
@@ -54566,7 +54666,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="30" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -54593,34 +54693,34 @@
         <v>2</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="E2" s="74" t="s">
         <v>684</v>
       </c>
-      <c r="E2" s="74" t="s">
+      <c r="F2" s="74" t="s">
         <v>685</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="G2" s="74" t="s">
         <v>686</v>
       </c>
-      <c r="G2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>687</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="76" t="s">
         <v>688</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="J2" s="76" t="s">
         <v>689</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="K2" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="K2" s="74" t="s">
+      <c r="L2" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="L2" s="74" t="s">
+      <c r="M2" s="74" t="s">
         <v>692</v>
-      </c>
-      <c r="M2" s="74" t="s">
-        <v>693</v>
       </c>
       <c r="N2" s="77" t="s">
         <v>255</v>
